--- a/server/event_stream2.xlsx
+++ b/server/event_stream2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\桌面\面向对象分析与程序设计\课设\pyqt\pythonProject\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\桌面\面向对象分析与程序设计\课设\pyqt\pythonProject\server\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10E3513D-7D85-4704-8EA4-B92D4197F32E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8D90BA9-A8EB-4F93-935B-DB75153F743D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-119" yWindow="-119" windowWidth="25603" windowHeight="14506" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,15 +30,9 @@
     <t>时间</t>
   </si>
   <si>
-    <t>洛杉矶湖人</t>
-  </si>
-  <si>
     <t>比分</t>
   </si>
   <si>
-    <t>明尼苏达森林狼</t>
-  </si>
-  <si>
     <t>0-0</t>
   </si>
   <si>
@@ -76,297 +70,6 @@
   </si>
   <si>
     <t>第1节开始.</t>
-  </si>
-  <si>
-    <t>跳球： 戴维斯 与 戈贝尔: 康利 得到球</t>
-  </si>
-  <si>
-    <t>爱德华兹 三分投篮： 不中</t>
-  </si>
-  <si>
-    <t>八村塁 三分投篮： 命中(3 分) (戴维斯 1 次助攻)</t>
-  </si>
-  <si>
-    <t>里维斯 犯规: 个人犯规 (1 次失误) (裁判：N.布赫特吹罚)</t>
-  </si>
-  <si>
-    <t>杰登-麦克丹尼尔斯 突破挑篮： 命中(2 分) (朱利叶斯-兰德尔 1 次助攻)</t>
-  </si>
-  <si>
-    <t>八村塁 突破扣篮： 命中(5 分) (拉塞尔 1 次助攻)</t>
-  </si>
-  <si>
-    <t>爱德华兹 三分投篮： 命中(3 分) (朱利叶斯-兰德尔 2 次助攻)</t>
-  </si>
-  <si>
-    <t>戈贝尔 抢到篮板球 (进攻篮板:0 防守篮板:1)</t>
-  </si>
-  <si>
-    <t>杰登-麦克丹尼尔斯 行进间上篮： 不中</t>
-  </si>
-  <si>
-    <t>八村塁 三分投篮： 不中</t>
-  </si>
-  <si>
-    <t>里维斯 抢到篮板球 (进攻篮板:1 防守篮板:0)</t>
-  </si>
-  <si>
-    <t>拉塞尔 三分投篮： 不中</t>
-  </si>
-  <si>
-    <t>戈贝尔 抢到篮板球 (进攻篮板:0 防守篮板:2)</t>
-  </si>
-  <si>
-    <t>戈贝尔 反手上篮： 不中</t>
-  </si>
-  <si>
-    <t>八村塁 封盖 (1 次封盖)</t>
-  </si>
-  <si>
-    <t>戴维斯 抢到篮板球 (进攻篮板:0 防守篮板:1)</t>
-  </si>
-  <si>
-    <t>里维斯 违例：脚踢球 (裁判：N.布赫特吹罚)</t>
-  </si>
-  <si>
-    <t>康利 失误：误传 (1 次失误)</t>
-  </si>
-  <si>
-    <t>戴维斯 抢断 (1 次抢断)</t>
-  </si>
-  <si>
-    <t>戈贝尔 失误：进攻犯规 (1 次犯规) (裁判：J.奥尔)</t>
-  </si>
-  <si>
-    <t>戈贝尔 失误：进攻犯规 (1 次失误)</t>
-  </si>
-  <si>
-    <t>拉塞尔 快攻打板抛投： 不中</t>
-  </si>
-  <si>
-    <t>戈贝尔 抢到篮板球 (进攻篮板:0 防守篮板:3)</t>
-  </si>
-  <si>
-    <t>朱利叶斯-兰德尔 行进间上篮： 不中</t>
-  </si>
-  <si>
-    <t>戴维斯 抢到篮板球 (进攻篮板:0 防守篮板:2)</t>
-  </si>
-  <si>
-    <t>戴维斯 失误：误传 (1 次失误)</t>
-  </si>
-  <si>
-    <t>杰登-麦克丹尼尔斯 抢断 (1 次抢断)</t>
-  </si>
-  <si>
-    <t>杰登-麦克丹尼尔斯 上篮： 命中(4 分)</t>
-  </si>
-  <si>
-    <t>里维斯 三分投篮： 不中</t>
-  </si>
-  <si>
-    <t>朱利叶斯-兰德尔 抢到篮板球 (进攻篮板:0 防守篮板:1)</t>
-  </si>
-  <si>
-    <t>朱利叶斯-兰德尔 失误：误传 (1 次失误)</t>
-  </si>
-  <si>
-    <t>拉塞尔 抢断 (1 次抢断)</t>
-  </si>
-  <si>
-    <t>戴维斯 抢到篮板球 (进攻篮板:1 防守篮板:2)</t>
-  </si>
-  <si>
-    <t>戴维斯 补扣： 命中(2 分)</t>
-  </si>
-  <si>
-    <t>森林狼 失误 : 24秒违例</t>
-  </si>
-  <si>
-    <t>湖人 暂停 : 常规暂停</t>
-  </si>
-  <si>
-    <t>戴维斯 撤步跳投： 命中(4 分)</t>
-  </si>
-  <si>
-    <t>爱德华兹 三分远投： 不中</t>
-  </si>
-  <si>
-    <t>森林狼 抢到篮板球</t>
-  </si>
-  <si>
-    <t>八村塁 犯规: 无球犯规 (1 次失误) (裁判：N.布赫特吹罚)</t>
-  </si>
-  <si>
-    <t>换人： 拿斯列特 替换 朱利叶斯-兰德尔</t>
-  </si>
-  <si>
-    <t>换人： 迪温琴佐 替换 康利</t>
-  </si>
-  <si>
-    <t>爱德华兹 三分远投： 命中(6 分)</t>
-  </si>
-  <si>
-    <t>里维斯 三分远投： 不中</t>
-  </si>
-  <si>
-    <t>马克斯·克里斯蒂 抢到篮板球 (进攻篮板:1 防守篮板:0)</t>
-  </si>
-  <si>
-    <t>拉塞尔 三分投篮： 命中(3 分) (戴维斯 3 次助攻)</t>
-  </si>
-  <si>
-    <t>迪温琴佐 三分远投： 不中</t>
-  </si>
-  <si>
-    <t>戴维斯 抢到篮板球 (进攻篮板:1 防守篮板:3)</t>
-  </si>
-  <si>
-    <t>杰登-麦克丹尼尔斯 犯规: 个人犯规 (1 次失误) (裁判：N.布赫特吹罚)</t>
-  </si>
-  <si>
-    <t>换人： 文森特 替换 拉塞尔</t>
-  </si>
-  <si>
-    <t>马克斯·克里斯蒂 三分投篮： 不中</t>
-  </si>
-  <si>
-    <t>拿斯列特 抢到篮板球 (进攻篮板:0 防守篮板:1)</t>
-  </si>
-  <si>
-    <t>拿斯列特 失误：传球出界 (1 次失误)</t>
-  </si>
-  <si>
-    <t>戴维斯 勾手投篮： 不中</t>
-  </si>
-  <si>
-    <t>拿斯列特 抢到篮板球 (进攻篮板:0 防守篮板:2)</t>
-  </si>
-  <si>
-    <t>戈贝尔 行进间上篮： 命中(2 分) (迪温琴佐 1 次助攻)</t>
-  </si>
-  <si>
-    <t>文森特 撤步跳投： 不中</t>
-  </si>
-  <si>
-    <t>湖人 抢到篮板球</t>
-  </si>
-  <si>
-    <t>里维斯 空切挑篮： 不中</t>
-  </si>
-  <si>
-    <t>里维斯 抢到篮板球 (进攻篮板:2 防守篮板:0)</t>
-  </si>
-  <si>
-    <t>里维斯 补篮： 命中(2 分)</t>
-  </si>
-  <si>
-    <t>爱德华兹 失误：走步 (1 次失误)</t>
-  </si>
-  <si>
-    <t>戴维斯 转身后仰投篮： 不中</t>
-  </si>
-  <si>
-    <t>戈贝尔 抢到篮板球 (进攻篮板:0 防守篮板:4)</t>
-  </si>
-  <si>
-    <t>杰登-麦克丹尼尔斯 三分远投： 不中</t>
-  </si>
-  <si>
-    <t>戈贝尔 抢到篮板球 (进攻篮板:1 防守篮板:4)</t>
-  </si>
-  <si>
-    <t>马克斯·克里斯蒂 犯规: 投篮犯规 (1 次犯规) (裁判：N.布赫特吹罚)</t>
-  </si>
-  <si>
-    <t>戈贝尔 (两罚)第一罚 命中(3 分)</t>
-  </si>
-  <si>
-    <t>换人： 贾克森-海耶斯 替换 八村塁</t>
-  </si>
-  <si>
-    <t>换人： 尼基尔-亚历山大-沃克 替换 杰登-麦克丹尼尔斯</t>
-  </si>
-  <si>
-    <t>戈贝尔 (两罚)第二罚 不中</t>
-  </si>
-  <si>
-    <t>戴维斯 抢到篮板球 (进攻篮板:1 防守篮板:4)</t>
-  </si>
-  <si>
-    <t>马克斯·克里斯蒂 三分远投： 不中</t>
-  </si>
-  <si>
-    <t>爱德华兹 抢到篮板球 (进攻篮板:0 防守篮板:1)</t>
-  </si>
-  <si>
-    <t>爱德华兹 行进间上篮： 命中(8 分)</t>
-  </si>
-  <si>
-    <t>拿斯列特 犯规: 投篮犯规 (1 次犯规) (裁判:J.威廉姆斯吹罚)</t>
-  </si>
-  <si>
-    <t>森林狼 暂停 : 常规暂停</t>
-  </si>
-  <si>
-    <t>换人： 朱利叶斯-兰德尔 替换 戈贝尔</t>
-  </si>
-  <si>
-    <t>戴维斯 (两罚)第一罚 命中(5 分)</t>
-  </si>
-  <si>
-    <t>戴维斯 (两罚)第二罚 命中(6 分)</t>
-  </si>
-  <si>
-    <t>尼基尔-亚历山大-沃克 三分投篮： 命中(3 分) (迪温琴佐 2 次助攻)</t>
-  </si>
-  <si>
-    <t>戴维斯 快攻抛投： 不中</t>
-  </si>
-  <si>
-    <t>贾克森-海耶斯 抢到篮板球 (进攻篮板:1 防守篮板:0)</t>
-  </si>
-  <si>
-    <t>拿斯列特 抢到篮板球 (进攻篮板:0 防守篮板:3)</t>
-  </si>
-  <si>
-    <t>文森特 抢到篮板球 (进攻篮板:0 防守篮板:1)</t>
-  </si>
-  <si>
-    <t>朱利叶斯-兰德尔 抢到篮板球 (进攻篮板:0 防守篮板:2)</t>
-  </si>
-  <si>
-    <t>迪温琴佐 (两罚)第一罚 不中</t>
-  </si>
-  <si>
-    <t>换人： 拉塞尔 替换 戴维斯</t>
-  </si>
-  <si>
-    <t>迪温琴佐 (两罚)第二罚 不中</t>
-  </si>
-  <si>
-    <t>贾克森-海耶斯 抢到篮板球 (进攻篮板:1 防守篮板:1)</t>
-  </si>
-  <si>
-    <t>迪温琴佐 犯规: 投篮犯规 (1 次犯规) (裁判:J.威廉姆斯吹罚)</t>
-  </si>
-  <si>
-    <t>贾克森-海耶斯 (两罚)第一罚 命中(1 分)</t>
-  </si>
-  <si>
-    <t>贾克森-海耶斯 (两罚)第二罚 命中(2 分)</t>
-  </si>
-  <si>
-    <t>拿斯列特 三分 勾手擦板： 命中(3 分) (迪温琴佐 3 次助攻)</t>
-  </si>
-  <si>
-    <t>迪温琴佐 快攻抛投： 不中</t>
-  </si>
-  <si>
-    <t>迪温琴佐 抢到篮板球 (进攻篮板:1 防守篮板:0)</t>
-  </si>
-  <si>
-    <t>迪温琴佐 直接补篮： 命中(2 分)</t>
   </si>
   <si>
     <t>第1节结束.</t>
@@ -511,303 +214,24 @@
     <t>第2节开始.</t>
   </si>
   <si>
-    <t>拉塞尔 三分远投： 不中</t>
-  </si>
-  <si>
-    <t>八村塁 抢到篮板球 (进攻篮板:1 防守篮板:0)</t>
-  </si>
-  <si>
-    <t>八村塁 直接补篮： 命中(7 分)</t>
-  </si>
-  <si>
-    <t>康利 抢到篮板球 (进攻篮板:1 防守篮板:0)</t>
-  </si>
-  <si>
-    <t>朱利叶斯-兰德尔 三分远投： 命中(3 分)</t>
-  </si>
-  <si>
-    <t>贾克森-海耶斯 漂移跳投： 不中</t>
-  </si>
-  <si>
-    <t>贾克森-海耶斯 抢到篮板球 (进攻篮板:2 防守篮板:1)</t>
-  </si>
-  <si>
-    <t>拉塞尔 空切上篮： 命中(5 分) (八村塁 1 次助攻)</t>
-  </si>
-  <si>
-    <t>尼基尔-亚历山大-沃克 失误：丢球 (1 次失误)</t>
-  </si>
-  <si>
-    <t>八村塁 抢断 (1 次抢断)</t>
-  </si>
-  <si>
-    <t>八村塁 急停跳投： 不中</t>
-  </si>
-  <si>
-    <t>贾克森-海耶斯 抢到篮板球 (进攻篮板:3 防守篮板:1)</t>
-  </si>
-  <si>
-    <t>贾克森-海耶斯 扣篮： 命中(4 分) (拉塞尔 2 次助攻)</t>
-  </si>
-  <si>
-    <t>拿斯列特 转身打板勾手投篮： 不中</t>
-  </si>
-  <si>
-    <t>尼基尔-亚历山大-沃克 抢到篮板球 (进攻篮板:1 防守篮板:0)</t>
-  </si>
-  <si>
-    <t>拉塞尔 犯规: 投篮犯规 (1 次犯规) (裁判：N.布赫特吹罚)</t>
-  </si>
-  <si>
-    <t>尼基尔-亚历山大-沃克 (两罚)第一罚 不中</t>
-  </si>
-  <si>
-    <t>尼基尔-亚历山大-沃克 (两罚)第二罚 命中(4 分)</t>
-  </si>
-  <si>
-    <t>拉塞尔 突破上篮： 命中(7 分)</t>
-  </si>
-  <si>
-    <t>朱利叶斯-兰德尔 犯规: 带球撞人 (1 次犯规) (裁判:J.威廉姆斯吹罚)</t>
-  </si>
-  <si>
-    <t>朱利叶斯-兰德尔 失误：进攻犯规 (2 次失误)</t>
-  </si>
-  <si>
-    <t>贾克森-海耶斯 空切扣篮： 命中(6 分) (克内克特 1 次助攻)</t>
-  </si>
-  <si>
-    <t>拿斯列特 突破上篮： 不中</t>
-  </si>
-  <si>
-    <t>换人： 杰登-麦克丹尼尔斯 替换 尼基尔-亚历山大-沃克</t>
-  </si>
-  <si>
-    <t>换人： 戈贝尔 替换 朱利叶斯-兰德尔</t>
-  </si>
-  <si>
-    <t>杰登-麦克丹尼尔斯 三分投篮： 不中</t>
-  </si>
-  <si>
-    <t>拉塞尔 抢到篮板球 (进攻篮板:0 防守篮板:1)</t>
-  </si>
-  <si>
-    <t>克内克特 三分投篮： 命中(3 分) (拉塞尔 3 次助攻)</t>
-  </si>
-  <si>
-    <t>杰登-麦克丹尼尔斯 快攻抛投： 命中(6 分) (康利 1 次助攻)</t>
-  </si>
-  <si>
-    <t>杰登-麦克丹尼尔斯 犯规: 个人犯规 (2 次失误) (裁判：J.奥尔)</t>
-  </si>
-  <si>
-    <t>换人： 戴维斯 替换 贾克森-海耶斯</t>
-  </si>
-  <si>
-    <t>杰登-麦克丹尼尔斯 犯规: 投篮犯规 (3 次犯规) (裁判：J.奥尔)</t>
-  </si>
-  <si>
-    <t>戴维斯 (两罚)第一罚 命中(7 分)</t>
-  </si>
-  <si>
-    <t>换人： 爱德华兹 替换 杰登-麦克丹尼尔斯</t>
-  </si>
-  <si>
-    <t>戴维斯 (两罚)第二罚 命中(8 分)</t>
-  </si>
-  <si>
-    <t>康利 失误：误传 (2 次失误)</t>
-  </si>
-  <si>
-    <t>拉塞尔 抢断 (2 次抢断)</t>
-  </si>
-  <si>
-    <t>拉塞尔 失误：误传 (1 次失误)</t>
-  </si>
-  <si>
-    <t>康利 抢断 (1 次抢断)</t>
-  </si>
-  <si>
-    <t>戈贝尔 行进间上篮： 不中</t>
-  </si>
-  <si>
-    <t>里维斯 封盖 (1 次封盖)</t>
-  </si>
-  <si>
-    <t>戴维斯 抢到篮板球 (进攻篮板:1 防守篮板:5)</t>
-  </si>
-  <si>
     <t>克内克特 行进间上篮： 命中(5 分)</t>
   </si>
   <si>
-    <t>康利 失误：误传 (3 次失误)</t>
-  </si>
-  <si>
-    <t>里维斯 抢断 (1 次抢断)</t>
-  </si>
-  <si>
-    <t>里维斯 行进间上篮： 命中(4 分)</t>
-  </si>
-  <si>
-    <t>爱德华兹 犯规: 投篮犯规 (1 次犯规) (裁判：J.奥尔)</t>
-  </si>
-  <si>
-    <t>换人： 乔-英格尔斯 替换 康利</t>
-  </si>
-  <si>
-    <t>里维斯 一次罚球 不中</t>
-  </si>
-  <si>
-    <t>戈贝尔 抢到篮板球 (进攻篮板:1 防守篮板:5)</t>
-  </si>
-  <si>
-    <t>迪温琴佐 三分投篮： 不中</t>
-  </si>
-  <si>
-    <t>八村塁 抢到篮板球 (进攻篮板:1 防守篮板:1)</t>
-  </si>
-  <si>
-    <t>八村塁 急停跳投： 命中(9 分) (文森特 1 次助攻)</t>
-  </si>
-  <si>
-    <t>爱德华兹 三分远投： 命中(11 分)</t>
-  </si>
-  <si>
-    <t>戴维斯 上篮： 命中(10 分)</t>
-  </si>
-  <si>
     <t>克内克特 抢到篮板球 (进攻篮板:0 防守篮板:1)</t>
   </si>
   <si>
-    <t>八村塁 跳投 不中</t>
-  </si>
-  <si>
-    <t>八村塁 抢到篮板球 (进攻篮板:2 防守篮板:1)</t>
-  </si>
-  <si>
-    <t>八村塁 突破上篮： 命中(11 分)</t>
-  </si>
-  <si>
-    <t>拿斯列特 三分投篮： 不中</t>
-  </si>
-  <si>
-    <t>里维斯 抢到篮板球 (进攻篮板:2 防守篮板:1)</t>
-  </si>
-  <si>
     <t>克内克特 三分投篮： 不中</t>
   </si>
   <si>
-    <t>爱德华兹 抢到篮板球 (进攻篮板:0 防守篮板:2)</t>
-  </si>
-  <si>
-    <t>迪温琴佐 失误：出界 (1 次失误)</t>
-  </si>
-  <si>
-    <t>换人： 朱利叶斯-兰德尔 替换 迪温琴佐</t>
-  </si>
-  <si>
-    <t>换人： 尼基尔-亚历山大-沃克 替换 拿斯列特</t>
-  </si>
-  <si>
-    <t>戴维斯 突破上篮： 命中(12 分)</t>
-  </si>
-  <si>
-    <t>戈贝尔 违例：防守干扰球 (裁判：J.奥尔)</t>
-  </si>
-  <si>
     <t>克内克特 犯规: 个人犯规 (1 次失误) (裁判:J.威廉姆斯吹罚)</t>
   </si>
   <si>
-    <t>爱德华兹 突破上篮： 命中(13 分)</t>
-  </si>
-  <si>
-    <t>八村塁 犯规: 投篮犯规 (2 次犯规) (裁判：N.布赫特吹罚)</t>
-  </si>
-  <si>
-    <t>爱德华兹 一次罚球 命中(14 分)</t>
-  </si>
-  <si>
-    <t>戈贝尔 抢到篮板球 (进攻篮板:1 防守篮板:6)</t>
-  </si>
-  <si>
-    <t>朱利叶斯-兰德尔 急停跳投： 命中(5 分)</t>
-  </si>
-  <si>
-    <t>戴维斯 三分远投： 不中</t>
-  </si>
-  <si>
-    <t>戈贝尔 封盖 (1 次封盖)</t>
-  </si>
-  <si>
-    <t>尼基尔-亚历山大-沃克 抢到篮板球 (进攻篮板:1 防守篮板:1)</t>
-  </si>
-  <si>
     <t>乔-英格尔斯 三分投篮： 不中</t>
   </si>
   <si>
-    <t>爱德华兹 抢到篮板球 (进攻篮板:0 防守篮板:3)</t>
-  </si>
-  <si>
-    <t>戈贝尔 抢到篮板球 (进攻篮板:2 防守篮板:6)</t>
-  </si>
-  <si>
-    <t>戈贝尔 补扣： 命中(5 分)</t>
-  </si>
-  <si>
-    <t>尼基尔-亚历山大-沃克 三分投篮： 命中(7 分) (乔-英格尔斯 1 次助攻)</t>
-  </si>
-  <si>
-    <t>朱利叶斯-兰德尔 抢到篮板球 (进攻篮板:0 防守篮板:3)</t>
-  </si>
-  <si>
-    <t>爱德华兹 后仰跳投： 不中</t>
-  </si>
-  <si>
-    <t>里维斯 抢到篮板球 (进攻篮板:2 防守篮板:2)</t>
-  </si>
-  <si>
-    <t>爱德华兹 犯规: 个人犯规 (2 次失误) (裁判：N.布赫特吹罚)</t>
-  </si>
-  <si>
-    <t>换人： 马克斯·克里斯蒂 替换 克内克特</t>
-  </si>
-  <si>
-    <t>戴维斯 漂移跳投： 不中</t>
-  </si>
-  <si>
-    <t>朱利叶斯-兰德尔 抢到篮板球 (进攻篮板:0 防守篮板:4)</t>
-  </si>
-  <si>
-    <t>朱利叶斯-兰德尔 三分投篮： 不中</t>
-  </si>
-  <si>
-    <t>戴维斯 抢到篮板球 (进攻篮板:1 防守篮板:6)</t>
-  </si>
-  <si>
     <t>乔-英格尔斯 犯规: 个人犯规 (1 次犯规)(2 罚球出手) (裁判:J.威廉姆斯吹罚)</t>
   </si>
   <si>
-    <t>马克斯·克里斯蒂 (两罚)第一罚 命中(1 分)</t>
-  </si>
-  <si>
-    <t>马克斯·克里斯蒂 (两罚)第二罚 命中(2 分)</t>
-  </si>
-  <si>
-    <t>爱德华兹 撤步跳投： 不中</t>
-  </si>
-  <si>
-    <t>马克斯·克里斯蒂 抢到篮板球 (进攻篮板:1 防守篮板:1)</t>
-  </si>
-  <si>
-    <t>戈贝尔 抢到篮板球 (进攻篮板:2 防守篮板:7)</t>
-  </si>
-  <si>
-    <t>马克斯·克里斯蒂 犯规: 个人犯规 (2 次失误) (裁判：N.布赫特吹罚)</t>
-  </si>
-  <si>
-    <t>尼基尔-亚历山大-沃克 急停跳投： 不中</t>
-  </si>
-  <si>
     <t>第2节结束.</t>
   </si>
   <si>
@@ -925,321 +349,12 @@
     <t>第3节开始.</t>
   </si>
   <si>
-    <t>康利 抢到篮板球 (进攻篮板:2 防守篮板:0)</t>
-  </si>
-  <si>
-    <t>康利 漂移跳投： 命中(2 分)</t>
-  </si>
-  <si>
-    <t>戴维斯 突破勾手投篮： 不中</t>
-  </si>
-  <si>
-    <t>杰登-麦克丹尼尔斯 抢到篮板球 (进攻篮板:0 防守篮板:1)</t>
-  </si>
-  <si>
-    <t>康利 三分投篮： 不中</t>
-  </si>
-  <si>
-    <t>里维斯 犯规: 无球犯规 (2 次失误) (裁判：J.奥尔)</t>
-  </si>
-  <si>
-    <t>爱德华兹 失误：传球出界 (2 次失误)</t>
-  </si>
-  <si>
-    <t>里维斯 后仰跳投： 命中(6 分)</t>
-  </si>
-  <si>
-    <t>杰登-麦克丹尼尔斯 后仰跳投： 不中</t>
-  </si>
-  <si>
-    <t>爱德华兹 失误：误传 (3 次失误)</t>
-  </si>
-  <si>
-    <t>八村塁 抢断 (2 次抢断)</t>
-  </si>
-  <si>
-    <t>朱利叶斯-兰德尔 犯规: 投篮犯规 (2 次犯规) (裁判：N.布赫特吹罚)</t>
-  </si>
-  <si>
-    <t>戴维斯 (两罚)第一罚 命中(15 分)</t>
-  </si>
-  <si>
-    <t>戴维斯 (两罚)第二罚 不中</t>
-  </si>
-  <si>
-    <t>里维斯 抢到篮板球 (进攻篮板:3 防守篮板:2)</t>
-  </si>
-  <si>
-    <t>跳球： 里维斯 与 杰登-麦克丹尼尔斯: 八村塁 得到球</t>
-  </si>
-  <si>
-    <t>戈贝尔 抢到篮板球 (进攻篮板:2 防守篮板:8)</t>
-  </si>
-  <si>
-    <t>爱德华兹 三分投篮： 命中(17 分) (朱利叶斯-兰德尔 3 次助攻)</t>
-  </si>
-  <si>
-    <t>八村塁 反手灌篮： 命中(13 分) (里维斯 3 次助攻)</t>
-  </si>
-  <si>
-    <t>戴维斯 抢到篮板球 (进攻篮板:1 防守篮板:7)</t>
-  </si>
-  <si>
-    <t>拉塞尔 行进间上篮： 不中</t>
-  </si>
-  <si>
-    <t>康利 抢到篮板球 (进攻篮板:2 防守篮板:1)</t>
-  </si>
-  <si>
-    <t>爱德华兹 失误：出界 (4 次失误)</t>
-  </si>
-  <si>
-    <t>里维斯 急停跳投： 不中</t>
-  </si>
-  <si>
-    <t>爱德华兹 抢到篮板球 (进攻篮板:0 防守篮板:4)</t>
-  </si>
-  <si>
-    <t>八村塁 抢到篮板球 (进攻篮板:2 防守篮板:2)</t>
-  </si>
-  <si>
-    <t>杰登-麦克丹尼尔斯 犯规: 投篮犯规 (4 次犯规) (裁判：N.布赫特吹罚)</t>
-  </si>
-  <si>
-    <t>八村塁 (两罚)第一罚 命中(14 分)</t>
-  </si>
-  <si>
-    <t>换人： 迪温琴佐 替换 杰登-麦克丹尼尔斯</t>
-  </si>
-  <si>
-    <t>八村塁 (两罚)第二罚 命中(15 分)</t>
-  </si>
-  <si>
-    <t>迪温琴佐 三分投篮： 命中(5 分) (朱利叶斯-兰德尔 4 次助攻)</t>
-  </si>
-  <si>
-    <t>戴维斯 抢到篮板球 (进攻篮板:2 防守篮板:7)</t>
-  </si>
-  <si>
-    <t>戴维斯 直接补篮： 不中</t>
-  </si>
-  <si>
-    <t>八村塁 抢到篮板球 (进攻篮板:3 防守篮板:2)</t>
-  </si>
-  <si>
-    <t>八村塁 补篮： 不中</t>
-  </si>
-  <si>
-    <t>康利 抢到篮板球 (进攻篮板:2 防守篮板:2)</t>
-  </si>
-  <si>
-    <t>爱德华兹 突破上篮： 不中</t>
-  </si>
-  <si>
-    <t>戴维斯 抢到篮板球 (进攻篮板:2 防守篮板:8)</t>
-  </si>
-  <si>
-    <t>戈贝尔 抢到篮板球 (进攻篮板:2 防守篮板:9)</t>
-  </si>
-  <si>
-    <t>戈贝尔 扣篮： 不中</t>
-  </si>
-  <si>
-    <t>戴维斯 封盖 (1 次封盖)</t>
-  </si>
-  <si>
-    <t>拉塞尔 犯规: 投篮犯规 (2 次犯规) (裁判:J.威廉姆斯吹罚)</t>
-  </si>
-  <si>
-    <t>康利 (三罚)第一罚 命中(3 分)</t>
-  </si>
-  <si>
-    <t>康利 (三罚)第二罚 命中(4 分)</t>
-  </si>
-  <si>
-    <t>康利 (三罚)第三罚 命中(5 分)</t>
-  </si>
-  <si>
-    <t>康利 犯规: 投篮犯规 (1 次犯规) (裁判：N.布赫特吹罚)</t>
-  </si>
-  <si>
-    <t>戴维斯 (两罚)第一罚 命中(16 分)</t>
-  </si>
-  <si>
-    <t>戴维斯 (两罚)第二罚 命中(17 分)</t>
-  </si>
-  <si>
-    <t>康利 三分远投： 不中</t>
-  </si>
-  <si>
-    <t>戴维斯 突破上篮： 不中</t>
-  </si>
-  <si>
-    <t>迪温琴佐 抢到篮板球 (进攻篮板:1 防守篮板:1)</t>
-  </si>
-  <si>
-    <t>马克斯·克里斯蒂 犯规: 投篮犯规 (3 次犯规) (裁判：N.布赫特吹罚)</t>
-  </si>
-  <si>
-    <t>朱利叶斯-兰德尔 (两罚)第一罚 不中</t>
-  </si>
-  <si>
-    <t>换人： 尼基尔-亚历山大-沃克 替换 康利</t>
-  </si>
-  <si>
-    <t>朱利叶斯-兰德尔 (两罚)第二罚 命中(6 分)</t>
-  </si>
-  <si>
-    <t>里维斯 抢到篮板球 (进攻篮板:4 防守篮板:2)</t>
-  </si>
-  <si>
-    <t>里维斯 漂移跳投： 命中(8 分)</t>
-  </si>
-  <si>
-    <t>尼基尔-亚历山大-沃克 三分远投： 不中</t>
-  </si>
-  <si>
-    <t>里维斯 抢到篮板球 (进攻篮板:4 防守篮板:3)</t>
-  </si>
-  <si>
-    <t>里维斯 急停跳投： 命中(10 分)</t>
-  </si>
-  <si>
-    <t>迪温琴佐 三分投篮： 命中(8 分) (戈贝尔 1 次助攻)</t>
-  </si>
-  <si>
-    <t>里维斯 突破上篮： 不中</t>
-  </si>
-  <si>
-    <t>爱德华兹 抢到篮板球 (进攻篮板:0 防守篮板:5)</t>
-  </si>
-  <si>
-    <t>尼基尔-亚历山大-沃克 空切扣篮： 命中(9 分) (戈贝尔 2 次助攻)</t>
-  </si>
-  <si>
-    <t>迪温琴佐 抢到篮板球 (进攻篮板:1 防守篮板:2)</t>
-  </si>
-  <si>
-    <t>马克斯·克里斯蒂 犯规: 个人犯规 (4 次犯规)(2 罚球出手) (裁判：N.布赫特吹罚)</t>
-  </si>
-  <si>
-    <t>拿斯列特 (两罚)第一罚 命中(4 分)</t>
-  </si>
-  <si>
-    <t>拿斯列特 (两罚)第二罚 命中(5 分)</t>
-  </si>
-  <si>
-    <t>戴维斯 撤步跳投： 命中(19 分)</t>
-  </si>
-  <si>
-    <t>马克斯·克里斯蒂 犯规: 个人犯规 (5 次犯规)(2 罚球出手) (裁判：N.布赫特吹罚)</t>
-  </si>
-  <si>
-    <t>戈贝尔 (两罚)第一罚 命中(6 分)</t>
-  </si>
-  <si>
-    <t>换人： 克内克特 替换 马克斯·克里斯蒂</t>
-  </si>
-  <si>
-    <t>戈贝尔 (两罚)第二罚 命中(7 分)</t>
-  </si>
-  <si>
-    <t>文森特 空切上篮： 命中(2 分) (里维斯 4 次助攻)</t>
-  </si>
-  <si>
-    <t>戈贝尔 空切扣篮： 命中(9 分) (拿斯列特 1 次助攻)</t>
-  </si>
-  <si>
-    <t>戴维斯 快攻抛投： 命中(21 分) (文森特 2 次助攻)</t>
-  </si>
-  <si>
-    <t>爱德华兹 犯规: 投篮犯规 (3 次犯规) (裁判：N.布赫特吹罚)</t>
-  </si>
-  <si>
-    <t>换人： 贾克森-海耶斯 替换 里维斯</t>
-  </si>
-  <si>
-    <t>戴维斯 一次罚球 命中(22 分)</t>
-  </si>
-  <si>
-    <t>朱利叶斯-兰德尔 跳投 不中</t>
-  </si>
-  <si>
-    <t>戴维斯 抢到篮板球 (进攻篮板:2 防守篮板:9)</t>
-  </si>
-  <si>
-    <t>朱利叶斯-兰德尔 抢到篮板球 (进攻篮板:0 防守篮板:5)</t>
-  </si>
-  <si>
-    <t>文森特 犯规: 个人犯规 (1 次犯规)(2 罚球出手) (裁判：J.奥尔)</t>
-  </si>
-  <si>
-    <t>迪温琴佐 (两罚)第一罚 命中(9 分)</t>
-  </si>
-  <si>
-    <t>迪温琴佐 (两罚)第二罚 命中(10 分)</t>
-  </si>
-  <si>
-    <t>戴维斯 三分投篮： 命中(25 分) (克内克特 2 次助攻)</t>
-  </si>
-  <si>
-    <t>朱利叶斯-兰德尔 漂移跳投： 命中(8 分)</t>
-  </si>
-  <si>
-    <t>爱德华兹 撤步跳投： 命中(19 分)</t>
-  </si>
-  <si>
-    <t>戴维斯 突破反手上篮： 不中</t>
-  </si>
-  <si>
-    <t>尼基尔-亚历山大-沃克 抢到篮板球 (进攻篮板:1 防守篮板:2)</t>
-  </si>
-  <si>
-    <t>朱利叶斯-兰德尔 抢到篮板球 (进攻篮板:1 防守篮板:5)</t>
-  </si>
-  <si>
-    <t>贾克森-海耶斯 犯规: 投篮犯规 (1 次犯规)(2 罚球出手) (裁判：J.奥尔)</t>
-  </si>
-  <si>
-    <t>朱利叶斯-兰德尔 (两罚)第一罚 命中(9 分)</t>
-  </si>
-  <si>
-    <t>朱利叶斯-兰德尔 (两罚)第二罚 不中</t>
-  </si>
-  <si>
-    <t>戴维斯 抢到篮板球 (进攻篮板:2 防守篮板:10)</t>
-  </si>
-  <si>
-    <t>文森特 失误：误传 (1 次失误)</t>
-  </si>
-  <si>
-    <t>迪温琴佐 抢断 (1 次抢断)</t>
-  </si>
-  <si>
-    <t>尼基尔-亚历山大-沃克 失误：误传 (2 次失误)</t>
-  </si>
-  <si>
     <t>克内克特 抢断 (1 次抢断)</t>
   </si>
   <si>
     <t>克内克特 失误：误传 (1 次失误)</t>
   </si>
   <si>
-    <t>迪温琴佐 抢断 (2 次抢断)</t>
-  </si>
-  <si>
-    <t>拿斯列特 快攻抛投： 不中</t>
-  </si>
-  <si>
-    <t>拿斯列特 抢到篮板球 (进攻篮板:1 防守篮板:3)</t>
-  </si>
-  <si>
-    <t>拿斯列特 直接补篮： 命中(7 分)</t>
-  </si>
-  <si>
-    <t>戴维斯 三分投篮： 不中</t>
-  </si>
-  <si>
     <t>第3节结束.</t>
   </si>
   <si>
@@ -1348,380 +463,1266 @@
     <t>第4节开始.</t>
   </si>
   <si>
-    <t>贾克森-海耶斯 犯规: 投篮犯规 (2 次犯规) (裁判：N.布赫特吹罚)</t>
-  </si>
-  <si>
-    <t>拿斯列特 (两罚)第一罚 命中(8 分)</t>
-  </si>
-  <si>
-    <t>拿斯列特 (两罚)第二罚 命中(9 分)</t>
-  </si>
-  <si>
-    <t>戈贝尔 犯规: 投篮犯规 (2 次犯规) (裁判：N.布赫特吹罚)</t>
-  </si>
-  <si>
-    <t>贾克森-海耶斯 犯规: 无球犯规 (3 次失误) (裁判：J.奥尔)</t>
-  </si>
-  <si>
-    <t>戈贝尔 空中接力灌篮： 命中(11 分) (康利 2 次助攻)</t>
-  </si>
-  <si>
-    <t>戈贝尔 抢到篮板球 (进攻篮板:2 防守篮板:10)</t>
-  </si>
-  <si>
-    <t>拿斯列特 三分投篮： 命中(12 分) (杰登-麦克丹尼尔斯 1 次助攻)</t>
-  </si>
-  <si>
-    <t>换人： 里维斯 替换 克内克特</t>
-  </si>
-  <si>
-    <t>杰登-麦克丹尼尔斯 抢到篮板球 (进攻篮板:0 防守篮板:2)</t>
-  </si>
-  <si>
-    <t>里维斯 犯规: 个人犯规 (3 次失误) (裁判：J.奥尔)</t>
-  </si>
-  <si>
-    <t>康利 快攻抛投： 不中</t>
-  </si>
-  <si>
-    <t>戈贝尔 抢到篮板球 (进攻篮板:3 防守篮板:10)</t>
-  </si>
-  <si>
-    <t>杰登-麦克丹尼尔斯 失误：走步 (1 次失误)</t>
-  </si>
-  <si>
-    <t>杰登-麦克丹尼尔斯 犯规: 个人犯规 (5 次失误) (裁判:J.威廉姆斯吹罚)</t>
-  </si>
-  <si>
-    <t>换人： 迪温琴佐 替换 尼基尔-亚历山大-沃克</t>
-  </si>
-  <si>
-    <t>拉塞尔 快攻抛投： 命中(9 分)</t>
-  </si>
-  <si>
-    <t>里维斯 抢到篮板球 (进攻篮板:4 防守篮板:4)</t>
-  </si>
-  <si>
-    <t>戈贝尔 犯规: 无球犯规 (3 次失误) (裁判：N.布赫特吹罚)</t>
-  </si>
-  <si>
-    <t>迪温琴佐 犯规: 个人犯规 (2 次失误) (裁判：J.奥尔)</t>
-  </si>
-  <si>
-    <t>贾克森-海耶斯 空中接力灌篮： 命中(10 分) (拉塞尔 5 次助攻)</t>
-  </si>
-  <si>
-    <t>换人： 朱利叶斯-兰德尔 替换 康利</t>
-  </si>
-  <si>
-    <t>换人： 尼基尔-亚历山大-沃克 替换 戈贝尔</t>
-  </si>
-  <si>
-    <t>爱德华兹 三分远投： 命中(22 分)</t>
-  </si>
-  <si>
-    <t>爱德华兹 抢到篮板球 (进攻篮板:0 防守篮板:6)</t>
-  </si>
-  <si>
-    <t>爱德华兹 突破挑篮： 不中</t>
-  </si>
-  <si>
-    <t>尼基尔-亚历山大-沃克 抢到篮板球 (进攻篮板:2 防守篮板:2)</t>
-  </si>
-  <si>
-    <t>里维斯 抢到篮板球 (进攻篮板:4 防守篮板:5)</t>
-  </si>
-  <si>
-    <t>拿斯列特 犯规: 投篮犯规 (2 次犯规)(2 罚球出手) (裁判:J.威廉姆斯吹罚)</t>
-  </si>
-  <si>
-    <t>八村塁 (两罚)第一罚 不中</t>
-  </si>
-  <si>
-    <t>八村塁 (两罚)第二罚 命中(16 分)</t>
-  </si>
-  <si>
-    <t>爱德华兹 挑篮上篮： 不中</t>
-  </si>
-  <si>
-    <t>戴维斯 抢到篮板球 (进攻篮板:2 防守篮板:11)</t>
-  </si>
-  <si>
-    <t>朱利叶斯-兰德尔 犯规: 个人犯规 (3 次犯规)(2 罚球出手) (裁判:J.威廉姆斯吹罚)</t>
-  </si>
-  <si>
-    <t>戴维斯 (两罚)第一罚 命中(26 分)</t>
-  </si>
-  <si>
-    <t>朱利叶斯-兰德尔 抢到篮板球 (进攻篮板:1 防守篮板:6)</t>
-  </si>
-  <si>
-    <t>戴维斯 封盖 (2 次封盖)</t>
-  </si>
-  <si>
-    <t>爱德华兹 撤步跳投： 命中(24 分)</t>
-  </si>
-  <si>
-    <t>戴维斯 后仰跳投： 命中(28 分)</t>
-  </si>
-  <si>
-    <t>爱德华兹 急停跳投： 不中</t>
-  </si>
-  <si>
-    <t>戴维斯 抢到篮板球 (进攻篮板:2 防守篮板:12)</t>
-  </si>
-  <si>
-    <t>拿斯列特 犯规: 投篮犯规 (3 次犯规)(2 罚球出手) (裁判：N.布赫特吹罚)</t>
-  </si>
-  <si>
-    <t>戴维斯 (两罚)第一罚 命中(29 分)</t>
-  </si>
-  <si>
-    <t>戴维斯 (两罚)第二罚 命中(30 分)</t>
-  </si>
-  <si>
-    <t>爱德华兹 突破上篮： 命中(26 分)</t>
-  </si>
-  <si>
-    <t>八村塁 转身后仰投篮： 命中(18 分) (戴维斯 4 次助攻)</t>
-  </si>
-  <si>
-    <t>换人： 戈贝尔 替换 拿斯列特</t>
-  </si>
-  <si>
-    <t>尼基尔-亚历山大-沃克 三分投篮： 命中(12 分) (爱德华兹 1 次助攻)</t>
-  </si>
-  <si>
-    <t>尼基尔-亚历山大-沃克 违例：脚踢球 (裁判：N.布赫特吹罚)</t>
-  </si>
-  <si>
-    <t>戴维斯 抢到篮板球 (进攻篮板:3 防守篮板:12)</t>
-  </si>
-  <si>
-    <t>戴维斯 补篮： 命中(32 分)</t>
-  </si>
-  <si>
-    <t>尼基尔-亚历山大-沃克 快攻抛投： 命中(14 分) (爱德华兹 2 次助攻)</t>
-  </si>
-  <si>
-    <t>戈贝尔 突破上篮： 命中(13 分) (爱德华兹 3 次助攻)</t>
-  </si>
-  <si>
-    <t>文森特 失误：传球出界 (2 次失误)</t>
-  </si>
-  <si>
-    <t>迪温琴佐 空切扣篮： 不中</t>
-  </si>
-  <si>
-    <t>戴维斯 封盖 (3 次封盖)</t>
-  </si>
-  <si>
-    <t>文森特 抢到篮板球 (进攻篮板:0 防守篮板:2)</t>
-  </si>
-  <si>
-    <t>戴维斯 抢到篮板球 (进攻篮板:3 防守篮板:13)</t>
-  </si>
-  <si>
-    <t>戈贝尔 犯规: 个人犯规 (4 次犯规)(2 罚球出手) (裁判：N.布赫特吹罚)</t>
-  </si>
-  <si>
-    <t>戴维斯 (两罚)第一罚 命中(35 分)</t>
-  </si>
-  <si>
-    <t>换人： 八村塁 替换 文森特</t>
-  </si>
-  <si>
-    <t>戴维斯 (两罚)第二罚 命中(36 分)</t>
-  </si>
-  <si>
-    <t>朱利叶斯-兰德尔 抢到篮板球 (进攻篮板:2 防守篮板:6)</t>
-  </si>
-  <si>
-    <t>朱利叶斯-兰德尔 直接补篮： 命中(11 分)</t>
-  </si>
-  <si>
-    <t>里维斯 犯规: 投篮犯规 (4 次犯规) (裁判：N.布赫特吹罚)</t>
-  </si>
-  <si>
-    <t>朱利叶斯-兰德尔 一次罚球 命中(12 分)</t>
-  </si>
-  <si>
-    <t>戴维斯 违例：脚踢球 (裁判：N.布赫特吹罚)</t>
-  </si>
-  <si>
-    <t>戴维斯 犯规: 个人犯规 (1 次犯规)(2 罚球出手) (裁判:J.威廉姆斯吹罚)</t>
-  </si>
-  <si>
-    <t>爱德华兹 (两罚)第一罚 命中(27 分)</t>
-  </si>
-  <si>
-    <t>爱德华兹 (两罚)第二罚 不中</t>
-  </si>
-  <si>
-    <t>朱利叶斯-兰德尔 (两罚)第一罚 命中(13 分)</t>
-  </si>
-  <si>
-    <t>朱利叶斯-兰德尔 (两罚)第二罚 命中(14 分)</t>
-  </si>
-  <si>
-    <t>尼基尔-亚历山大-沃克 抢到篮板球 (进攻篮板:2 防守篮板:3)</t>
-  </si>
-  <si>
-    <t>八村塁 行进间上篮： 不中</t>
-  </si>
-  <si>
-    <t>戈贝尔 抢到篮板球 (进攻篮板:3 防守篮板:11)</t>
-  </si>
-  <si>
-    <t>换人： 拿斯列特 替换 戈贝尔</t>
-  </si>
-  <si>
-    <t>朱利叶斯-兰德尔 抢到篮板球 (进攻篮板:3 防守篮板:6)</t>
-  </si>
-  <si>
-    <t>朱利叶斯-兰德尔 补篮： 命中(16 分)</t>
-  </si>
-  <si>
-    <t>朱利叶斯-兰德尔 突破上篮： 不中</t>
-  </si>
-  <si>
     <t>第4节结束.</t>
   </si>
   <si>
     <t>全场结束.</t>
   </si>
   <si>
-    <t>贾克森-海耶斯 封盖 (1 次封盖)</t>
+    <t>密尔沃基雄鹿</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>L.勒布朗-詹姆斯 抢到篮板球 (进攻篮板:0 防守篮板:1)</t>
-  </si>
-  <si>
-    <t>L.勒布朗-詹姆斯 突破打板勾手投篮： 不中</t>
-  </si>
-  <si>
-    <t>L.勒布朗-詹姆斯 封盖 (1 次封盖)</t>
-  </si>
-  <si>
-    <t>L.勒布朗-詹姆斯 抢到篮板球 (进攻篮板:0 防守篮板:2)</t>
-  </si>
-  <si>
-    <t>L.勒布朗-詹姆斯 行进间上篮： 命中(2 分) (戴维斯 2 次助攻)</t>
-  </si>
-  <si>
-    <t>L.勒布朗-詹姆斯 行进间灌篮： 命中(4 分) (里维斯 1 次助攻)</t>
-  </si>
-  <si>
-    <t>L.勒布朗-詹姆斯 三分投篮： 不中</t>
-  </si>
-  <si>
-    <t>换人： 马克斯·克里斯蒂 替换 L.勒布朗-詹姆斯</t>
-  </si>
-  <si>
-    <t>换人： L.勒布朗-詹姆斯 替换 里维斯</t>
-  </si>
-  <si>
-    <t>L.勒布朗-詹姆斯 犯规: 投篮犯规 (1 次犯规) (裁判:J.威廉姆斯吹罚)</t>
-  </si>
-  <si>
-    <t>L.勒布朗-詹姆斯 空切上篮： 不中</t>
-  </si>
-  <si>
-    <t>L.勒布朗-詹姆斯 失误：走步 (1 次失误)</t>
-  </si>
-  <si>
-    <t>L.勒布朗-詹姆斯 抢到篮板球 (进攻篮板:0 防守篮板:3)</t>
-  </si>
-  <si>
-    <t>L.勒布朗-詹姆斯 行进间挑篮： 命中(6 分)</t>
-  </si>
-  <si>
-    <t>换人： 里维斯 替换 L.勒布朗-詹姆斯</t>
-  </si>
-  <si>
-    <t>换人： L.勒布朗-詹姆斯 替换 文森特</t>
-  </si>
-  <si>
-    <t>L.勒布朗-詹姆斯 三分远投： 不中</t>
-  </si>
-  <si>
-    <t>L.勒布朗-詹姆斯 急停跳投： 不中</t>
-  </si>
-  <si>
-    <t>L.勒布朗-詹姆斯 空切扣篮： 命中(8 分) (里维斯 2 次助攻)</t>
-  </si>
-  <si>
-    <t>戴维斯 空中接力灌篮： 命中(14 分) (L.勒布朗-詹姆斯 1 次助攻)</t>
-  </si>
-  <si>
-    <t>L.勒布朗-詹姆斯 犯规: 个人犯规 (2 次失误) (裁判：J.奥尔)</t>
-  </si>
-  <si>
-    <t>L.勒布朗-詹姆斯 行进间上篮： 不中</t>
-  </si>
-  <si>
-    <t>换人： L.勒布朗-詹姆斯 替换 八村塁</t>
-  </si>
-  <si>
-    <t>贾克森-海耶斯 空接上篮： 命中(8 分) (L.勒布朗-詹姆斯 2 次助攻)</t>
-  </si>
-  <si>
-    <t>L.勒布朗-詹姆斯 突破上篮： 命中(10 分)</t>
-  </si>
-  <si>
-    <t>L.勒布朗-詹姆斯 一次罚球 命中(11 分)</t>
-  </si>
-  <si>
-    <t>L.勒布朗-詹姆斯 转身后仰打板： 不中</t>
-  </si>
-  <si>
-    <t>L.勒布朗-詹姆斯 行进 空接上篮： 投篮： 命中(13 分) (拉塞尔 4 次助攻)</t>
-  </si>
-  <si>
-    <t>换人： 文森特 替换 L.勒布朗-詹姆斯</t>
-  </si>
-  <si>
-    <t>L.勒布朗-詹姆斯 跳投 不中</t>
-  </si>
-  <si>
-    <t>戴维斯 快攻抛投： 命中(34 分) (L.勒布朗-詹姆斯 3 次助攻)</t>
-  </si>
-  <si>
-    <t>里维斯 行进间上篮： 命中(12 分) (L.勒布朗-詹姆斯 4 次助攻)</t>
-  </si>
-  <si>
-    <t>L.勒布朗-詹姆斯 三分远投： 命中(16 分)</t>
-  </si>
-  <si>
-    <t>L.勒布朗-詹姆斯 犯规: 无球犯规 (3 次犯规)(2 罚球出手) (裁判：N.布赫特吹罚)</t>
-  </si>
-  <si>
-    <t>L.勒布朗-詹姆斯 抢到篮板球 (进攻篮板:0 防守篮板:4)</t>
-  </si>
-  <si>
-    <t>L.勒布朗-詹姆斯 失误：传球出界 (2 次失误)</t>
-  </si>
-  <si>
-    <t>L.勒布朗-詹姆斯 封盖 (2 次封盖)</t>
-  </si>
-  <si>
-    <t>L.勒布朗-詹姆斯 抢到篮板球 (进攻篮板:0 防守篮板:5)</t>
-  </si>
-  <si>
-    <t>换人： B.勒布朗-詹姆斯 替换 八村塁</t>
-  </si>
-  <si>
-    <t>B.勒布朗-詹姆斯 抢到篮板球 (进攻篮板:1 防守篮板:0)</t>
-  </si>
-  <si>
-    <t>B.勒布朗-詹姆斯 补篮： 不中</t>
-  </si>
-  <si>
-    <t>B.勒布朗-詹姆斯 三分投篮： 不中</t>
-  </si>
-  <si>
-    <t>换人： 拉塞尔 替换 B.勒布朗-詹姆斯</t>
+    <t>印第安纳步行者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雄鹿 暂停 : 常规暂停</t>
+  </si>
+  <si>
+    <t>雄鹿 抢到篮板球</t>
+  </si>
+  <si>
+    <t>步行者 失误 : 24秒违例</t>
+  </si>
+  <si>
+    <t>步行者 抢到篮板球</t>
+  </si>
+  <si>
+    <t>步行者 暂停 : 常规暂停</t>
+  </si>
+  <si>
+    <t>西亚卡姆 抢到篮板球 (进攻篮板:0 防守篮板:1)</t>
+  </si>
+  <si>
+    <t>西亚卡姆 突破打板勾手投篮： 不中</t>
+  </si>
+  <si>
+    <t>西亚卡姆 封盖 (1 次封盖)</t>
+  </si>
+  <si>
+    <t>西亚卡姆 抢到篮板球 (进攻篮板:0 防守篮板:2)</t>
+  </si>
+  <si>
+    <t>西亚卡姆 三分投篮： 不中</t>
+  </si>
+  <si>
+    <t>西亚卡姆 犯规: 投篮犯规 (1 次犯规) (裁判:J.威廉姆斯吹罚)</t>
+  </si>
+  <si>
+    <t>西亚卡姆 空切上篮： 不中</t>
+  </si>
+  <si>
+    <t>西亚卡姆 失误：走步 (1 次失误)</t>
+  </si>
+  <si>
+    <t>西亚卡姆 抢到篮板球 (进攻篮板:0 防守篮板:3)</t>
+  </si>
+  <si>
+    <t>西亚卡姆 行进间挑篮： 命中(6 分)</t>
+  </si>
+  <si>
+    <t>西亚卡姆 三分远投： 不中</t>
+  </si>
+  <si>
+    <t>西亚卡姆 急停跳投： 不中</t>
+  </si>
+  <si>
+    <t>西亚卡姆 犯规: 个人犯规 (2 次失误) (裁判：J.奥尔)</t>
+  </si>
+  <si>
+    <t>西亚卡姆 行进间上篮： 不中</t>
+  </si>
+  <si>
+    <t>西亚卡姆 突破上篮： 命中(10 分)</t>
+  </si>
+  <si>
+    <t>西亚卡姆 一次罚球 命中(11 分)</t>
+  </si>
+  <si>
+    <t>西亚卡姆 转身后仰打板： 不中</t>
+  </si>
+  <si>
+    <t>西亚卡姆 跳投 不中</t>
+  </si>
+  <si>
+    <t>西亚卡姆 三分远投： 命中(16 分)</t>
+  </si>
+  <si>
+    <t>西亚卡姆 犯规: 无球犯规 (3 次犯规)(2 罚球出手) (裁判：N.布赫特吹罚)</t>
+  </si>
+  <si>
+    <t>西亚卡姆 抢到篮板球 (进攻篮板:0 防守篮板:4)</t>
+  </si>
+  <si>
+    <t>西亚卡姆 失误：传球出界 (2 次失误)</t>
+  </si>
+  <si>
+    <t>西亚卡姆 封盖 (2 次封盖)</t>
+  </si>
+  <si>
+    <t>西亚卡姆 抢到篮板球 (进攻篮板:0 防守篮板:5)</t>
+  </si>
+  <si>
+    <t>哈利伯顿 三分投篮： 不中</t>
+  </si>
+  <si>
+    <t>哈利伯顿 封盖 (1 次封盖)</t>
+  </si>
+  <si>
+    <t>哈利伯顿 犯规: 无球犯规 (1 次失误) (裁判：N.布赫特吹罚)</t>
+  </si>
+  <si>
+    <t>哈利伯顿 抢到篮板球 (进攻篮板:1 防守篮板:0)</t>
+  </si>
+  <si>
+    <t>哈利伯顿 直接补篮： 命中(7 分)</t>
+  </si>
+  <si>
+    <t>哈利伯顿 抢断 (1 次抢断)</t>
+  </si>
+  <si>
+    <t>哈利伯顿 急停跳投： 不中</t>
+  </si>
+  <si>
+    <t>哈利伯顿 抢到篮板球 (进攻篮板:1 防守篮板:1)</t>
+  </si>
+  <si>
+    <t>哈利伯顿 跳投 不中</t>
+  </si>
+  <si>
+    <t>哈利伯顿 抢到篮板球 (进攻篮板:2 防守篮板:1)</t>
+  </si>
+  <si>
+    <t>哈利伯顿 突破上篮： 命中(11 分)</t>
+  </si>
+  <si>
+    <t>哈利伯顿 犯规: 投篮犯规 (2 次犯规) (裁判：N.布赫特吹罚)</t>
+  </si>
+  <si>
+    <t>哈利伯顿 抢断 (2 次抢断)</t>
+  </si>
+  <si>
+    <t>哈利伯顿 抢到篮板球 (进攻篮板:2 防守篮板:2)</t>
+  </si>
+  <si>
+    <t>哈利伯顿 (两罚)第一罚 命中(14 分)</t>
+  </si>
+  <si>
+    <t>哈利伯顿 (两罚)第二罚 命中(15 分)</t>
+  </si>
+  <si>
+    <t>哈利伯顿 抢到篮板球 (进攻篮板:3 防守篮板:2)</t>
+  </si>
+  <si>
+    <t>哈利伯顿 补篮： 不中</t>
+  </si>
+  <si>
+    <t>换人： 西亚卡姆 替换 哈利伯顿</t>
+  </si>
+  <si>
+    <t>哈利伯顿 (两罚)第一罚 不中</t>
+  </si>
+  <si>
+    <t>哈利伯顿 (两罚)第二罚 命中(16 分)</t>
+  </si>
+  <si>
+    <t>哈利伯顿 行进间上篮： 不中</t>
+  </si>
+  <si>
+    <t>马瑟林 犯规: 个人犯规 (1 次失误) (裁判：N.布赫特吹罚)</t>
+  </si>
+  <si>
+    <t>马瑟林 抢到篮板球 (进攻篮板:1 防守篮板:0)</t>
+  </si>
+  <si>
+    <t>马瑟林 违例：脚踢球 (裁判：N.布赫特吹罚)</t>
+  </si>
+  <si>
+    <t>西亚卡姆 行进间灌篮： 命中(4 分) (马瑟林 1 次助攻)</t>
+  </si>
+  <si>
+    <t>马瑟林 三分投篮： 不中</t>
+  </si>
+  <si>
+    <t>马瑟林 三分远投： 不中</t>
+  </si>
+  <si>
+    <t>马瑟林 空切挑篮： 不中</t>
+  </si>
+  <si>
+    <t>马瑟林 抢到篮板球 (进攻篮板:2 防守篮板:0)</t>
+  </si>
+  <si>
+    <t>马瑟林 补篮： 命中(2 分)</t>
+  </si>
+  <si>
+    <t>换人： 西亚卡姆 替换 马瑟林</t>
+  </si>
+  <si>
+    <t>换人： 马瑟林 替换 西亚卡姆</t>
+  </si>
+  <si>
+    <t>马瑟林 封盖 (1 次封盖)</t>
+  </si>
+  <si>
+    <t>马瑟林 抢断 (1 次抢断)</t>
+  </si>
+  <si>
+    <t>马瑟林 行进间上篮： 命中(4 分)</t>
+  </si>
+  <si>
+    <t>马瑟林 一次罚球 不中</t>
+  </si>
+  <si>
+    <t>马瑟林 抢到篮板球 (进攻篮板:2 防守篮板:1)</t>
+  </si>
+  <si>
+    <t>西亚卡姆 空切扣篮： 命中(8 分) (马瑟林 2 次助攻)</t>
+  </si>
+  <si>
+    <t>马瑟林 抢到篮板球 (进攻篮板:2 防守篮板:2)</t>
+  </si>
+  <si>
+    <t>马瑟林 犯规: 无球犯规 (2 次失误) (裁判：J.奥尔)</t>
+  </si>
+  <si>
+    <t>马瑟林 后仰跳投： 命中(6 分)</t>
+  </si>
+  <si>
+    <t>马瑟林 抢到篮板球 (进攻篮板:3 防守篮板:2)</t>
+  </si>
+  <si>
+    <t>哈利伯顿 反手灌篮： 命中(13 分) (马瑟林 3 次助攻)</t>
+  </si>
+  <si>
+    <t>马瑟林 急停跳投： 不中</t>
+  </si>
+  <si>
+    <t>马瑟林 抢到篮板球 (进攻篮板:4 防守篮板:2)</t>
+  </si>
+  <si>
+    <t>马瑟林 漂移跳投： 命中(8 分)</t>
+  </si>
+  <si>
+    <t>马瑟林 抢到篮板球 (进攻篮板:4 防守篮板:3)</t>
+  </si>
+  <si>
+    <t>马瑟林 急停跳投： 命中(10 分)</t>
+  </si>
+  <si>
+    <t>马瑟林 突破上篮： 不中</t>
+  </si>
+  <si>
+    <t>换人： 马瑟林 替换 克内克特</t>
+  </si>
+  <si>
+    <t>马瑟林 犯规: 个人犯规 (3 次失误) (裁判：J.奥尔)</t>
+  </si>
+  <si>
+    <t>马瑟林 抢到篮板球 (进攻篮板:4 防守篮板:4)</t>
+  </si>
+  <si>
+    <t>马瑟林 抢到篮板球 (进攻篮板:4 防守篮板:5)</t>
+  </si>
+  <si>
+    <t>马瑟林 行进间上篮： 命中(12 分) (西亚卡姆 4 次助攻)</t>
+  </si>
+  <si>
+    <t>马瑟林 犯规: 投篮犯规 (4 次犯规) (裁判：N.布赫特吹罚)</t>
+  </si>
+  <si>
+    <t>哈利伯顿 三分投篮： 命中(3 分) (迈尔斯-特纳 1 次助攻)</t>
+  </si>
+  <si>
+    <t>迈尔斯-特纳 抢到篮板球 (进攻篮板:0 防守篮板:1)</t>
+  </si>
+  <si>
+    <t>西亚卡姆 行进间上篮： 命中(2 分) (迈尔斯-特纳 2 次助攻)</t>
+  </si>
+  <si>
+    <t>迈尔斯-特纳 抢断 (1 次抢断)</t>
+  </si>
+  <si>
+    <t>迈尔斯-特纳 抢到篮板球 (进攻篮板:0 防守篮板:2)</t>
+  </si>
+  <si>
+    <t>迈尔斯-特纳 失误：误传 (1 次失误)</t>
+  </si>
+  <si>
+    <t>迈尔斯-特纳 抢到篮板球 (进攻篮板:1 防守篮板:2)</t>
+  </si>
+  <si>
+    <t>迈尔斯-特纳 补扣： 命中(2 分)</t>
+  </si>
+  <si>
+    <t>迈尔斯-特纳 撤步跳投： 命中(4 分)</t>
+  </si>
+  <si>
+    <t>迈尔斯-特纳 抢到篮板球 (进攻篮板:1 防守篮板:3)</t>
+  </si>
+  <si>
+    <t>迈尔斯-特纳 勾手投篮： 不中</t>
+  </si>
+  <si>
+    <t>迈尔斯-特纳 转身后仰投篮： 不中</t>
+  </si>
+  <si>
+    <t>迈尔斯-特纳 抢到篮板球 (进攻篮板:1 防守篮板:4)</t>
+  </si>
+  <si>
+    <t>迈尔斯-特纳 (两罚)第一罚 命中(5 分)</t>
+  </si>
+  <si>
+    <t>迈尔斯-特纳 (两罚)第二罚 命中(6 分)</t>
+  </si>
+  <si>
+    <t>迈尔斯-特纳 快攻抛投： 不中</t>
+  </si>
+  <si>
+    <t>迈尔斯-特纳 (两罚)第一罚 命中(7 分)</t>
+  </si>
+  <si>
+    <t>迈尔斯-特纳 (两罚)第二罚 命中(8 分)</t>
+  </si>
+  <si>
+    <t>迈尔斯-特纳 抢到篮板球 (进攻篮板:1 防守篮板:5)</t>
+  </si>
+  <si>
+    <t>迈尔斯-特纳 上篮： 命中(10 分)</t>
+  </si>
+  <si>
+    <t>迈尔斯-特纳 突破上篮： 命中(12 分)</t>
+  </si>
+  <si>
+    <t>迈尔斯-特纳 三分远投： 不中</t>
+  </si>
+  <si>
+    <t>迈尔斯-特纳 漂移跳投： 不中</t>
+  </si>
+  <si>
+    <t>迈尔斯-特纳 抢到篮板球 (进攻篮板:1 防守篮板:6)</t>
+  </si>
+  <si>
+    <t>迈尔斯-特纳 空中接力灌篮： 命中(14 分) (西亚卡姆 1 次助攻)</t>
+  </si>
+  <si>
+    <t>迈尔斯-特纳 突破勾手投篮： 不中</t>
+  </si>
+  <si>
+    <t>迈尔斯-特纳 (两罚)第一罚 命中(15 分)</t>
+  </si>
+  <si>
+    <t>迈尔斯-特纳 (两罚)第二罚 不中</t>
+  </si>
+  <si>
+    <t>迈尔斯-特纳 抢到篮板球 (进攻篮板:1 防守篮板:7)</t>
+  </si>
+  <si>
+    <t>迈尔斯-特纳 抢到篮板球 (进攻篮板:2 防守篮板:7)</t>
+  </si>
+  <si>
+    <t>迈尔斯-特纳 直接补篮： 不中</t>
+  </si>
+  <si>
+    <t>迈尔斯-特纳 抢到篮板球 (进攻篮板:2 防守篮板:8)</t>
+  </si>
+  <si>
+    <t>迈尔斯-特纳 封盖 (1 次封盖)</t>
+  </si>
+  <si>
+    <t>迈尔斯-特纳 (两罚)第一罚 命中(16 分)</t>
+  </si>
+  <si>
+    <t>迈尔斯-特纳 (两罚)第二罚 命中(17 分)</t>
+  </si>
+  <si>
+    <t>迈尔斯-特纳 突破上篮： 不中</t>
+  </si>
+  <si>
+    <t>迈尔斯-特纳 撤步跳投： 命中(19 分)</t>
+  </si>
+  <si>
+    <t>迈尔斯-特纳 一次罚球 命中(22 分)</t>
+  </si>
+  <si>
+    <t>迈尔斯-特纳 抢到篮板球 (进攻篮板:2 防守篮板:9)</t>
+  </si>
+  <si>
+    <t>迈尔斯-特纳 三分投篮： 命中(25 分) (克内克特 2 次助攻)</t>
+  </si>
+  <si>
+    <t>迈尔斯-特纳 突破反手上篮： 不中</t>
+  </si>
+  <si>
+    <t>迈尔斯-特纳 抢到篮板球 (进攻篮板:2 防守篮板:10)</t>
+  </si>
+  <si>
+    <t>迈尔斯-特纳 三分投篮： 不中</t>
+  </si>
+  <si>
+    <t>迈尔斯-特纳 抢到篮板球 (进攻篮板:2 防守篮板:11)</t>
+  </si>
+  <si>
+    <t>迈尔斯-特纳 (两罚)第一罚 命中(26 分)</t>
+  </si>
+  <si>
+    <t>迈尔斯-特纳 封盖 (2 次封盖)</t>
+  </si>
+  <si>
+    <t>迈尔斯-特纳 后仰跳投： 命中(28 分)</t>
+  </si>
+  <si>
+    <t>迈尔斯-特纳 抢到篮板球 (进攻篮板:2 防守篮板:12)</t>
+  </si>
+  <si>
+    <t>迈尔斯-特纳 (两罚)第一罚 命中(29 分)</t>
+  </si>
+  <si>
+    <t>迈尔斯-特纳 (两罚)第二罚 命中(30 分)</t>
+  </si>
+  <si>
+    <t>哈利伯顿 转身后仰投篮： 命中(18 分) (迈尔斯-特纳 4 次助攻)</t>
+  </si>
+  <si>
+    <t>迈尔斯-特纳 抢到篮板球 (进攻篮板:3 防守篮板:12)</t>
+  </si>
+  <si>
+    <t>迈尔斯-特纳 补篮： 命中(32 分)</t>
+  </si>
+  <si>
+    <t>迈尔斯-特纳 快攻抛投： 命中(34 分) (西亚卡姆 3 次助攻)</t>
+  </si>
+  <si>
+    <t>迈尔斯-特纳 封盖 (3 次封盖)</t>
+  </si>
+  <si>
+    <t>迈尔斯-特纳 抢到篮板球 (进攻篮板:3 防守篮板:13)</t>
+  </si>
+  <si>
+    <t>迈尔斯-特纳 (两罚)第一罚 命中(35 分)</t>
+  </si>
+  <si>
+    <t>迈尔斯-特纳 (两罚)第二罚 命中(36 分)</t>
+  </si>
+  <si>
+    <t>迈尔斯-特纳 违例：脚踢球 (裁判：N.布赫特吹罚)</t>
+  </si>
+  <si>
+    <t>迈尔斯-特纳 犯规: 个人犯规 (1 次犯规)(2 罚球出手) (裁判:J.威廉姆斯吹罚)</t>
+  </si>
+  <si>
+    <t>哈利伯顿 突破扣篮： 命中(5 分) (TJ-麦康奈尔 1 次助攻)</t>
+  </si>
+  <si>
+    <t>TJ-麦康奈尔 三分投篮： 不中</t>
+  </si>
+  <si>
+    <t>TJ-麦康奈尔 快攻打板抛投： 不中</t>
+  </si>
+  <si>
+    <t>TJ-麦康奈尔 抢断 (1 次抢断)</t>
+  </si>
+  <si>
+    <t>TJ-麦康奈尔 三分投篮： 命中(3 分) (迈尔斯-特纳 3 次助攻)</t>
+  </si>
+  <si>
+    <t>换人： TJ-麦康奈尔 替换 迈尔斯-特纳</t>
+  </si>
+  <si>
+    <t>TJ-麦康奈尔 三分远投： 不中</t>
+  </si>
+  <si>
+    <t>TJ-麦康奈尔 空切上篮： 命中(5 分) (哈利伯顿 1 次助攻)</t>
+  </si>
+  <si>
+    <t>TJ-麦康奈尔 犯规: 投篮犯规 (1 次犯规) (裁判：N.布赫特吹罚)</t>
+  </si>
+  <si>
+    <t>TJ-麦康奈尔 突破上篮： 命中(7 分)</t>
+  </si>
+  <si>
+    <t>TJ-麦康奈尔 抢到篮板球 (进攻篮板:0 防守篮板:1)</t>
+  </si>
+  <si>
+    <t>克内克特 三分投篮： 命中(3 分) (TJ-麦康奈尔 3 次助攻)</t>
+  </si>
+  <si>
+    <t>TJ-麦康奈尔 抢断 (2 次抢断)</t>
+  </si>
+  <si>
+    <t>TJ-麦康奈尔 失误：误传 (1 次失误)</t>
+  </si>
+  <si>
+    <t>TJ-麦康奈尔 行进间上篮： 不中</t>
+  </si>
+  <si>
+    <t>TJ-麦康奈尔 犯规: 投篮犯规 (2 次犯规) (裁判:J.威廉姆斯吹罚)</t>
+  </si>
+  <si>
+    <t>TJ-麦康奈尔 快攻抛投： 命中(9 分)</t>
+  </si>
+  <si>
+    <t>西亚卡姆 行进 空接上篮： 投篮： 命中(13 分) (TJ-麦康奈尔 4 次助攻)</t>
+  </si>
+  <si>
+    <t>换人： 安德鲁-内姆布哈德 替换 西亚卡姆</t>
+  </si>
+  <si>
+    <t>安德鲁-内姆布哈德 抢到篮板球 (进攻篮板:1 防守篮板:0)</t>
+  </si>
+  <si>
+    <t>安德鲁-内姆布哈德 三分投篮： 不中</t>
+  </si>
+  <si>
+    <t>安德鲁-内姆布哈德 犯规: 投篮犯规 (1 次犯规) (裁判：N.布赫特吹罚)</t>
+  </si>
+  <si>
+    <t>安德鲁-内姆布哈德 三分远投： 不中</t>
+  </si>
+  <si>
+    <t>换人： 安德鲁-内姆布哈德 替换 克内克特</t>
+  </si>
+  <si>
+    <t>安德鲁-内姆布哈德 (两罚)第一罚 命中(1 分)</t>
+  </si>
+  <si>
+    <t>安德鲁-内姆布哈德 (两罚)第二罚 命中(2 分)</t>
+  </si>
+  <si>
+    <t>安德鲁-内姆布哈德 抢到篮板球 (进攻篮板:1 防守篮板:1)</t>
+  </si>
+  <si>
+    <t>安德鲁-内姆布哈德 犯规: 个人犯规 (2 次失误) (裁判：N.布赫特吹罚)</t>
+  </si>
+  <si>
+    <t>安德鲁-内姆布哈德 犯规: 投篮犯规 (3 次犯规) (裁判：N.布赫特吹罚)</t>
+  </si>
+  <si>
+    <t>安德鲁-内姆布哈德 犯规: 个人犯规 (4 次犯规)(2 罚球出手) (裁判：N.布赫特吹罚)</t>
+  </si>
+  <si>
+    <t>安德鲁-内姆布哈德 犯规: 个人犯规 (5 次犯规)(2 罚球出手) (裁判：N.布赫特吹罚)</t>
+  </si>
+  <si>
+    <t>换人： 克内克特 替换 安德鲁-内姆布哈德</t>
+  </si>
+  <si>
+    <t>换人： 以赛亚-杰克逊 替换 TJ-麦康奈尔</t>
+  </si>
+  <si>
+    <t>以赛亚-杰克逊 撤步跳投： 不中</t>
+  </si>
+  <si>
+    <t>以赛亚-杰克逊 抢到篮板球 (进攻篮板:0 防守篮板:1)</t>
+  </si>
+  <si>
+    <t>哈利伯顿 急停跳投： 命中(9 分) (以赛亚-杰克逊 1 次助攻)</t>
+  </si>
+  <si>
+    <t>换人： 西亚卡姆 替换 以赛亚-杰克逊</t>
+  </si>
+  <si>
+    <t>以赛亚-杰克逊 空切上篮： 命中(2 分) (马瑟林 4 次助攻)</t>
+  </si>
+  <si>
+    <t>迈尔斯-特纳 快攻抛投： 命中(21 分) (以赛亚-杰克逊 2 次助攻)</t>
+  </si>
+  <si>
+    <t>以赛亚-杰克逊 犯规: 个人犯规 (1 次犯规)(2 罚球出手) (裁判：J.奥尔)</t>
+  </si>
+  <si>
+    <t>以赛亚-杰克逊 失误：误传 (1 次失误)</t>
+  </si>
+  <si>
+    <t>换人： 以赛亚-杰克逊 替换 西亚卡姆</t>
+  </si>
+  <si>
+    <t>以赛亚-杰克逊 失误：传球出界 (2 次失误)</t>
+  </si>
+  <si>
+    <t>以赛亚-杰克逊 抢到篮板球 (进攻篮板:0 防守篮板:2)</t>
+  </si>
+  <si>
+    <t>换人： 哈利伯顿 替换 以赛亚-杰克逊</t>
+  </si>
+  <si>
+    <t>换人： 布莱恩特 替换 哈利伯顿</t>
+  </si>
+  <si>
+    <t>布莱恩特 抢到篮板球 (进攻篮板:1 防守篮板:0)</t>
+  </si>
+  <si>
+    <t>布莱恩特 补篮： 不中</t>
+  </si>
+  <si>
+    <t>布莱恩特 三分投篮： 不中</t>
+  </si>
+  <si>
+    <t>换人： TJ-麦康奈尔 替换 布莱恩特</t>
+  </si>
+  <si>
+    <t>换人： 奥比-托平 替换 哈利伯顿</t>
+  </si>
+  <si>
+    <t>奥比-托平 抢到篮板球 (进攻篮板:1 防守篮板:0)</t>
+  </si>
+  <si>
+    <t>奥比-托平 抢到篮板球 (进攻篮板:1 防守篮板:1)</t>
+  </si>
+  <si>
+    <t>奥比-托平 (两罚)第一罚 命中(1 分)</t>
+  </si>
+  <si>
+    <t>奥比-托平 (两罚)第二罚 命中(2 分)</t>
+  </si>
+  <si>
+    <t>奥比-托平 漂移跳投： 不中</t>
+  </si>
+  <si>
+    <t>奥比-托平 抢到篮板球 (进攻篮板:2 防守篮板:1)</t>
+  </si>
+  <si>
+    <t>奥比-托平 抢到篮板球 (进攻篮板:3 防守篮板:1)</t>
+  </si>
+  <si>
+    <t>奥比-托平 扣篮： 命中(4 分) (TJ-麦康奈尔 2 次助攻)</t>
+  </si>
+  <si>
+    <t>奥比-托平 空切扣篮： 命中(6 分) (克内克特 1 次助攻)</t>
+  </si>
+  <si>
+    <t>换人： 迈尔斯-特纳 替换 奥比-托平</t>
+  </si>
+  <si>
+    <t>换人： 奥比-托平 替换 马瑟林</t>
+  </si>
+  <si>
+    <t>奥比-托平 空接上篮： 命中(8 分) (西亚卡姆 2 次助攻)</t>
+  </si>
+  <si>
+    <t>奥比-托平 犯规: 投篮犯规 (1 次犯规)(2 罚球出手) (裁判：J.奥尔)</t>
+  </si>
+  <si>
+    <t>奥比-托平 犯规: 投篮犯规 (2 次犯规) (裁判：N.布赫特吹罚)</t>
+  </si>
+  <si>
+    <t>奥比-托平 犯规: 无球犯规 (3 次失误) (裁判：J.奥尔)</t>
+  </si>
+  <si>
+    <t>奥比-托平 封盖 (1 次封盖)</t>
+  </si>
+  <si>
+    <t>奥比-托平 空中接力灌篮： 命中(10 分) (TJ-麦康奈尔 5 次助攻)</t>
+  </si>
+  <si>
+    <t>扬尼斯-阿德托昆博 三分投篮： 不中</t>
+  </si>
+  <si>
+    <t>扬尼斯-阿德托昆博 三分远投： 不中</t>
+  </si>
+  <si>
+    <t>扬尼斯-阿德托昆博 三分远投： 命中(6 分)</t>
+  </si>
+  <si>
+    <t>扬尼斯-阿德托昆博 失误：走步 (1 次失误)</t>
+  </si>
+  <si>
+    <t>扬尼斯-阿德托昆博 抢到篮板球 (进攻篮板:0 防守篮板:1)</t>
+  </si>
+  <si>
+    <t>扬尼斯-阿德托昆博 行进间上篮： 命中(8 分)</t>
+  </si>
+  <si>
+    <t>扬尼斯-阿德托昆博 犯规: 投篮犯规 (1 次犯规) (裁判：J.奥尔)</t>
+  </si>
+  <si>
+    <t>扬尼斯-阿德托昆博 三分远投： 命中(11 分)</t>
+  </si>
+  <si>
+    <t>扬尼斯-阿德托昆博 抢到篮板球 (进攻篮板:0 防守篮板:2)</t>
+  </si>
+  <si>
+    <t>扬尼斯-阿德托昆博 突破上篮： 命中(13 分)</t>
+  </si>
+  <si>
+    <t>扬尼斯-阿德托昆博 一次罚球 命中(14 分)</t>
+  </si>
+  <si>
+    <t>扬尼斯-阿德托昆博 抢到篮板球 (进攻篮板:0 防守篮板:3)</t>
+  </si>
+  <si>
+    <t>扬尼斯-阿德托昆博 后仰跳投： 不中</t>
+  </si>
+  <si>
+    <t>扬尼斯-阿德托昆博 犯规: 个人犯规 (2 次失误) (裁判：N.布赫特吹罚)</t>
+  </si>
+  <si>
+    <t>扬尼斯-阿德托昆博 撤步跳投： 不中</t>
+  </si>
+  <si>
+    <t>扬尼斯-阿德托昆博 失误：传球出界 (2 次失误)</t>
+  </si>
+  <si>
+    <t>扬尼斯-阿德托昆博 失误：误传 (3 次失误)</t>
+  </si>
+  <si>
+    <t>扬尼斯-阿德托昆博 失误：出界 (4 次失误)</t>
+  </si>
+  <si>
+    <t>扬尼斯-阿德托昆博 抢到篮板球 (进攻篮板:0 防守篮板:4)</t>
+  </si>
+  <si>
+    <t>扬尼斯-阿德托昆博 突破上篮： 不中</t>
+  </si>
+  <si>
+    <t>扬尼斯-阿德托昆博 抢到篮板球 (进攻篮板:0 防守篮板:5)</t>
+  </si>
+  <si>
+    <t>扬尼斯-阿德托昆博 犯规: 投篮犯规 (3 次犯规) (裁判：N.布赫特吹罚)</t>
+  </si>
+  <si>
+    <t>扬尼斯-阿德托昆博 撤步跳投： 命中(19 分)</t>
+  </si>
+  <si>
+    <t>扬尼斯-阿德托昆博 三分远投： 命中(22 分)</t>
+  </si>
+  <si>
+    <t>扬尼斯-阿德托昆博 抢到篮板球 (进攻篮板:0 防守篮板:6)</t>
+  </si>
+  <si>
+    <t>扬尼斯-阿德托昆博 突破挑篮： 不中</t>
+  </si>
+  <si>
+    <t>扬尼斯-阿德托昆博 挑篮上篮： 不中</t>
+  </si>
+  <si>
+    <t>扬尼斯-阿德托昆博 撤步跳投： 命中(24 分)</t>
+  </si>
+  <si>
+    <t>扬尼斯-阿德托昆博 急停跳投： 不中</t>
+  </si>
+  <si>
+    <t>扬尼斯-阿德托昆博 突破上篮： 命中(26 分)</t>
+  </si>
+  <si>
+    <t>扬尼斯-阿德托昆博 (两罚)第一罚 命中(27 分)</t>
+  </si>
+  <si>
+    <t>扬尼斯-阿德托昆博 (两罚)第二罚 不中</t>
+  </si>
+  <si>
+    <t>利拉德 行进间上篮： 不中</t>
+  </si>
+  <si>
+    <t>利拉德 抢断 (1 次抢断)</t>
+  </si>
+  <si>
+    <t>利拉德 上篮： 命中(4 分)</t>
+  </si>
+  <si>
+    <t>利拉德 犯规: 个人犯规 (1 次失误) (裁判：N.布赫特吹罚)</t>
+  </si>
+  <si>
+    <t>利拉德 三分远投： 不中</t>
+  </si>
+  <si>
+    <t>利拉德 三分投篮： 不中</t>
+  </si>
+  <si>
+    <t>利拉德 犯规: 个人犯规 (2 次失误) (裁判：J.奥尔)</t>
+  </si>
+  <si>
+    <t>利拉德 犯规: 投篮犯规 (3 次犯规) (裁判：J.奥尔)</t>
+  </si>
+  <si>
+    <t>换人： 扬尼斯-阿德托昆博 替换 利拉德</t>
+  </si>
+  <si>
+    <t>利拉德 抢到篮板球 (进攻篮板:0 防守篮板:1)</t>
+  </si>
+  <si>
+    <t>利拉德 后仰跳投： 不中</t>
+  </si>
+  <si>
+    <t>跳球： 马瑟林 与 利拉德: 哈利伯顿 得到球</t>
+  </si>
+  <si>
+    <t>利拉德 犯规: 投篮犯规 (4 次犯规) (裁判：N.布赫特吹罚)</t>
+  </si>
+  <si>
+    <t>利拉德 抢到篮板球 (进攻篮板:0 防守篮板:2)</t>
+  </si>
+  <si>
+    <t>利拉德 失误：走步 (1 次失误)</t>
+  </si>
+  <si>
+    <t>利拉德 犯规: 个人犯规 (5 次失误) (裁判:J.威廉姆斯吹罚)</t>
+  </si>
+  <si>
+    <t>鲍比-波蒂斯 抢到篮板球 (进攻篮板:0 防守篮板:1)</t>
+  </si>
+  <si>
+    <t>鲍比-波蒂斯 抢到篮板球 (进攻篮板:0 防守篮板:2)</t>
+  </si>
+  <si>
+    <t>鲍比-波蒂斯 反手上篮： 不中</t>
+  </si>
+  <si>
+    <t>鲍比-波蒂斯 失误：进攻犯规 (1 次犯规) (裁判：J.奥尔)</t>
+  </si>
+  <si>
+    <t>鲍比-波蒂斯 失误：进攻犯规 (1 次失误)</t>
+  </si>
+  <si>
+    <t>鲍比-波蒂斯 抢到篮板球 (进攻篮板:0 防守篮板:3)</t>
+  </si>
+  <si>
+    <t>鲍比-波蒂斯 抢到篮板球 (进攻篮板:0 防守篮板:4)</t>
+  </si>
+  <si>
+    <t>鲍比-波蒂斯 抢到篮板球 (进攻篮板:1 防守篮板:4)</t>
+  </si>
+  <si>
+    <t>鲍比-波蒂斯 (两罚)第一罚 命中(3 分)</t>
+  </si>
+  <si>
+    <t>鲍比-波蒂斯 (两罚)第二罚 不中</t>
+  </si>
+  <si>
+    <t>鲍比-波蒂斯 行进间上篮： 不中</t>
+  </si>
+  <si>
+    <t>鲍比-波蒂斯 抢到篮板球 (进攻篮板:1 防守篮板:5)</t>
+  </si>
+  <si>
+    <t>鲍比-波蒂斯 违例：防守干扰球 (裁判：J.奥尔)</t>
+  </si>
+  <si>
+    <t>鲍比-波蒂斯 抢到篮板球 (进攻篮板:1 防守篮板:6)</t>
+  </si>
+  <si>
+    <t>鲍比-波蒂斯 封盖 (1 次封盖)</t>
+  </si>
+  <si>
+    <t>鲍比-波蒂斯 抢到篮板球 (进攻篮板:2 防守篮板:6)</t>
+  </si>
+  <si>
+    <t>鲍比-波蒂斯 补扣： 命中(5 分)</t>
+  </si>
+  <si>
+    <t>鲍比-波蒂斯 抢到篮板球 (进攻篮板:2 防守篮板:7)</t>
+  </si>
+  <si>
+    <t>鲍比-波蒂斯 抢到篮板球 (进攻篮板:2 防守篮板:8)</t>
+  </si>
+  <si>
+    <t>鲍比-波蒂斯 抢到篮板球 (进攻篮板:2 防守篮板:9)</t>
+  </si>
+  <si>
+    <t>鲍比-波蒂斯 扣篮： 不中</t>
+  </si>
+  <si>
+    <t>鲍比-波蒂斯 (两罚)第一罚 命中(6 分)</t>
+  </si>
+  <si>
+    <t>鲍比-波蒂斯 (两罚)第二罚 命中(7 分)</t>
+  </si>
+  <si>
+    <t>鲍比-波蒂斯 犯规: 投篮犯规 (2 次犯规) (裁判：N.布赫特吹罚)</t>
+  </si>
+  <si>
+    <t>鲍比-波蒂斯 抢到篮板球 (进攻篮板:2 防守篮板:10)</t>
+  </si>
+  <si>
+    <t>鲍比-波蒂斯 抢到篮板球 (进攻篮板:3 防守篮板:10)</t>
+  </si>
+  <si>
+    <t>鲍比-波蒂斯 犯规: 无球犯规 (3 次失误) (裁判：N.布赫特吹罚)</t>
+  </si>
+  <si>
+    <t>鲍比-波蒂斯 突破上篮： 命中(13 分) (扬尼斯-阿德托昆博 3 次助攻)</t>
+  </si>
+  <si>
+    <t>鲍比-波蒂斯 犯规: 个人犯规 (4 次犯规)(2 罚球出手) (裁判：N.布赫特吹罚)</t>
+  </si>
+  <si>
+    <t>鲍比-波蒂斯 抢到篮板球 (进攻篮板:3 防守篮板:11)</t>
+  </si>
+  <si>
+    <t>利拉德 突破挑篮： 命中(2 分) (布鲁克-洛佩斯 1 次助攻)</t>
+  </si>
+  <si>
+    <t>扬尼斯-阿德托昆博 三分投篮： 命中(3 分) (布鲁克-洛佩斯 2 次助攻)</t>
+  </si>
+  <si>
+    <t>布鲁克-洛佩斯 行进间上篮： 不中</t>
+  </si>
+  <si>
+    <t>布鲁克-洛佩斯 抢到篮板球 (进攻篮板:0 防守篮板:1)</t>
+  </si>
+  <si>
+    <t>布鲁克-洛佩斯 失误：误传 (1 次失误)</t>
+  </si>
+  <si>
+    <t>换人： 布鲁克-洛佩斯 替换 鲍比-波蒂斯</t>
+  </si>
+  <si>
+    <t>布鲁克-洛佩斯 抢到篮板球 (进攻篮板:0 防守篮板:2)</t>
+  </si>
+  <si>
+    <t>布鲁克-洛佩斯 三分远投： 命中(3 分)</t>
+  </si>
+  <si>
+    <t>布鲁克-洛佩斯 犯规: 带球撞人 (1 次犯规) (裁判:J.威廉姆斯吹罚)</t>
+  </si>
+  <si>
+    <t>布鲁克-洛佩斯 失误：进攻犯规 (2 次失误)</t>
+  </si>
+  <si>
+    <t>换人： 鲍比-波蒂斯 替换 布鲁克-洛佩斯</t>
+  </si>
+  <si>
+    <t>布鲁克-洛佩斯 急停跳投： 命中(5 分)</t>
+  </si>
+  <si>
+    <t>布鲁克-洛佩斯 抢到篮板球 (进攻篮板:0 防守篮板:3)</t>
+  </si>
+  <si>
+    <t>布鲁克-洛佩斯 抢到篮板球 (进攻篮板:0 防守篮板:4)</t>
+  </si>
+  <si>
+    <t>布鲁克-洛佩斯 三分投篮： 不中</t>
+  </si>
+  <si>
+    <t>布鲁克-洛佩斯 犯规: 投篮犯规 (2 次犯规) (裁判：N.布赫特吹罚)</t>
+  </si>
+  <si>
+    <t>扬尼斯-阿德托昆博 三分投篮： 命中(17 分) (布鲁克-洛佩斯 3 次助攻)</t>
+  </si>
+  <si>
+    <t>布鲁克-洛佩斯 (两罚)第一罚 不中</t>
+  </si>
+  <si>
+    <t>布鲁克-洛佩斯 (两罚)第二罚 命中(6 分)</t>
+  </si>
+  <si>
+    <t>布鲁克-洛佩斯 跳投 不中</t>
+  </si>
+  <si>
+    <t>布鲁克-洛佩斯 抢到篮板球 (进攻篮板:0 防守篮板:5)</t>
+  </si>
+  <si>
+    <t>布鲁克-洛佩斯 漂移跳投： 命中(8 分)</t>
+  </si>
+  <si>
+    <t>布鲁克-洛佩斯 抢到篮板球 (进攻篮板:1 防守篮板:5)</t>
+  </si>
+  <si>
+    <t>布鲁克-洛佩斯 (两罚)第一罚 命中(9 分)</t>
+  </si>
+  <si>
+    <t>布鲁克-洛佩斯 (两罚)第二罚 不中</t>
+  </si>
+  <si>
+    <t>布鲁克-洛佩斯 犯规: 个人犯规 (3 次犯规)(2 罚球出手) (裁判:J.威廉姆斯吹罚)</t>
+  </si>
+  <si>
+    <t>布鲁克-洛佩斯 抢到篮板球 (进攻篮板:1 防守篮板:6)</t>
+  </si>
+  <si>
+    <t>布鲁克-洛佩斯 抢到篮板球 (进攻篮板:2 防守篮板:6)</t>
+  </si>
+  <si>
+    <t>布鲁克-洛佩斯 直接补篮： 命中(11 分)</t>
+  </si>
+  <si>
+    <t>布鲁克-洛佩斯 一次罚球 命中(12 分)</t>
+  </si>
+  <si>
+    <t>布鲁克-洛佩斯 (两罚)第一罚 命中(13 分)</t>
+  </si>
+  <si>
+    <t>布鲁克-洛佩斯 (两罚)第二罚 命中(14 分)</t>
+  </si>
+  <si>
+    <t>布鲁克-洛佩斯 抢到篮板球 (进攻篮板:3 防守篮板:6)</t>
+  </si>
+  <si>
+    <t>布鲁克-洛佩斯 补篮： 命中(16 分)</t>
+  </si>
+  <si>
+    <t>布鲁克-洛佩斯 突破上篮： 不中</t>
+  </si>
+  <si>
+    <t>跳球： 迈尔斯-特纳 与 鲍比-波蒂斯: 米德尔顿 得到球</t>
+  </si>
+  <si>
+    <t>米德尔顿 失误：误传 (1 次失误)</t>
+  </si>
+  <si>
+    <t>米德尔顿 抢到篮板球 (进攻篮板:1 防守篮板:0)</t>
+  </si>
+  <si>
+    <t>利拉德 快攻抛投： 命中(6 分) (米德尔顿 1 次助攻)</t>
+  </si>
+  <si>
+    <t>米德尔顿 失误：误传 (2 次失误)</t>
+  </si>
+  <si>
+    <t>米德尔顿 抢断 (1 次抢断)</t>
+  </si>
+  <si>
+    <t>米德尔顿 失误：误传 (3 次失误)</t>
+  </si>
+  <si>
+    <t>换人： 乔-英格尔斯 替换 米德尔顿</t>
+  </si>
+  <si>
+    <t>米德尔顿 抢到篮板球 (进攻篮板:2 防守篮板:0)</t>
+  </si>
+  <si>
+    <t>米德尔顿 漂移跳投： 命中(2 分)</t>
+  </si>
+  <si>
+    <t>米德尔顿 三分投篮： 不中</t>
+  </si>
+  <si>
+    <t>米德尔顿 抢到篮板球 (进攻篮板:2 防守篮板:1)</t>
+  </si>
+  <si>
+    <t>米德尔顿 抢到篮板球 (进攻篮板:2 防守篮板:2)</t>
+  </si>
+  <si>
+    <t>米德尔顿 (三罚)第一罚 命中(3 分)</t>
+  </si>
+  <si>
+    <t>米德尔顿 (三罚)第二罚 命中(4 分)</t>
+  </si>
+  <si>
+    <t>米德尔顿 (三罚)第三罚 命中(5 分)</t>
+  </si>
+  <si>
+    <t>米德尔顿 犯规: 投篮犯规 (1 次犯规) (裁判：N.布赫特吹罚)</t>
+  </si>
+  <si>
+    <t>米德尔顿 三分远投： 不中</t>
+  </si>
+  <si>
+    <t>鲍比-波蒂斯 空中接力灌篮： 命中(11 分) (米德尔顿 2 次助攻)</t>
+  </si>
+  <si>
+    <t>米德尔顿 快攻抛投： 不中</t>
+  </si>
+  <si>
+    <t>换人： 布鲁克-洛佩斯 替换 米德尔顿</t>
+  </si>
+  <si>
+    <t>换人： 小加里-特伦特 替换 米德尔顿</t>
+  </si>
+  <si>
+    <t>小加里-特伦特 三分远投： 不中</t>
+  </si>
+  <si>
+    <t>鲍比-波蒂斯 行进间上篮： 命中(2 分) (小加里-特伦特 1 次助攻)</t>
+  </si>
+  <si>
+    <t>小加里-特伦特 (两罚)第一罚 不中</t>
+  </si>
+  <si>
+    <t>小加里-特伦特 (两罚)第二罚 不中</t>
+  </si>
+  <si>
+    <t>小加里-特伦特 犯规: 投篮犯规 (1 次犯规) (裁判:J.威廉姆斯吹罚)</t>
+  </si>
+  <si>
+    <t>小加里-特伦特 快攻抛投： 不中</t>
+  </si>
+  <si>
+    <t>小加里-特伦特 抢到篮板球 (进攻篮板:1 防守篮板:0)</t>
+  </si>
+  <si>
+    <t>小加里-特伦特 直接补篮： 命中(2 分)</t>
+  </si>
+  <si>
+    <t>小加里-特伦特 三分投篮： 不中</t>
+  </si>
+  <si>
+    <t>小加里-特伦特 失误：出界 (1 次失误)</t>
+  </si>
+  <si>
+    <t>换人： 布鲁克-洛佩斯 替换 小加里-特伦特</t>
+  </si>
+  <si>
+    <t>换人： 小加里-特伦特 替换 利拉德</t>
+  </si>
+  <si>
+    <t>小加里-特伦特 三分投篮： 命中(5 分) (布鲁克-洛佩斯 4 次助攻)</t>
+  </si>
+  <si>
+    <t>小加里-特伦特 抢到篮板球 (进攻篮板:1 防守篮板:1)</t>
+  </si>
+  <si>
+    <t>小加里-特伦特 三分投篮： 命中(8 分) (鲍比-波蒂斯 1 次助攻)</t>
+  </si>
+  <si>
+    <t>小加里-特伦特 抢到篮板球 (进攻篮板:1 防守篮板:2)</t>
+  </si>
+  <si>
+    <t>小加里-特伦特 (两罚)第一罚 命中(9 分)</t>
+  </si>
+  <si>
+    <t>小加里-特伦特 (两罚)第二罚 命中(10 分)</t>
+  </si>
+  <si>
+    <t>小加里-特伦特 抢断 (1 次抢断)</t>
+  </si>
+  <si>
+    <t>小加里-特伦特 抢断 (2 次抢断)</t>
+  </si>
+  <si>
+    <t>小加里-特伦特 犯规: 个人犯规 (2 次失误) (裁判：J.奥尔)</t>
+  </si>
+  <si>
+    <t>小加里-特伦特 空切扣篮： 不中</t>
+  </si>
+  <si>
+    <t>换人： AJ-格林 替换 利拉德</t>
+  </si>
+  <si>
+    <t>AJ-格林 三分投篮： 命中(3 分) (小加里-特伦特 2 次助攻)</t>
+  </si>
+  <si>
+    <t>AJ-格林 失误：丢球 (1 次失误)</t>
+  </si>
+  <si>
+    <t>AJ-格林 抢到篮板球 (进攻篮板:1 防守篮板:0)</t>
+  </si>
+  <si>
+    <t>AJ-格林 (两罚)第一罚 不中</t>
+  </si>
+  <si>
+    <t>AJ-格林 (两罚)第二罚 命中(4 分)</t>
+  </si>
+  <si>
+    <t>换人： 利拉德 替换 AJ-格林</t>
+  </si>
+  <si>
+    <t>AJ-格林 抢到篮板球 (进攻篮板:1 防守篮板:1)</t>
+  </si>
+  <si>
+    <t>AJ-格林 三分投篮： 命中(7 分) (乔-英格尔斯 1 次助攻)</t>
+  </si>
+  <si>
+    <t>AJ-格林 急停跳投： 不中</t>
+  </si>
+  <si>
+    <t>换人： AJ-格林 替换 米德尔顿</t>
+  </si>
+  <si>
+    <t>AJ-格林 三分远投： 不中</t>
+  </si>
+  <si>
+    <t>AJ-格林 空切扣篮： 命中(9 分) (鲍比-波蒂斯 2 次助攻)</t>
+  </si>
+  <si>
+    <t>AJ-格林 抢到篮板球 (进攻篮板:1 防守篮板:2)</t>
+  </si>
+  <si>
+    <t>AJ-格林 失误：误传 (2 次失误)</t>
+  </si>
+  <si>
+    <t>换人： 小加里-特伦特 替换 AJ-格林</t>
+  </si>
+  <si>
+    <t>换人： AJ-格林 替换 鲍比-波蒂斯</t>
+  </si>
+  <si>
+    <t>AJ-格林 抢到篮板球 (进攻篮板:2 防守篮板:2)</t>
+  </si>
+  <si>
+    <t>AJ-格林 三分投篮： 命中(12 分) (扬尼斯-阿德托昆博 1 次助攻)</t>
+  </si>
+  <si>
+    <t>AJ-格林 违例：脚踢球 (裁判：N.布赫特吹罚)</t>
+  </si>
+  <si>
+    <t>AJ-格林 快攻抛投： 命中(14 分) (扬尼斯-阿德托昆博 2 次助攻)</t>
+  </si>
+  <si>
+    <t>AJ-格林 抢到篮板球 (进攻篮板:2 防守篮板:3)</t>
+  </si>
+  <si>
+    <t>换人： 托里恩-普林斯 替换 布鲁克-洛佩斯</t>
+  </si>
+  <si>
+    <t>托里恩-普林斯 抢到篮板球 (进攻篮板:0 防守篮板:1)</t>
+  </si>
+  <si>
+    <t>托里恩-普林斯 失误：传球出界 (1 次失误)</t>
+  </si>
+  <si>
+    <t>托里恩-普林斯 抢到篮板球 (进攻篮板:0 防守篮板:2)</t>
+  </si>
+  <si>
+    <t>托里恩-普林斯 犯规: 投篮犯规 (1 次犯规) (裁判:J.威廉姆斯吹罚)</t>
+  </si>
+  <si>
+    <t>托里恩-普林斯 抢到篮板球 (进攻篮板:0 防守篮板:3)</t>
+  </si>
+  <si>
+    <t>托里恩-普林斯 三分 勾手擦板： 命中(3 分) (小加里-特伦特 3 次助攻)</t>
+  </si>
+  <si>
+    <t>托里恩-普林斯 转身打板勾手投篮： 不中</t>
+  </si>
+  <si>
+    <t>托里恩-普林斯 突破上篮： 不中</t>
+  </si>
+  <si>
+    <t>托里恩-普林斯 三分投篮： 不中</t>
+  </si>
+  <si>
+    <t>换人： AJ-格林 替换 托里恩-普林斯</t>
+  </si>
+  <si>
+    <t>托里恩-普林斯 (两罚)第一罚 命中(4 分)</t>
+  </si>
+  <si>
+    <t>托里恩-普林斯 (两罚)第二罚 命中(5 分)</t>
+  </si>
+  <si>
+    <t>鲍比-波蒂斯 空切扣篮： 命中(9 分) (托里恩-普林斯 1 次助攻)</t>
+  </si>
+  <si>
+    <t>托里恩-普林斯 快攻抛投： 不中</t>
+  </si>
+  <si>
+    <t>托里恩-普林斯 抢到篮板球 (进攻篮板:1 防守篮板:3)</t>
+  </si>
+  <si>
+    <t>托里恩-普林斯 直接补篮： 命中(7 分)</t>
+  </si>
+  <si>
+    <t>托里恩-普林斯 (两罚)第一罚 命中(8 分)</t>
+  </si>
+  <si>
+    <t>托里恩-普林斯 (两罚)第二罚 命中(9 分)</t>
+  </si>
+  <si>
+    <t>托里恩-普林斯 三分投篮： 命中(12 分) (利拉德 1 次助攻)</t>
+  </si>
+  <si>
+    <t>托里恩-普林斯 犯规: 投篮犯规 (2 次犯规)(2 罚球出手) (裁判:J.威廉姆斯吹罚)</t>
+  </si>
+  <si>
+    <t>托里恩-普林斯 犯规: 投篮犯规 (3 次犯规)(2 罚球出手) (裁判：N.布赫特吹罚)</t>
+  </si>
+  <si>
+    <t>换人： 鲍比-波蒂斯 替换 托里恩-普林斯</t>
+  </si>
+  <si>
+    <t>换人： 托里恩-普林斯 替换 鲍比-波蒂斯</t>
   </si>
 </sst>
 </file>
@@ -2050,8 +2051,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D508"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A299" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B236" sqref="B236"/>
+    <sheetView tabSelected="1" topLeftCell="A496" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A384" sqref="A384:D384"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.55" x14ac:dyDescent="0.25"/>
@@ -2063,7 +2064,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -2071,13 +2072,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>2</v>
-      </c>
       <c r="D2" t="s">
-        <v>3</v>
+        <v>143</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -2085,7 +2086,7 @@
         <v>0.5</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -2093,10 +2094,10 @@
         <v>0.5</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>471</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -2104,10 +2105,10 @@
         <v>0.48055555555555557</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D5" t="s">
-        <v>18</v>
+        <v>358</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -2115,10 +2116,10 @@
         <v>0.47847222222222224</v>
       </c>
       <c r="B6" t="s">
-        <v>518</v>
+        <v>150</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -2126,10 +2127,10 @@
         <v>0.47083333333333333</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>230</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -2137,10 +2138,10 @@
         <v>0.45208333333333334</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>196</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -2148,10 +2149,10 @@
         <v>0.44583333333333336</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>115</v>
+        <v>16</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>436</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -2159,10 +2160,10 @@
         <v>0.43263888888888891</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>290</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>116</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -2170,10 +2171,10 @@
         <v>0.41458333333333336</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>117</v>
+        <v>18</v>
       </c>
       <c r="D11" t="s">
-        <v>23</v>
+        <v>437</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -2181,10 +2182,10 @@
         <v>0.39930555555555558</v>
       </c>
       <c r="B12" t="s">
-        <v>519</v>
+        <v>151</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>117</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -2192,10 +2193,10 @@
         <v>0.39791666666666664</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>117</v>
+        <v>18</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>406</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -2203,10 +2204,10 @@
         <v>0.39513888888888887</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>117</v>
+        <v>18</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>390</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -2214,10 +2215,10 @@
         <v>0.39513888888888887</v>
       </c>
       <c r="B15" t="s">
-        <v>520</v>
+        <v>152</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>117</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -2225,10 +2226,10 @@
         <v>0.39374999999999999</v>
       </c>
       <c r="B16" t="s">
-        <v>521</v>
+        <v>153</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>117</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -2236,10 +2237,10 @@
         <v>0.39166666666666666</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>174</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>117</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -2247,10 +2248,10 @@
         <v>0.3888888888888889</v>
       </c>
       <c r="B18" t="s">
-        <v>27</v>
+        <v>197</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>117</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -2258,10 +2259,10 @@
         <v>0.38819444444444445</v>
       </c>
       <c r="B19" t="s">
-        <v>28</v>
+        <v>291</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>117</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -2269,10 +2270,10 @@
         <v>0.38611111111111113</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>117</v>
+        <v>18</v>
       </c>
       <c r="D20" t="s">
-        <v>29</v>
+        <v>407</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -2280,10 +2281,10 @@
         <v>0.37638888888888888</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>117</v>
+        <v>18</v>
       </c>
       <c r="D21" t="s">
-        <v>30</v>
+        <v>408</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -2291,10 +2292,10 @@
         <v>0.37638888888888888</v>
       </c>
       <c r="B22" t="s">
-        <v>31</v>
+        <v>175</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>117</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -2302,10 +2303,10 @@
         <v>0.37361111111111112</v>
       </c>
       <c r="B23" t="s">
-        <v>32</v>
+        <v>231</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>117</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -2313,10 +2314,10 @@
         <v>0.37222222222222223</v>
       </c>
       <c r="B24" t="s">
-        <v>522</v>
+        <v>232</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>118</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -2324,10 +2325,10 @@
         <v>0.36527777777777776</v>
       </c>
       <c r="B25" t="s">
-        <v>33</v>
+        <v>198</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>118</v>
+        <v>19</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -2335,10 +2336,10 @@
         <v>0.36041666666666666</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>118</v>
+        <v>19</v>
       </c>
       <c r="D26" t="s">
-        <v>34</v>
+        <v>472</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -2346,10 +2347,10 @@
         <v>0.36041666666666666</v>
       </c>
       <c r="B27" t="s">
-        <v>35</v>
+        <v>233</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>118</v>
+        <v>19</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -2357,10 +2358,10 @@
         <v>0.3576388888888889</v>
       </c>
       <c r="B28" t="s">
-        <v>523</v>
+        <v>199</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>119</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -2368,10 +2369,10 @@
         <v>0.35416666666666669</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>119</v>
+        <v>20</v>
       </c>
       <c r="D29" t="s">
-        <v>36</v>
+        <v>409</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -2379,10 +2380,10 @@
         <v>0.35416666666666669</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>119</v>
+        <v>20</v>
       </c>
       <c r="D30" t="s">
-        <v>37</v>
+        <v>410</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -2390,10 +2391,10 @@
         <v>0.34513888888888888</v>
       </c>
       <c r="B31" t="s">
-        <v>38</v>
+        <v>292</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>119</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -2401,10 +2402,10 @@
         <v>0.34305555555555556</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>119</v>
+        <v>20</v>
       </c>
       <c r="D32" t="s">
-        <v>39</v>
+        <v>411</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -2412,10 +2413,10 @@
         <v>0.34027777777777779</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>119</v>
+        <v>20</v>
       </c>
       <c r="D33" t="s">
-        <v>40</v>
+        <v>438</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -2423,10 +2424,10 @@
         <v>0.33888888888888891</v>
       </c>
       <c r="B34" t="s">
-        <v>41</v>
+        <v>234</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>119</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -2434,10 +2435,10 @@
         <v>0.33888888888888891</v>
       </c>
       <c r="B35" t="s">
-        <v>42</v>
+        <v>235</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>119</v>
+        <v>20</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -2445,10 +2446,10 @@
         <v>0.33888888888888891</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>119</v>
+        <v>20</v>
       </c>
       <c r="D36" t="s">
-        <v>43</v>
+        <v>391</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -2456,10 +2457,10 @@
         <v>0.33611111111111114</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>120</v>
+        <v>21</v>
       </c>
       <c r="D37" t="s">
-        <v>44</v>
+        <v>392</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -2467,10 +2468,10 @@
         <v>0.31944444444444442</v>
       </c>
       <c r="B38" t="s">
-        <v>45</v>
+        <v>200</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>120</v>
+        <v>21</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -2478,10 +2479,10 @@
         <v>0.31736111111111109</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>120</v>
+        <v>21</v>
       </c>
       <c r="D39" t="s">
-        <v>46</v>
+        <v>439</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -2489,10 +2490,10 @@
         <v>0.30902777777777779</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>120</v>
+        <v>21</v>
       </c>
       <c r="D40" t="s">
-        <v>47</v>
+        <v>440</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -2500,10 +2501,10 @@
         <v>0.30902777777777779</v>
       </c>
       <c r="B41" t="s">
-        <v>48</v>
+        <v>293</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>120</v>
+        <v>21</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -2511,10 +2512,10 @@
         <v>0.30138888888888887</v>
       </c>
       <c r="B42" t="s">
-        <v>524</v>
+        <v>154</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>120</v>
+        <v>21</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -2522,10 +2523,10 @@
         <v>0.29930555555555555</v>
       </c>
       <c r="B43" t="s">
-        <v>49</v>
+        <v>236</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>120</v>
+        <v>21</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -2533,10 +2534,10 @@
         <v>0.29791666666666666</v>
       </c>
       <c r="B44" t="s">
-        <v>50</v>
+        <v>237</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>121</v>
+        <v>22</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -2544,10 +2545,10 @@
         <v>0.28055555555555556</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>121</v>
+        <v>22</v>
       </c>
       <c r="D45" t="s">
-        <v>51</v>
+        <v>147</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
@@ -2555,10 +2556,10 @@
         <v>0.28055555555555556</v>
       </c>
       <c r="B46" t="s">
-        <v>52</v>
+        <v>145</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>121</v>
+        <v>22</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
@@ -2566,10 +2567,10 @@
         <v>0.28055555555555556</v>
       </c>
       <c r="B47" t="s">
-        <v>525</v>
+        <v>308</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>121</v>
+        <v>22</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
@@ -2577,10 +2578,10 @@
         <v>0.2673611111111111</v>
       </c>
       <c r="B48" t="s">
-        <v>53</v>
+        <v>238</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>122</v>
+        <v>23</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
@@ -2588,10 +2589,10 @@
         <v>0.25416666666666665</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>122</v>
+        <v>23</v>
       </c>
       <c r="D49" t="s">
-        <v>54</v>
+        <v>359</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -2599,10 +2600,10 @@
         <v>0.25416666666666665</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>122</v>
+        <v>23</v>
       </c>
       <c r="D50" t="s">
-        <v>55</v>
+        <v>148</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -2610,10 +2611,10 @@
         <v>0.25416666666666665</v>
       </c>
       <c r="B51" t="s">
-        <v>56</v>
+        <v>176</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>122</v>
+        <v>23</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
@@ -2621,10 +2622,10 @@
         <v>0.25416666666666665</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>122</v>
+        <v>23</v>
       </c>
       <c r="D52" t="s">
-        <v>57</v>
+        <v>537</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
@@ -2632,10 +2633,10 @@
         <v>0.25416666666666665</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>122</v>
+        <v>23</v>
       </c>
       <c r="D53" t="s">
-        <v>58</v>
+        <v>492</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
@@ -2643,10 +2644,10 @@
         <v>0.24583333333333332</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>123</v>
+        <v>24</v>
       </c>
       <c r="D54" t="s">
-        <v>59</v>
+        <v>360</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
@@ -2654,10 +2655,10 @@
         <v>0.23680555555555555</v>
       </c>
       <c r="B55" t="s">
-        <v>60</v>
+        <v>201</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>123</v>
+        <v>24</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
@@ -2665,10 +2666,10 @@
         <v>0.23472222222222222</v>
       </c>
       <c r="B56" t="s">
-        <v>61</v>
+        <v>309</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>123</v>
+        <v>24</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
@@ -2676,10 +2677,10 @@
         <v>0.23333333333333334</v>
       </c>
       <c r="B57" t="s">
-        <v>62</v>
+        <v>294</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>124</v>
+        <v>25</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
@@ -2687,10 +2688,10 @@
         <v>0.22222222222222221</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>124</v>
+        <v>25</v>
       </c>
       <c r="D58" t="s">
-        <v>63</v>
+        <v>493</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
@@ -2698,10 +2699,10 @@
         <v>0.22013888888888888</v>
       </c>
       <c r="B59" t="s">
-        <v>64</v>
+        <v>239</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>124</v>
+        <v>25</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
@@ -2709,10 +2710,10 @@
         <v>0.21458333333333332</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>124</v>
+        <v>25</v>
       </c>
       <c r="D60" t="s">
-        <v>65</v>
+        <v>393</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
@@ -2720,10 +2721,10 @@
         <v>0.21458333333333332</v>
       </c>
       <c r="B61" t="s">
-        <v>66</v>
+        <v>322</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>124</v>
+        <v>25</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
@@ -2731,10 +2732,10 @@
         <v>0.21111111111111111</v>
       </c>
       <c r="B62" t="s">
-        <v>67</v>
+        <v>310</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>124</v>
+        <v>25</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
@@ -2742,10 +2743,10 @@
         <v>0.20972222222222223</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>124</v>
+        <v>25</v>
       </c>
       <c r="D63" t="s">
-        <v>68</v>
+        <v>538</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
@@ -2753,10 +2754,10 @@
         <v>0.2048611111111111</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>124</v>
+        <v>25</v>
       </c>
       <c r="D64" t="s">
-        <v>69</v>
+        <v>539</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
@@ -2764,10 +2765,10 @@
         <v>0.19027777777777777</v>
       </c>
       <c r="B65" t="s">
-        <v>70</v>
+        <v>240</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>124</v>
+        <v>25</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
@@ -2775,10 +2776,10 @@
         <v>0.18888888888888888</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>124</v>
+        <v>25</v>
       </c>
       <c r="D66" t="s">
-        <v>71</v>
+        <v>540</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
@@ -2786,10 +2787,10 @@
         <v>0.18541666666666667</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>125</v>
+        <v>26</v>
       </c>
       <c r="D67" t="s">
-        <v>72</v>
+        <v>494</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
@@ -2797,10 +2798,10 @@
         <v>0.17083333333333334</v>
       </c>
       <c r="B68" t="s">
-        <v>73</v>
+        <v>323</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>125</v>
+        <v>26</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
@@ -2808,10 +2809,10 @@
         <v>0.17083333333333334</v>
       </c>
       <c r="B69" t="s">
-        <v>74</v>
+        <v>146</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>125</v>
+        <v>26</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
@@ -2819,10 +2820,10 @@
         <v>0.16527777777777777</v>
       </c>
       <c r="B70" t="s">
-        <v>75</v>
+        <v>202</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>125</v>
+        <v>26</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
@@ -2830,10 +2831,10 @@
         <v>0.16041666666666668</v>
       </c>
       <c r="B71" t="s">
-        <v>76</v>
+        <v>203</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>126</v>
+        <v>27</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
@@ -2841,10 +2842,10 @@
         <v>0.16041666666666668</v>
       </c>
       <c r="B72" t="s">
-        <v>77</v>
+        <v>204</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>126</v>
+        <v>27</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
@@ -2852,10 +2853,10 @@
         <v>0.15555555555555556</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>126</v>
+        <v>27</v>
       </c>
       <c r="D73" t="s">
-        <v>78</v>
+        <v>361</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
@@ -2863,10 +2864,10 @@
         <v>0.14374999999999999</v>
       </c>
       <c r="B74" t="s">
-        <v>79</v>
+        <v>241</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>126</v>
+        <v>27</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
@@ -2874,10 +2875,10 @@
         <v>0.14166666666666666</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>126</v>
+        <v>27</v>
       </c>
       <c r="D75" t="s">
-        <v>80</v>
+        <v>412</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
@@ -2885,10 +2886,10 @@
         <v>0.12916666666666668</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>126</v>
+        <v>27</v>
       </c>
       <c r="D76" t="s">
-        <v>81</v>
+        <v>394</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
@@ -2896,10 +2897,10 @@
         <v>0.12777777777777777</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>126</v>
+        <v>27</v>
       </c>
       <c r="D77" t="s">
-        <v>82</v>
+        <v>413</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
@@ -2907,10 +2908,10 @@
         <v>0.12708333333333333</v>
       </c>
       <c r="B78" t="s">
-        <v>83</v>
+        <v>311</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>126</v>
+        <v>27</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
@@ -2918,10 +2919,10 @@
         <v>0.12708333333333333</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D79" t="s">
-        <v>84</v>
+        <v>414</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
@@ -2929,10 +2930,10 @@
         <v>0.12708333333333333</v>
       </c>
       <c r="B80" t="s">
-        <v>526</v>
+        <v>205</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
@@ -2940,10 +2941,10 @@
         <v>0.12708333333333333</v>
       </c>
       <c r="B81" t="s">
-        <v>85</v>
+        <v>340</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
@@ -2951,10 +2952,10 @@
         <v>0.12708333333333333</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D82" t="s">
-        <v>86</v>
+        <v>515</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
@@ -2962,10 +2963,10 @@
         <v>0.12708333333333333</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D83" t="s">
-        <v>87</v>
+        <v>415</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
@@ -2973,10 +2974,10 @@
         <v>0.12361111111111112</v>
       </c>
       <c r="B84" t="s">
-        <v>88</v>
+        <v>242</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
@@ -2984,10 +2985,10 @@
         <v>0.1125</v>
       </c>
       <c r="B85" t="s">
-        <v>89</v>
+        <v>312</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
@@ -2995,10 +2996,10 @@
         <v>0.11041666666666666</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D86" t="s">
-        <v>90</v>
+        <v>362</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
@@ -3006,10 +3007,10 @@
         <v>0.10625</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D87" t="s">
-        <v>91</v>
+        <v>363</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
@@ -3017,10 +3018,10 @@
         <v>9.166666666666666E-2</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D88" t="s">
-        <v>92</v>
+        <v>541</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
@@ -3028,10 +3029,10 @@
         <v>9.166666666666666E-2</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D89" t="s">
-        <v>93</v>
+        <v>149</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
@@ -3039,10 +3040,10 @@
         <v>9.166666666666666E-2</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D90" t="s">
-        <v>94</v>
+        <v>441</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
@@ -3050,10 +3051,10 @@
         <v>9.166666666666666E-2</v>
       </c>
       <c r="B91" t="s">
-        <v>95</v>
+        <v>243</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
@@ -3061,10 +3062,10 @@
         <v>9.166666666666666E-2</v>
       </c>
       <c r="B92" t="s">
-        <v>96</v>
+        <v>244</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
@@ -3072,10 +3073,10 @@
         <v>7.9861111111111105E-2</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D93" t="s">
-        <v>97</v>
+        <v>516</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
@@ -3083,10 +3084,10 @@
         <v>6.805555555555555E-2</v>
       </c>
       <c r="B94" t="s">
-        <v>98</v>
+        <v>245</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
@@ -3094,10 +3095,10 @@
         <v>6.6666666666666666E-2</v>
       </c>
       <c r="B95" t="s">
-        <v>99</v>
+        <v>341</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
@@ -3105,10 +3106,10 @@
         <v>6.5972222222222224E-2</v>
       </c>
       <c r="B96" t="s">
-        <v>70</v>
+        <v>240</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
@@ -3116,10 +3117,10 @@
         <v>6.458333333333334E-2</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D97" t="s">
-        <v>100</v>
+        <v>542</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
@@ -3127,10 +3128,10 @@
         <v>6.0416666666666667E-2</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D98" t="s">
-        <v>18</v>
+        <v>358</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
@@ -3138,10 +3139,10 @@
         <v>5.7638888888888892E-2</v>
       </c>
       <c r="B99" t="s">
-        <v>101</v>
+        <v>324</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
@@ -3149,10 +3150,10 @@
         <v>5.2777777777777778E-2</v>
       </c>
       <c r="B100" t="s">
-        <v>67</v>
+        <v>310</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
@@ -3160,10 +3161,10 @@
         <v>5.1388888888888887E-2</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D101" t="s">
-        <v>102</v>
+        <v>442</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
@@ -3171,10 +3172,10 @@
         <v>4.7222222222222221E-2</v>
       </c>
       <c r="B102" t="s">
-        <v>527</v>
+        <v>155</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
@@ -3182,10 +3183,10 @@
         <v>4.7222222222222221E-2</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D103" t="s">
-        <v>103</v>
+        <v>495</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
@@ -3193,10 +3194,10 @@
         <v>4.7222222222222221E-2</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D104" t="s">
-        <v>55</v>
+        <v>148</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
@@ -3204,10 +3205,10 @@
         <v>4.7222222222222221E-2</v>
       </c>
       <c r="B105" t="s">
-        <v>104</v>
+        <v>295</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
@@ -3215,10 +3216,10 @@
         <v>4.7222222222222221E-2</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D106" t="s">
-        <v>105</v>
+        <v>496</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
@@ -3226,10 +3227,10 @@
         <v>4.583333333333333E-2</v>
       </c>
       <c r="B107" t="s">
-        <v>106</v>
+        <v>342</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
@@ -3237,10 +3238,10 @@
         <v>3.9583333333333331E-2</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D108" t="s">
-        <v>107</v>
+        <v>497</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
@@ -3248,10 +3249,10 @@
         <v>3.9583333333333331E-2</v>
       </c>
       <c r="B109" t="s">
-        <v>108</v>
+        <v>343</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
@@ -3259,10 +3260,10 @@
         <v>3.9583333333333331E-2</v>
       </c>
       <c r="B110" t="s">
-        <v>109</v>
+        <v>344</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
@@ -3270,10 +3271,10 @@
         <v>3.4027777777777775E-2</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D111" t="s">
-        <v>110</v>
+        <v>543</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
@@ -3281,10 +3282,10 @@
         <v>2.361111111111111E-2</v>
       </c>
       <c r="B112" t="s">
-        <v>528</v>
+        <v>156</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
@@ -3292,10 +3293,10 @@
         <v>2.361111111111111E-2</v>
       </c>
       <c r="B113" t="s">
-        <v>74</v>
+        <v>146</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
@@ -3303,10 +3304,10 @@
         <v>2.361111111111111E-2</v>
       </c>
       <c r="B114" t="s">
-        <v>529</v>
+        <v>157</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
@@ -3314,10 +3315,10 @@
         <v>1.3888888888888888E-2</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D115" t="s">
-        <v>111</v>
+        <v>498</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
@@ -3325,10 +3326,10 @@
         <v>1.3194444444444444E-2</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D116" t="s">
-        <v>112</v>
+        <v>499</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
@@ -3336,10 +3337,10 @@
         <v>1.3194444444444444E-2</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D117" t="s">
-        <v>113</v>
+        <v>500</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
@@ -3347,10 +3348,10 @@
         <v>6.9444444444444447E-4</v>
       </c>
       <c r="B118" t="s">
-        <v>28</v>
+        <v>291</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
@@ -3358,10 +3359,10 @@
         <v>6.9444444444444447E-4</v>
       </c>
       <c r="B119" t="s">
-        <v>74</v>
+        <v>146</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>127</v>
+        <v>28</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
@@ -3369,12 +3370,12 @@
         <v>0</v>
       </c>
       <c r="B120" t="s">
-        <v>114</v>
+        <v>15</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>155</v>
+        <v>56</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
@@ -3382,13 +3383,13 @@
         <v>0</v>
       </c>
       <c r="B122" t="s">
+        <v>144</v>
+      </c>
+      <c r="C122" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C122" s="2" t="s">
-        <v>2</v>
-      </c>
       <c r="D122" t="s">
-        <v>3</v>
+        <v>143</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
@@ -3396,7 +3397,7 @@
         <v>0.5</v>
       </c>
       <c r="B123" t="s">
-        <v>156</v>
+        <v>57</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
@@ -3404,10 +3405,10 @@
         <v>0.48819444444444443</v>
       </c>
       <c r="B124" t="s">
-        <v>157</v>
+        <v>296</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
@@ -3415,10 +3416,10 @@
         <v>0.48680555555555555</v>
       </c>
       <c r="B125" t="s">
-        <v>158</v>
+        <v>177</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
@@ -3426,10 +3427,10 @@
         <v>0.48541666666666666</v>
       </c>
       <c r="B126" t="s">
-        <v>159</v>
+        <v>178</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>128</v>
+        <v>29</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
@@ -3437,10 +3438,10 @@
         <v>0.47361111111111109</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>128</v>
+        <v>29</v>
       </c>
       <c r="D127" t="s">
-        <v>63</v>
+        <v>493</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
@@ -3448,10 +3449,10 @@
         <v>0.47152777777777777</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>128</v>
+        <v>29</v>
       </c>
       <c r="D128" t="s">
-        <v>160</v>
+        <v>473</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
@@ -3459,10 +3460,10 @@
         <v>0.46805555555555556</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>129</v>
+        <v>30</v>
       </c>
       <c r="D129" t="s">
-        <v>161</v>
+        <v>443</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
@@ -3470,10 +3471,10 @@
         <v>0.45208333333333334</v>
       </c>
       <c r="B130" t="s">
-        <v>162</v>
+        <v>345</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>129</v>
+        <v>30</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
@@ -3481,10 +3482,10 @@
         <v>0.4513888888888889</v>
       </c>
       <c r="B131" t="s">
-        <v>163</v>
+        <v>346</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>129</v>
+        <v>30</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
@@ -3492,10 +3493,10 @@
         <v>0.44444444444444442</v>
       </c>
       <c r="B132" t="s">
-        <v>164</v>
+        <v>297</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>130</v>
+        <v>31</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
@@ -3503,10 +3504,10 @@
         <v>0.43125000000000002</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>130</v>
+        <v>31</v>
       </c>
       <c r="D133" t="s">
-        <v>165</v>
+        <v>517</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
@@ -3514,10 +3515,10 @@
         <v>0.43125000000000002</v>
       </c>
       <c r="B134" t="s">
-        <v>166</v>
+        <v>179</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>130</v>
+        <v>31</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
@@ -3525,10 +3526,10 @@
         <v>0.42499999999999999</v>
       </c>
       <c r="B135" t="s">
-        <v>167</v>
+        <v>180</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>130</v>
+        <v>31</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
@@ -3536,10 +3537,10 @@
         <v>0.4236111111111111</v>
       </c>
       <c r="B136" t="s">
-        <v>74</v>
+        <v>146</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>130</v>
+        <v>31</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
@@ -3547,10 +3548,10 @@
         <v>0.41736111111111113</v>
       </c>
       <c r="B137" t="s">
-        <v>28</v>
+        <v>291</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>130</v>
+        <v>31</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
@@ -3558,10 +3559,10 @@
         <v>0.4152777777777778</v>
       </c>
       <c r="B138" t="s">
-        <v>168</v>
+        <v>347</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>130</v>
+        <v>31</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
@@ -3569,10 +3570,10 @@
         <v>0.40972222222222221</v>
       </c>
       <c r="B139" t="s">
-        <v>169</v>
+        <v>348</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>131</v>
+        <v>32</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
@@ -3580,10 +3581,10 @@
         <v>0.39930555555555558</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>131</v>
+        <v>32</v>
       </c>
       <c r="D140" t="s">
-        <v>170</v>
+        <v>544</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
@@ -3591,10 +3592,10 @@
         <v>0.39930555555555558</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>131</v>
+        <v>32</v>
       </c>
       <c r="D141" t="s">
-        <v>171</v>
+        <v>518</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
@@ -3602,10 +3603,10 @@
         <v>0.39930555555555558</v>
       </c>
       <c r="B142" t="s">
-        <v>172</v>
+        <v>298</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>131</v>
+        <v>32</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
@@ -3613,10 +3614,10 @@
         <v>0.39930555555555558</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>131</v>
+        <v>32</v>
       </c>
       <c r="D143" t="s">
-        <v>173</v>
+        <v>519</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
@@ -3624,10 +3625,10 @@
         <v>0.39930555555555558</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>131</v>
+        <v>32</v>
       </c>
       <c r="D144" t="s">
-        <v>55</v>
+        <v>148</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
@@ -3635,10 +3636,10 @@
         <v>0.39930555555555558</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>132</v>
+        <v>33</v>
       </c>
       <c r="D145" t="s">
-        <v>174</v>
+        <v>520</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
@@ -3646,10 +3647,10 @@
         <v>0.39374999999999999</v>
       </c>
       <c r="B146" t="s">
-        <v>175</v>
+        <v>299</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>133</v>
+        <v>34</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
@@ -3657,10 +3658,10 @@
         <v>0.38124999999999998</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>133</v>
+        <v>34</v>
       </c>
       <c r="D147" t="s">
-        <v>176</v>
+        <v>444</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
@@ -3668,10 +3669,10 @@
         <v>0.38124999999999998</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>133</v>
+        <v>34</v>
       </c>
       <c r="D148" t="s">
-        <v>177</v>
+        <v>445</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
@@ -3679,10 +3680,10 @@
         <v>0.37083333333333335</v>
       </c>
       <c r="B149" t="s">
-        <v>178</v>
+        <v>349</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>134</v>
+        <v>35</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
@@ -3690,10 +3691,10 @@
         <v>0.36041666666666666</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>134</v>
+        <v>35</v>
       </c>
       <c r="D150" t="s">
-        <v>179</v>
+        <v>545</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
@@ -3701,10 +3702,10 @@
         <v>0.35902777777777778</v>
       </c>
       <c r="B151" t="s">
-        <v>530</v>
+        <v>158</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>134</v>
+        <v>35</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
@@ -3712,10 +3713,10 @@
         <v>0.35625000000000001</v>
       </c>
       <c r="B152" t="s">
-        <v>531</v>
+        <v>159</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>135</v>
+        <v>36</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
@@ -3723,10 +3724,10 @@
         <v>0.35625000000000001</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>135</v>
+        <v>36</v>
       </c>
       <c r="D153" t="s">
-        <v>93</v>
+        <v>149</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
@@ -3734,10 +3735,10 @@
         <v>0.35625000000000001</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>135</v>
+        <v>36</v>
       </c>
       <c r="D154" t="s">
-        <v>180</v>
+        <v>521</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
@@ -3745,10 +3746,10 @@
         <v>0.35625000000000001</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>135</v>
+        <v>36</v>
       </c>
       <c r="D155" t="s">
-        <v>181</v>
+        <v>446</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
@@ -3756,10 +3757,10 @@
         <v>0.34583333333333333</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>135</v>
+        <v>36</v>
       </c>
       <c r="D156" t="s">
-        <v>182</v>
+        <v>395</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
@@ -3767,10 +3768,10 @@
         <v>0.34375</v>
       </c>
       <c r="B157" t="s">
-        <v>183</v>
+        <v>300</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>135</v>
+        <v>36</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
@@ -3778,10 +3779,10 @@
         <v>0.33402777777777776</v>
       </c>
       <c r="B158" t="s">
-        <v>184</v>
+        <v>301</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>136</v>
+        <v>37</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
@@ -3789,10 +3790,10 @@
         <v>0.32222222222222224</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>137</v>
+        <v>38</v>
       </c>
       <c r="D159" t="s">
-        <v>185</v>
+        <v>474</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
@@ -3800,10 +3801,10 @@
         <v>0.31527777777777777</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>137</v>
+        <v>38</v>
       </c>
       <c r="D160" t="s">
-        <v>186</v>
+        <v>396</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
@@ -3811,10 +3812,10 @@
         <v>0.31527777777777777</v>
       </c>
       <c r="B161" t="s">
-        <v>187</v>
+        <v>350</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>137</v>
+        <v>38</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
@@ -3822,10 +3823,10 @@
         <v>0.31527777777777777</v>
       </c>
       <c r="B162" t="s">
-        <v>532</v>
+        <v>206</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>137</v>
+        <v>38</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
@@ -3833,10 +3834,10 @@
         <v>0.30833333333333335</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>137</v>
+        <v>38</v>
       </c>
       <c r="D163" t="s">
-        <v>188</v>
+        <v>397</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
@@ -3844,10 +3845,10 @@
         <v>0.30833333333333335</v>
       </c>
       <c r="B164" t="s">
-        <v>189</v>
+        <v>246</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>138</v>
+        <v>39</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
@@ -3855,10 +3856,10 @@
         <v>0.30833333333333335</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>138</v>
+        <v>39</v>
       </c>
       <c r="D165" t="s">
-        <v>190</v>
+        <v>398</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
@@ -3866,10 +3867,10 @@
         <v>0.30833333333333335</v>
       </c>
       <c r="B166" t="s">
-        <v>191</v>
+        <v>247</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>139</v>
+        <v>40</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
@@ -3877,10 +3878,10 @@
         <v>0.30277777777777776</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>139</v>
+        <v>40</v>
       </c>
       <c r="D167" t="s">
-        <v>192</v>
+        <v>475</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
@@ -3888,10 +3889,10 @@
         <v>0.30277777777777776</v>
       </c>
       <c r="B168" t="s">
-        <v>193</v>
+        <v>302</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>139</v>
+        <v>40</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
@@ -3899,10 +3900,10 @@
         <v>0.30138888888888887</v>
       </c>
       <c r="B169" t="s">
-        <v>194</v>
+        <v>303</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>139</v>
+        <v>40</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
@@ -3910,10 +3911,10 @@
         <v>0.30138888888888887</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>139</v>
+        <v>40</v>
       </c>
       <c r="D170" t="s">
-        <v>195</v>
+        <v>476</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
@@ -3921,10 +3922,10 @@
         <v>0.29652777777777778</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>139</v>
+        <v>40</v>
       </c>
       <c r="D171" t="s">
-        <v>196</v>
+        <v>416</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
@@ -3932,10 +3933,10 @@
         <v>0.29652777777777778</v>
       </c>
       <c r="B172" t="s">
-        <v>197</v>
+        <v>207</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>139</v>
+        <v>40</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
@@ -3943,10 +3944,10 @@
         <v>0.29444444444444445</v>
       </c>
       <c r="B173" t="s">
-        <v>198</v>
+        <v>248</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>139</v>
+        <v>40</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
@@ -3954,10 +3955,10 @@
         <v>0.29166666666666669</v>
       </c>
       <c r="B174" t="s">
-        <v>199</v>
+        <v>58</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>140</v>
+        <v>41</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
@@ -3965,10 +3966,10 @@
         <v>0.28402777777777777</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>140</v>
+        <v>41</v>
       </c>
       <c r="D175" t="s">
-        <v>200</v>
+        <v>477</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
@@ -3976,10 +3977,10 @@
         <v>0.28402777777777777</v>
       </c>
       <c r="B176" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>140</v>
+        <v>41</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
@@ -3987,10 +3988,10 @@
         <v>0.28333333333333333</v>
       </c>
       <c r="B177" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>141</v>
+        <v>42</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
@@ -3998,10 +3999,10 @@
         <v>0.28333333333333333</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>141</v>
+        <v>42</v>
       </c>
       <c r="D178" t="s">
-        <v>203</v>
+        <v>364</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
@@ -4009,10 +4010,10 @@
         <v>0.28333333333333333</v>
       </c>
       <c r="B179" t="s">
-        <v>66</v>
+        <v>322</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>141</v>
+        <v>42</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
@@ -4020,10 +4021,10 @@
         <v>0.28333333333333333</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>141</v>
+        <v>42</v>
       </c>
       <c r="D180" t="s">
-        <v>204</v>
+        <v>478</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
@@ -4031,10 +4032,10 @@
         <v>0.28333333333333333</v>
       </c>
       <c r="B181" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>141</v>
+        <v>42</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
@@ -4042,10 +4043,10 @@
         <v>0.28194444444444444</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>141</v>
+        <v>42</v>
       </c>
       <c r="D182" t="s">
-        <v>206</v>
+        <v>417</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
@@ -4053,10 +4054,10 @@
         <v>0.2673611111111111</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>141</v>
+        <v>42</v>
       </c>
       <c r="D183" t="s">
-        <v>207</v>
+        <v>501</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
@@ -4064,10 +4065,10 @@
         <v>0.26458333333333334</v>
       </c>
       <c r="B184" t="s">
-        <v>208</v>
+        <v>181</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>141</v>
+        <v>42</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
@@ -4075,10 +4076,10 @@
         <v>0.25972222222222224</v>
       </c>
       <c r="B185" t="s">
-        <v>209</v>
+        <v>325</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>142</v>
+        <v>43</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
@@ -4086,10 +4087,10 @@
         <v>0.24791666666666667</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>143</v>
+        <v>44</v>
       </c>
       <c r="D186" t="s">
-        <v>210</v>
+        <v>365</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
@@ -4097,10 +4098,10 @@
         <v>0.2361111111111111</v>
       </c>
       <c r="B187" t="s">
-        <v>211</v>
+        <v>249</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>144</v>
+        <v>45</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
@@ -4108,10 +4109,10 @@
         <v>0.22361111111111112</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>144</v>
+        <v>45</v>
       </c>
       <c r="D188" t="s">
-        <v>207</v>
+        <v>501</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
@@ -4119,10 +4120,10 @@
         <v>0.22222222222222221</v>
       </c>
       <c r="B189" t="s">
-        <v>212</v>
+        <v>59</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>144</v>
+        <v>45</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
@@ -4130,10 +4131,10 @@
         <v>0.21875</v>
       </c>
       <c r="B190" t="s">
-        <v>213</v>
+        <v>182</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>144</v>
+        <v>45</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
@@ -4141,10 +4142,10 @@
         <v>0.21666666666666667</v>
       </c>
       <c r="B191" t="s">
-        <v>214</v>
+        <v>183</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>144</v>
+        <v>45</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
@@ -4152,10 +4153,10 @@
         <v>0.21597222222222223</v>
       </c>
       <c r="B192" t="s">
-        <v>215</v>
+        <v>184</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>145</v>
+        <v>46</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
@@ -4163,10 +4164,10 @@
         <v>0.2048611111111111</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>145</v>
+        <v>46</v>
       </c>
       <c r="D193" t="s">
-        <v>216</v>
+        <v>546</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
@@ -4174,10 +4175,10 @@
         <v>0.20277777777777778</v>
       </c>
       <c r="B194" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>145</v>
+        <v>46</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
@@ -4185,10 +4186,10 @@
         <v>0.20069444444444445</v>
       </c>
       <c r="B195" t="s">
-        <v>218</v>
+        <v>60</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>145</v>
+        <v>46</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
@@ -4196,10 +4197,10 @@
         <v>0.19791666666666666</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>145</v>
+        <v>46</v>
       </c>
       <c r="D196" t="s">
-        <v>219</v>
+        <v>366</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
@@ -4207,10 +4208,10 @@
         <v>0.19375000000000001</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>145</v>
+        <v>46</v>
       </c>
       <c r="D197" t="s">
-        <v>220</v>
+        <v>502</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
@@ -4218,10 +4219,10 @@
         <v>0.19375000000000001</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>145</v>
+        <v>46</v>
       </c>
       <c r="D198" t="s">
-        <v>221</v>
+        <v>503</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
@@ -4229,10 +4230,10 @@
         <v>0.19375000000000001</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>145</v>
+        <v>46</v>
       </c>
       <c r="D199" t="s">
-        <v>222</v>
+        <v>547</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
@@ -4240,10 +4241,10 @@
         <v>0.18263888888888888</v>
       </c>
       <c r="B200" t="s">
-        <v>223</v>
+        <v>250</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>146</v>
+        <v>47</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
@@ -4251,10 +4252,10 @@
         <v>0.18263888888888888</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>146</v>
+        <v>47</v>
       </c>
       <c r="D201" t="s">
-        <v>224</v>
+        <v>418</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
@@ -4262,10 +4263,10 @@
         <v>0.17777777777777778</v>
       </c>
       <c r="B202" t="s">
-        <v>225</v>
+        <v>61</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>146</v>
+        <v>47</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.25">
@@ -4273,10 +4274,10 @@
         <v>0.1736111111111111</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>147</v>
+        <v>48</v>
       </c>
       <c r="D203" t="s">
-        <v>226</v>
+        <v>367</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.25">
@@ -4284,10 +4285,10 @@
         <v>0.1736111111111111</v>
       </c>
       <c r="B204" t="s">
-        <v>227</v>
+        <v>185</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>147</v>
+        <v>48</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.25">
@@ -4295,10 +4296,10 @@
         <v>0.1736111111111111</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>148</v>
+        <v>49</v>
       </c>
       <c r="D205" t="s">
-        <v>228</v>
+        <v>368</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.25">
@@ -4306,10 +4307,10 @@
         <v>0.16666666666666666</v>
       </c>
       <c r="B206" t="s">
-        <v>533</v>
+        <v>326</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>148</v>
+        <v>49</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.25">
@@ -4317,10 +4318,10 @@
         <v>0.16666666666666666</v>
       </c>
       <c r="B207" t="s">
-        <v>556</v>
+        <v>335</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>148</v>
+        <v>49</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.25">
@@ -4328,10 +4329,10 @@
         <v>0.16388888888888889</v>
       </c>
       <c r="B208" t="s">
-        <v>534</v>
+        <v>160</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>148</v>
+        <v>49</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.25">
@@ -4339,10 +4340,10 @@
         <v>0.16111111111111112</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>148</v>
+        <v>49</v>
       </c>
       <c r="D209" t="s">
-        <v>229</v>
+        <v>419</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.25">
@@ -4350,10 +4351,10 @@
         <v>0.15416666666666667</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>149</v>
+        <v>50</v>
       </c>
       <c r="D210" t="s">
-        <v>230</v>
+        <v>447</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.25">
@@ -4361,10 +4362,10 @@
         <v>0.14444444444444443</v>
       </c>
       <c r="B211" t="s">
-        <v>231</v>
+        <v>251</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>149</v>
+        <v>50</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.25">
@@ -4372,10 +4373,10 @@
         <v>0.14166666666666666</v>
       </c>
       <c r="B212" t="s">
-        <v>557</v>
+        <v>336</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>149</v>
+        <v>50</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.25">
@@ -4383,10 +4384,10 @@
         <v>0.14166666666666666</v>
       </c>
       <c r="B213" t="s">
-        <v>558</v>
+        <v>337</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>149</v>
+        <v>50</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.25">
@@ -4394,10 +4395,10 @@
         <v>0.14166666666666666</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>149</v>
+        <v>50</v>
       </c>
       <c r="D214" t="s">
-        <v>232</v>
+        <v>420</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.25">
@@ -4405,10 +4406,10 @@
         <v>0.14166666666666666</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>149</v>
+        <v>50</v>
       </c>
       <c r="D215" t="s">
-        <v>233</v>
+        <v>522</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.25">
@@ -4416,10 +4417,10 @@
         <v>0.13194444444444445</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>149</v>
+        <v>50</v>
       </c>
       <c r="D216" t="s">
-        <v>234</v>
+        <v>62</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.25">
@@ -4427,10 +4428,10 @@
         <v>0.13055555555555556</v>
       </c>
       <c r="B217" t="s">
-        <v>74</v>
+        <v>146</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>149</v>
+        <v>50</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.25">
@@ -4438,10 +4439,10 @@
         <v>0.11388888888888889</v>
       </c>
       <c r="B218" t="s">
-        <v>535</v>
+        <v>161</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>149</v>
+        <v>50</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.25">
@@ -4449,10 +4450,10 @@
         <v>0.11180555555555556</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>149</v>
+        <v>50</v>
       </c>
       <c r="D219" t="s">
-        <v>235</v>
+        <v>369</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.25">
@@ -4460,10 +4461,10 @@
         <v>0.10555555555555556</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>149</v>
+        <v>50</v>
       </c>
       <c r="D220" t="s">
-        <v>54</v>
+        <v>359</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.25">
@@ -4471,10 +4472,10 @@
         <v>0.10208333333333333</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>149</v>
+        <v>50</v>
       </c>
       <c r="D221" t="s">
-        <v>236</v>
+        <v>421</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.25">
@@ -4482,10 +4483,10 @@
         <v>0.10208333333333333</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>150</v>
+        <v>51</v>
       </c>
       <c r="D222" t="s">
-        <v>237</v>
+        <v>422</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.25">
@@ -4493,10 +4494,10 @@
         <v>0.1</v>
       </c>
       <c r="B223" t="s">
-        <v>52</v>
+        <v>145</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>150</v>
+        <v>51</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.25">
@@ -4504,10 +4505,10 @@
         <v>9.3055555555555558E-2</v>
       </c>
       <c r="B224" t="s">
-        <v>536</v>
+        <v>212</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>151</v>
+        <v>52</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.25">
@@ -4515,10 +4516,10 @@
         <v>8.1250000000000003E-2</v>
       </c>
       <c r="C225" s="2" t="s">
-        <v>152</v>
+        <v>53</v>
       </c>
       <c r="D225" t="s">
-        <v>238</v>
+        <v>523</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.25">
@@ -4526,10 +4527,10 @@
         <v>6.805555555555555E-2</v>
       </c>
       <c r="B226" t="s">
-        <v>559</v>
+        <v>338</v>
       </c>
       <c r="C226" s="2" t="s">
-        <v>152</v>
+        <v>53</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.25">
@@ -4537,10 +4538,10 @@
         <v>6.5972222222222224E-2</v>
       </c>
       <c r="C227" s="2" t="s">
-        <v>152</v>
+        <v>53</v>
       </c>
       <c r="D227" t="s">
-        <v>239</v>
+        <v>448</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.25">
@@ -4548,10 +4549,10 @@
         <v>6.1805555555555558E-2</v>
       </c>
       <c r="C228" s="2" t="s">
-        <v>152</v>
+        <v>53</v>
       </c>
       <c r="D228" t="s">
-        <v>240</v>
+        <v>370</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.25">
@@ -4559,10 +4560,10 @@
         <v>6.1805555555555558E-2</v>
       </c>
       <c r="B229" t="s">
-        <v>241</v>
+        <v>213</v>
       </c>
       <c r="C229" s="2" t="s">
-        <v>152</v>
+        <v>53</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.25">
@@ -4570,10 +4571,10 @@
         <v>5.486111111111111E-2</v>
       </c>
       <c r="C230" s="2" t="s">
-        <v>152</v>
+        <v>53</v>
       </c>
       <c r="D230" t="s">
-        <v>242</v>
+        <v>371</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.25">
@@ -4581,10 +4582,10 @@
         <v>5.486111111111111E-2</v>
       </c>
       <c r="B231" t="s">
-        <v>243</v>
+        <v>313</v>
       </c>
       <c r="C231" s="2" t="s">
-        <v>152</v>
+        <v>53</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.25">
@@ -4592,10 +4593,10 @@
         <v>5.486111111111111E-2</v>
       </c>
       <c r="B232" t="s">
-        <v>560</v>
+        <v>339</v>
       </c>
       <c r="C232" s="2" t="s">
-        <v>152</v>
+        <v>53</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.25">
@@ -4603,10 +4604,10 @@
         <v>4.5138888888888888E-2</v>
       </c>
       <c r="B233" t="s">
-        <v>244</v>
+        <v>252</v>
       </c>
       <c r="C233" s="2" t="s">
-        <v>152</v>
+        <v>53</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.25">
@@ -4614,10 +4615,10 @@
         <v>4.3749999999999997E-2</v>
       </c>
       <c r="C234" s="2" t="s">
-        <v>152</v>
+        <v>53</v>
       </c>
       <c r="D234" t="s">
-        <v>245</v>
+        <v>449</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.25">
@@ -4625,10 +4626,10 @@
         <v>3.6805555555555557E-2</v>
       </c>
       <c r="C235" s="2" t="s">
-        <v>152</v>
+        <v>53</v>
       </c>
       <c r="D235" t="s">
-        <v>246</v>
+        <v>450</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.25">
@@ -4636,10 +4637,10 @@
         <v>3.4722222222222224E-2</v>
       </c>
       <c r="B236" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="C236" s="2" t="s">
-        <v>152</v>
+        <v>53</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.25">
@@ -4647,10 +4648,10 @@
         <v>3.0555555555555555E-2</v>
       </c>
       <c r="C237" s="2" t="s">
-        <v>152</v>
+        <v>53</v>
       </c>
       <c r="D237" t="s">
-        <v>248</v>
+        <v>63</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.25">
@@ -4658,10 +4659,10 @@
         <v>3.0555555555555555E-2</v>
       </c>
       <c r="B238" t="s">
-        <v>249</v>
+        <v>314</v>
       </c>
       <c r="C238" s="2" t="s">
-        <v>153</v>
+        <v>54</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.25">
@@ -4669,10 +4670,10 @@
         <v>3.0555555555555555E-2</v>
       </c>
       <c r="B239" t="s">
-        <v>250</v>
+        <v>315</v>
       </c>
       <c r="C239" s="2" t="s">
-        <v>154</v>
+        <v>55</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.25">
@@ -4680,10 +4681,10 @@
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="C240" s="2" t="s">
-        <v>154</v>
+        <v>55</v>
       </c>
       <c r="D240" t="s">
-        <v>251</v>
+        <v>372</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.25">
@@ -4691,10 +4692,10 @@
         <v>1.8749999999999999E-2</v>
       </c>
       <c r="B241" t="s">
-        <v>252</v>
+        <v>316</v>
       </c>
       <c r="C241" s="2" t="s">
-        <v>154</v>
+        <v>55</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.25">
@@ -4702,10 +4703,10 @@
         <v>9.0277777777777769E-3</v>
       </c>
       <c r="B242" t="s">
-        <v>28</v>
+        <v>291</v>
       </c>
       <c r="C242" s="2" t="s">
-        <v>154</v>
+        <v>55</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.25">
@@ -4713,10 +4714,10 @@
         <v>7.6388888888888886E-3</v>
       </c>
       <c r="C243" s="2" t="s">
-        <v>154</v>
+        <v>55</v>
       </c>
       <c r="D243" t="s">
-        <v>253</v>
+        <v>423</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.25">
@@ -4724,10 +4725,10 @@
         <v>2.0833333333333333E-3</v>
       </c>
       <c r="B244" t="s">
-        <v>254</v>
+        <v>317</v>
       </c>
       <c r="C244" s="2" t="s">
-        <v>154</v>
+        <v>55</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.25">
@@ -4735,10 +4736,10 @@
         <v>0</v>
       </c>
       <c r="C245" s="2" t="s">
-        <v>154</v>
+        <v>55</v>
       </c>
       <c r="D245" t="s">
-        <v>255</v>
+        <v>524</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.25">
@@ -4746,10 +4747,10 @@
         <v>0</v>
       </c>
       <c r="C246" s="2" t="s">
-        <v>154</v>
+        <v>55</v>
       </c>
       <c r="D246" t="s">
-        <v>55</v>
+        <v>148</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.25">
@@ -4757,12 +4758,12 @@
         <v>0</v>
       </c>
       <c r="B247" t="s">
-        <v>256</v>
+        <v>64</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>293</v>
+        <v>101</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.25">
@@ -4770,13 +4771,13 @@
         <v>0</v>
       </c>
       <c r="B249" t="s">
+        <v>144</v>
+      </c>
+      <c r="C249" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C249" s="2" t="s">
-        <v>2</v>
-      </c>
       <c r="D249" t="s">
-        <v>3</v>
+        <v>143</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.25">
@@ -4784,7 +4785,7 @@
         <v>0.5</v>
       </c>
       <c r="B250" t="s">
-        <v>294</v>
+        <v>102</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.25">
@@ -4792,10 +4793,10 @@
         <v>0.48888888888888887</v>
       </c>
       <c r="B251" t="s">
-        <v>537</v>
+        <v>254</v>
       </c>
       <c r="C251" s="2" t="s">
-        <v>257</v>
+        <v>65</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.25">
@@ -4803,10 +4804,10 @@
         <v>0.47986111111111113</v>
       </c>
       <c r="C252" s="2" t="s">
-        <v>257</v>
+        <v>65</v>
       </c>
       <c r="D252" t="s">
-        <v>54</v>
+        <v>359</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.25">
@@ -4814,10 +4815,10 @@
         <v>0.47708333333333336</v>
       </c>
       <c r="C253" s="2" t="s">
-        <v>257</v>
+        <v>65</v>
       </c>
       <c r="D253" t="s">
-        <v>295</v>
+        <v>479</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.25">
@@ -4825,10 +4826,10 @@
         <v>0.47569444444444442</v>
       </c>
       <c r="C254" s="2" t="s">
-        <v>258</v>
+        <v>66</v>
       </c>
       <c r="D254" t="s">
-        <v>296</v>
+        <v>480</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.25">
@@ -4836,10 +4837,10 @@
         <v>0.46041666666666664</v>
       </c>
       <c r="B255" t="s">
-        <v>297</v>
+        <v>255</v>
       </c>
       <c r="C255" s="2" t="s">
-        <v>258</v>
+        <v>66</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.25">
@@ -4847,10 +4848,10 @@
         <v>0.45902777777777776</v>
       </c>
       <c r="C256" s="2" t="s">
-        <v>258</v>
+        <v>66</v>
       </c>
       <c r="D256" t="s">
-        <v>298</v>
+        <v>399</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.25">
@@ -4858,10 +4859,10 @@
         <v>0.45624999999999999</v>
       </c>
       <c r="B257" t="s">
-        <v>538</v>
+        <v>162</v>
       </c>
       <c r="C257" s="2" t="s">
-        <v>258</v>
+        <v>66</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.25">
@@ -4869,10 +4870,10 @@
         <v>0.4513888888888889</v>
       </c>
       <c r="C258" s="2" t="s">
-        <v>258</v>
+        <v>66</v>
       </c>
       <c r="D258" t="s">
-        <v>299</v>
+        <v>481</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.25">
@@ -4880,10 +4881,10 @@
         <v>0.45069444444444445</v>
       </c>
       <c r="C259" s="2" t="s">
-        <v>258</v>
+        <v>66</v>
       </c>
       <c r="D259" t="s">
-        <v>55</v>
+        <v>148</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.25">
@@ -4891,10 +4892,10 @@
         <v>0.45069444444444445</v>
       </c>
       <c r="B260" t="s">
-        <v>300</v>
+        <v>214</v>
       </c>
       <c r="C260" s="2" t="s">
-        <v>258</v>
+        <v>66</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.25">
@@ -4902,10 +4903,10 @@
         <v>0.44722222222222224</v>
       </c>
       <c r="C261" s="2" t="s">
-        <v>258</v>
+        <v>66</v>
       </c>
       <c r="D261" t="s">
-        <v>301</v>
+        <v>373</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.25">
@@ -4913,10 +4914,10 @@
         <v>0.4375</v>
       </c>
       <c r="B262" t="s">
-        <v>302</v>
+        <v>215</v>
       </c>
       <c r="C262" s="2" t="s">
-        <v>259</v>
+        <v>67</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.25">
@@ -4924,10 +4925,10 @@
         <v>0.42499999999999999</v>
       </c>
       <c r="C263" s="2" t="s">
-        <v>259</v>
+        <v>67</v>
       </c>
       <c r="D263" t="s">
-        <v>303</v>
+        <v>400</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.25">
@@ -4935,10 +4936,10 @@
         <v>0.42430555555555555</v>
       </c>
       <c r="C264" s="2" t="s">
-        <v>259</v>
+        <v>67</v>
       </c>
       <c r="D264" t="s">
-        <v>55</v>
+        <v>148</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.25">
@@ -4946,10 +4947,10 @@
         <v>0.42291666666666666</v>
       </c>
       <c r="C265" s="2" t="s">
-        <v>259</v>
+        <v>67</v>
       </c>
       <c r="D265" t="s">
-        <v>304</v>
+        <v>374</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.25">
@@ -4957,10 +4958,10 @@
         <v>0.42291666666666666</v>
       </c>
       <c r="B266" t="s">
-        <v>305</v>
+        <v>186</v>
       </c>
       <c r="C266" s="2" t="s">
-        <v>259</v>
+        <v>67</v>
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.25">
@@ -4968,10 +4969,10 @@
         <v>0.42083333333333334</v>
       </c>
       <c r="C267" s="2" t="s">
-        <v>259</v>
+        <v>67</v>
       </c>
       <c r="D267" t="s">
-        <v>306</v>
+        <v>451</v>
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.25">
@@ -4979,10 +4980,10 @@
         <v>0.42083333333333334</v>
       </c>
       <c r="B268" t="s">
-        <v>307</v>
+        <v>256</v>
       </c>
       <c r="C268" s="2" t="s">
-        <v>260</v>
+        <v>68</v>
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.25">
@@ -4990,10 +4991,10 @@
         <v>0.42083333333333334</v>
       </c>
       <c r="B269" t="s">
-        <v>308</v>
+        <v>257</v>
       </c>
       <c r="C269" s="2" t="s">
-        <v>260</v>
+        <v>68</v>
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.25">
@@ -5001,10 +5002,10 @@
         <v>0.41944444444444445</v>
       </c>
       <c r="B270" t="s">
-        <v>309</v>
+        <v>216</v>
       </c>
       <c r="C270" s="2" t="s">
-        <v>260</v>
+        <v>68</v>
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.25">
@@ -5012,10 +5013,10 @@
         <v>0.41597222222222224</v>
       </c>
       <c r="B271" t="s">
-        <v>310</v>
+        <v>401</v>
       </c>
       <c r="C271" s="2" t="s">
-        <v>260</v>
+        <v>68</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.25">
@@ -5023,10 +5024,10 @@
         <v>0.41458333333333336</v>
       </c>
       <c r="B272" t="s">
-        <v>28</v>
+        <v>291</v>
       </c>
       <c r="C272" s="2" t="s">
-        <v>260</v>
+        <v>68</v>
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.25">
@@ -5034,10 +5035,10 @@
         <v>0.41319444444444442</v>
       </c>
       <c r="C273" s="2" t="s">
-        <v>260</v>
+        <v>68</v>
       </c>
       <c r="D273" t="s">
-        <v>311</v>
+        <v>424</v>
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.25">
@@ -5045,10 +5046,10 @@
         <v>0.40416666666666667</v>
       </c>
       <c r="C274" s="2" t="s">
-        <v>261</v>
+        <v>69</v>
       </c>
       <c r="D274" t="s">
-        <v>312</v>
+        <v>452</v>
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.25">
@@ -5056,10 +5057,10 @@
         <v>0.39583333333333331</v>
       </c>
       <c r="B275" t="s">
-        <v>313</v>
+        <v>217</v>
       </c>
       <c r="C275" s="2" t="s">
-        <v>262</v>
+        <v>70</v>
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.25">
@@ -5067,10 +5068,10 @@
         <v>0.38124999999999998</v>
       </c>
       <c r="C276" s="2" t="s">
-        <v>262</v>
+        <v>70</v>
       </c>
       <c r="D276" t="s">
-        <v>246</v>
+        <v>450</v>
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.25">
@@ -5078,10 +5079,10 @@
         <v>0.37916666666666665</v>
       </c>
       <c r="B277" t="s">
-        <v>314</v>
+        <v>258</v>
       </c>
       <c r="C277" s="2" t="s">
-        <v>262</v>
+        <v>70</v>
       </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.25">
@@ -5089,10 +5090,10 @@
         <v>0.37708333333333333</v>
       </c>
       <c r="B278" t="s">
-        <v>315</v>
+        <v>304</v>
       </c>
       <c r="C278" s="2" t="s">
-        <v>262</v>
+        <v>70</v>
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.25">
@@ -5100,10 +5101,10 @@
         <v>0.37430555555555556</v>
       </c>
       <c r="C279" s="2" t="s">
-        <v>262</v>
+        <v>70</v>
       </c>
       <c r="D279" t="s">
-        <v>316</v>
+        <v>482</v>
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.25">
@@ -5111,10 +5112,10 @@
         <v>0.37152777777777779</v>
       </c>
       <c r="C280" s="2" t="s">
-        <v>262</v>
+        <v>70</v>
       </c>
       <c r="D280" t="s">
-        <v>317</v>
+        <v>375</v>
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.25">
@@ -5122,10 +5123,10 @@
         <v>0.3611111111111111</v>
       </c>
       <c r="B281" t="s">
-        <v>318</v>
+        <v>218</v>
       </c>
       <c r="C281" s="2" t="s">
-        <v>262</v>
+        <v>70</v>
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.25">
@@ -5133,10 +5134,10 @@
         <v>0.35972222222222222</v>
       </c>
       <c r="C282" s="2" t="s">
-        <v>262</v>
+        <v>70</v>
       </c>
       <c r="D282" t="s">
-        <v>319</v>
+        <v>376</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.25">
@@ -5144,10 +5145,10 @@
         <v>0.35486111111111113</v>
       </c>
       <c r="C283" s="2" t="s">
-        <v>262</v>
+        <v>70</v>
       </c>
       <c r="D283" t="s">
-        <v>299</v>
+        <v>481</v>
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.25">
@@ -5155,10 +5156,10 @@
         <v>0.35347222222222224</v>
       </c>
       <c r="B284" t="s">
-        <v>320</v>
+        <v>187</v>
       </c>
       <c r="C284" s="2" t="s">
-        <v>262</v>
+        <v>70</v>
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.25">
@@ -5166,10 +5167,10 @@
         <v>0.35138888888888886</v>
       </c>
       <c r="C285" s="2" t="s">
-        <v>262</v>
+        <v>70</v>
       </c>
       <c r="D285" t="s">
-        <v>321</v>
+        <v>402</v>
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.25">
@@ -5177,10 +5178,10 @@
         <v>0.35138888888888886</v>
       </c>
       <c r="B286" t="s">
-        <v>322</v>
+        <v>188</v>
       </c>
       <c r="C286" s="2" t="s">
-        <v>263</v>
+        <v>71</v>
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.25">
@@ -5188,10 +5189,10 @@
         <v>0.35138888888888886</v>
       </c>
       <c r="C287" s="2" t="s">
-        <v>263</v>
+        <v>71</v>
       </c>
       <c r="D287" t="s">
-        <v>323</v>
+        <v>504</v>
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.25">
@@ -5199,10 +5200,10 @@
         <v>0.35138888888888886</v>
       </c>
       <c r="B288" t="s">
-        <v>324</v>
+        <v>189</v>
       </c>
       <c r="C288" s="2" t="s">
-        <v>264</v>
+        <v>72</v>
       </c>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.25">
@@ -5210,10 +5211,10 @@
         <v>0.33750000000000002</v>
       </c>
       <c r="C289" s="2" t="s">
-        <v>265</v>
+        <v>73</v>
       </c>
       <c r="D289" t="s">
-        <v>325</v>
+        <v>505</v>
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.25">
@@ -5221,10 +5222,10 @@
         <v>0.32222222222222224</v>
       </c>
       <c r="B290" t="s">
-        <v>45</v>
+        <v>200</v>
       </c>
       <c r="C290" s="2" t="s">
-        <v>265</v>
+        <v>73</v>
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.25">
@@ -5232,10 +5233,10 @@
         <v>0.32083333333333336</v>
       </c>
       <c r="B291" t="s">
-        <v>326</v>
+        <v>259</v>
       </c>
       <c r="C291" s="2" t="s">
-        <v>265</v>
+        <v>73</v>
       </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.25">
@@ -5243,10 +5244,10 @@
         <v>0.31944444444444442</v>
       </c>
       <c r="B292" t="s">
-        <v>327</v>
+        <v>260</v>
       </c>
       <c r="C292" s="2" t="s">
-        <v>265</v>
+        <v>73</v>
       </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.25">
@@ -5254,10 +5255,10 @@
         <v>0.31736111111111109</v>
       </c>
       <c r="B293" t="s">
-        <v>328</v>
+        <v>190</v>
       </c>
       <c r="C293" s="2" t="s">
-        <v>265</v>
+        <v>73</v>
       </c>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.25">
@@ -5265,10 +5266,10 @@
         <v>0.31736111111111109</v>
       </c>
       <c r="B294" t="s">
-        <v>329</v>
+        <v>191</v>
       </c>
       <c r="C294" s="2" t="s">
-        <v>265</v>
+        <v>73</v>
       </c>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.25">
@@ -5276,10 +5277,10 @@
         <v>0.31666666666666665</v>
       </c>
       <c r="C295" s="2" t="s">
-        <v>265</v>
+        <v>73</v>
       </c>
       <c r="D295" t="s">
-        <v>330</v>
+        <v>483</v>
       </c>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.25">
@@ -5287,10 +5288,10 @@
         <v>0.30694444444444446</v>
       </c>
       <c r="C296" s="2" t="s">
-        <v>265</v>
+        <v>73</v>
       </c>
       <c r="D296" t="s">
-        <v>331</v>
+        <v>377</v>
       </c>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.25">
@@ -5298,10 +5299,10 @@
         <v>0.30625000000000002</v>
       </c>
       <c r="B297" t="s">
-        <v>332</v>
+        <v>261</v>
       </c>
       <c r="C297" s="2" t="s">
-        <v>265</v>
+        <v>73</v>
       </c>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.25">
@@ -5309,10 +5310,10 @@
         <v>0.3034722222222222</v>
       </c>
       <c r="B298" t="s">
-        <v>539</v>
+        <v>163</v>
       </c>
       <c r="C298" s="2" t="s">
-        <v>265</v>
+        <v>73</v>
       </c>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.25">
@@ -5320,10 +5321,10 @@
         <v>0.30138888888888887</v>
       </c>
       <c r="C299" s="2" t="s">
-        <v>265</v>
+        <v>73</v>
       </c>
       <c r="D299" t="s">
-        <v>333</v>
+        <v>425</v>
       </c>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.25">
@@ -5331,10 +5332,10 @@
         <v>0.29722222222222222</v>
       </c>
       <c r="C300" s="2" t="s">
-        <v>265</v>
+        <v>73</v>
       </c>
       <c r="D300" t="s">
-        <v>334</v>
+        <v>426</v>
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.25">
@@ -5342,10 +5343,10 @@
         <v>0.29722222222222222</v>
       </c>
       <c r="B301" t="s">
-        <v>335</v>
+        <v>262</v>
       </c>
       <c r="C301" s="2" t="s">
-        <v>265</v>
+        <v>73</v>
       </c>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.25">
@@ -5353,10 +5354,10 @@
         <v>0.29722222222222222</v>
       </c>
       <c r="C302" s="2" t="s">
-        <v>265</v>
+        <v>73</v>
       </c>
       <c r="D302" t="s">
-        <v>55</v>
+        <v>148</v>
       </c>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.25">
@@ -5364,10 +5365,10 @@
         <v>0.29097222222222224</v>
       </c>
       <c r="B303" t="s">
-        <v>336</v>
+        <v>305</v>
       </c>
       <c r="C303" s="2" t="s">
-        <v>265</v>
+        <v>73</v>
       </c>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.25">
@@ -5375,10 +5376,10 @@
         <v>0.29097222222222224</v>
       </c>
       <c r="B304" t="s">
-        <v>52</v>
+        <v>145</v>
       </c>
       <c r="C304" s="2" t="s">
-        <v>265</v>
+        <v>73</v>
       </c>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.25">
@@ -5386,10 +5387,10 @@
         <v>0.29097222222222224</v>
       </c>
       <c r="B305" t="s">
-        <v>525</v>
+        <v>308</v>
       </c>
       <c r="C305" s="2" t="s">
-        <v>265</v>
+        <v>73</v>
       </c>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.25">
@@ -5397,10 +5398,10 @@
         <v>0.29097222222222224</v>
       </c>
       <c r="C306" s="2" t="s">
-        <v>266</v>
+        <v>74</v>
       </c>
       <c r="D306" t="s">
-        <v>337</v>
+        <v>484</v>
       </c>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.25">
@@ -5408,10 +5409,10 @@
         <v>0.29097222222222224</v>
       </c>
       <c r="C307" s="2" t="s">
-        <v>267</v>
+        <v>75</v>
       </c>
       <c r="D307" t="s">
-        <v>338</v>
+        <v>485</v>
       </c>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.25">
@@ -5419,10 +5420,10 @@
         <v>0.29097222222222224</v>
       </c>
       <c r="C308" s="2" t="s">
-        <v>268</v>
+        <v>76</v>
       </c>
       <c r="D308" t="s">
-        <v>339</v>
+        <v>486</v>
       </c>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.25">
@@ -5430,10 +5431,10 @@
         <v>0.28333333333333333</v>
       </c>
       <c r="C309" s="2" t="s">
-        <v>268</v>
+        <v>76</v>
       </c>
       <c r="D309" t="s">
-        <v>340</v>
+        <v>487</v>
       </c>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.25">
@@ -5441,10 +5442,10 @@
         <v>0.28333333333333333</v>
       </c>
       <c r="B310" t="s">
-        <v>341</v>
+        <v>263</v>
       </c>
       <c r="C310" s="2" t="s">
-        <v>269</v>
+        <v>77</v>
       </c>
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.25">
@@ -5452,10 +5453,10 @@
         <v>0.28333333333333333</v>
       </c>
       <c r="B311" t="s">
-        <v>342</v>
+        <v>264</v>
       </c>
       <c r="C311" s="2" t="s">
-        <v>270</v>
+        <v>78</v>
       </c>
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.25">
@@ -5463,10 +5464,10 @@
         <v>0.27569444444444446</v>
       </c>
       <c r="C312" s="2" t="s">
-        <v>270</v>
+        <v>78</v>
       </c>
       <c r="D312" t="s">
-        <v>343</v>
+        <v>488</v>
       </c>
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.25">
@@ -5474,10 +5475,10 @@
         <v>0.27430555555555558</v>
       </c>
       <c r="B313" t="s">
-        <v>74</v>
+        <v>146</v>
       </c>
       <c r="C313" s="2" t="s">
-        <v>270</v>
+        <v>78</v>
       </c>
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.25">
@@ -5485,10 +5486,10 @@
         <v>0.26805555555555555</v>
       </c>
       <c r="B314" t="s">
-        <v>344</v>
+        <v>265</v>
       </c>
       <c r="C314" s="2" t="s">
-        <v>270</v>
+        <v>78</v>
       </c>
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.25">
@@ -5496,10 +5497,10 @@
         <v>0.26666666666666666</v>
       </c>
       <c r="C315" s="2" t="s">
-        <v>270</v>
+        <v>78</v>
       </c>
       <c r="D315" t="s">
-        <v>345</v>
+        <v>506</v>
       </c>
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.25">
@@ -5507,10 +5508,10 @@
         <v>0.26180555555555557</v>
       </c>
       <c r="B316" t="s">
-        <v>346</v>
+        <v>318</v>
       </c>
       <c r="C316" s="2" t="s">
-        <v>270</v>
+        <v>78</v>
       </c>
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.25">
@@ -5518,10 +5519,10 @@
         <v>0.26180555555555557</v>
       </c>
       <c r="C317" s="2" t="s">
-        <v>270</v>
+        <v>78</v>
       </c>
       <c r="D317" t="s">
-        <v>347</v>
+        <v>453</v>
       </c>
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.25">
@@ -5529,10 +5530,10 @@
         <v>0.26180555555555557</v>
       </c>
       <c r="C318" s="2" t="s">
-        <v>270</v>
+        <v>78</v>
       </c>
       <c r="D318" t="s">
-        <v>55</v>
+        <v>148</v>
       </c>
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.25">
@@ -5540,10 +5541,10 @@
         <v>0.26180555555555557</v>
       </c>
       <c r="C319" s="2" t="s">
-        <v>270</v>
+        <v>78</v>
       </c>
       <c r="D319" t="s">
-        <v>348</v>
+        <v>525</v>
       </c>
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.25">
@@ -5551,10 +5552,10 @@
         <v>0.26180555555555557</v>
       </c>
       <c r="C320" s="2" t="s">
-        <v>271</v>
+        <v>79</v>
       </c>
       <c r="D320" t="s">
-        <v>349</v>
+        <v>454</v>
       </c>
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.25">
@@ -5562,10 +5563,10 @@
         <v>0.24861111111111112</v>
       </c>
       <c r="B321" t="s">
-        <v>344</v>
+        <v>265</v>
       </c>
       <c r="C321" s="2" t="s">
-        <v>271</v>
+        <v>79</v>
       </c>
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.25">
@@ -5573,10 +5574,10 @@
         <v>0.24722222222222223</v>
       </c>
       <c r="B322" t="s">
-        <v>350</v>
+        <v>219</v>
       </c>
       <c r="C322" s="2" t="s">
-        <v>271</v>
+        <v>79</v>
       </c>
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.25">
@@ -5584,10 +5585,10 @@
         <v>0.24513888888888888</v>
       </c>
       <c r="B323" t="s">
-        <v>351</v>
+        <v>220</v>
       </c>
       <c r="C323" s="2" t="s">
-        <v>272</v>
+        <v>80</v>
       </c>
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.25">
@@ -5595,10 +5596,10 @@
         <v>0.23541666666666666</v>
       </c>
       <c r="C324" s="2" t="s">
-        <v>272</v>
+        <v>80</v>
       </c>
       <c r="D324" t="s">
-        <v>352</v>
+        <v>526</v>
       </c>
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.25">
@@ -5606,10 +5607,10 @@
         <v>0.23402777777777778</v>
       </c>
       <c r="B325" t="s">
-        <v>353</v>
+        <v>221</v>
       </c>
       <c r="C325" s="2" t="s">
-        <v>272</v>
+        <v>80</v>
       </c>
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.25">
@@ -5617,10 +5618,10 @@
         <v>0.22847222222222222</v>
       </c>
       <c r="C326" s="2" t="s">
-        <v>272</v>
+        <v>80</v>
       </c>
       <c r="D326" t="s">
-        <v>57</v>
+        <v>537</v>
       </c>
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.25">
@@ -5628,10 +5629,10 @@
         <v>0.22222222222222221</v>
       </c>
       <c r="B327" t="s">
-        <v>354</v>
+        <v>222</v>
       </c>
       <c r="C327" s="2" t="s">
-        <v>273</v>
+        <v>81</v>
       </c>
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.25">
@@ -5639,10 +5640,10 @@
         <v>0.21249999999999999</v>
       </c>
       <c r="C328" s="2" t="s">
-        <v>274</v>
+        <v>82</v>
       </c>
       <c r="D328" t="s">
-        <v>355</v>
+        <v>507</v>
       </c>
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.25">
@@ -5650,10 +5651,10 @@
         <v>0.20347222222222222</v>
       </c>
       <c r="B329" t="s">
-        <v>356</v>
+        <v>223</v>
       </c>
       <c r="C329" s="2" t="s">
-        <v>274</v>
+        <v>82</v>
       </c>
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.25">
@@ -5661,10 +5662,10 @@
         <v>0.20347222222222222</v>
       </c>
       <c r="C330" s="2" t="s">
-        <v>274</v>
+        <v>82</v>
       </c>
       <c r="D330" t="s">
-        <v>357</v>
+        <v>378</v>
       </c>
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.25">
@@ -5672,10 +5673,10 @@
         <v>0.19583333333333333</v>
       </c>
       <c r="C331" s="2" t="s">
-        <v>275</v>
+        <v>83</v>
       </c>
       <c r="D331" t="s">
-        <v>358</v>
+        <v>527</v>
       </c>
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.25">
@@ -5683,10 +5684,10 @@
         <v>0.18194444444444444</v>
       </c>
       <c r="B332" t="s">
-        <v>26</v>
+        <v>174</v>
       </c>
       <c r="C332" s="2" t="s">
-        <v>275</v>
+        <v>83</v>
       </c>
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.25">
@@ -5694,10 +5695,10 @@
         <v>0.18055555555555555</v>
       </c>
       <c r="C333" s="2" t="s">
-        <v>275</v>
+        <v>83</v>
       </c>
       <c r="D333" t="s">
-        <v>359</v>
+        <v>508</v>
       </c>
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.25">
@@ -5705,10 +5706,10 @@
         <v>0.17847222222222223</v>
       </c>
       <c r="B334" t="s">
-        <v>360</v>
+        <v>319</v>
       </c>
       <c r="C334" s="2" t="s">
-        <v>275</v>
+        <v>83</v>
       </c>
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.25">
@@ -5716,10 +5717,10 @@
         <v>0.17847222222222223</v>
       </c>
       <c r="C335" s="2" t="s">
-        <v>276</v>
+        <v>84</v>
       </c>
       <c r="D335" t="s">
-        <v>361</v>
+        <v>548</v>
       </c>
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.25">
@@ -5727,10 +5728,10 @@
         <v>0.17847222222222223</v>
       </c>
       <c r="B336" t="s">
-        <v>66</v>
+        <v>322</v>
       </c>
       <c r="C336" s="2" t="s">
-        <v>276</v>
+        <v>84</v>
       </c>
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.25">
@@ -5738,10 +5739,10 @@
         <v>0.17847222222222223</v>
       </c>
       <c r="C337" s="2" t="s">
-        <v>277</v>
+        <v>85</v>
       </c>
       <c r="D337" t="s">
-        <v>362</v>
+        <v>549</v>
       </c>
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.25">
@@ -5749,10 +5750,10 @@
         <v>0.16041666666666668</v>
       </c>
       <c r="B338" t="s">
-        <v>363</v>
+        <v>266</v>
       </c>
       <c r="C338" s="2" t="s">
-        <v>278</v>
+        <v>86</v>
       </c>
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.25">
@@ -5760,10 +5761,10 @@
         <v>0.15069444444444444</v>
       </c>
       <c r="B339" t="s">
-        <v>364</v>
+        <v>320</v>
       </c>
       <c r="C339" s="2" t="s">
-        <v>278</v>
+        <v>86</v>
       </c>
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.25">
@@ -5771,10 +5772,10 @@
         <v>0.15069444444444444</v>
       </c>
       <c r="C340" s="2" t="s">
-        <v>279</v>
+        <v>87</v>
       </c>
       <c r="D340" t="s">
-        <v>365</v>
+        <v>427</v>
       </c>
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.25">
@@ -5782,10 +5783,10 @@
         <v>0.15069444444444444</v>
       </c>
       <c r="B341" t="s">
-        <v>366</v>
+        <v>321</v>
       </c>
       <c r="C341" s="2" t="s">
-        <v>279</v>
+        <v>87</v>
       </c>
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.25">
@@ -5793,10 +5794,10 @@
         <v>0.15069444444444444</v>
       </c>
       <c r="C342" s="2" t="s">
-        <v>280</v>
+        <v>88</v>
       </c>
       <c r="D342" t="s">
-        <v>367</v>
+        <v>428</v>
       </c>
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.25">
@@ -5804,10 +5805,10 @@
         <v>0.14305555555555555</v>
       </c>
       <c r="B343" t="s">
-        <v>368</v>
+        <v>327</v>
       </c>
       <c r="C343" s="2" t="s">
-        <v>281</v>
+        <v>89</v>
       </c>
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.25">
@@ -5815,10 +5816,10 @@
         <v>0.13402777777777777</v>
       </c>
       <c r="C344" s="2" t="s">
-        <v>282</v>
+        <v>90</v>
       </c>
       <c r="D344" t="s">
-        <v>369</v>
+        <v>550</v>
       </c>
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.25">
@@ -5826,10 +5827,10 @@
         <v>0.125</v>
       </c>
       <c r="B345" t="s">
-        <v>370</v>
+        <v>328</v>
       </c>
       <c r="C345" s="2" t="s">
-        <v>283</v>
+        <v>91</v>
       </c>
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.25">
@@ -5837,10 +5838,10 @@
         <v>0.125</v>
       </c>
       <c r="C346" s="2" t="s">
-        <v>283</v>
+        <v>91</v>
       </c>
       <c r="D346" t="s">
-        <v>371</v>
+        <v>379</v>
       </c>
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.25">
@@ -5848,10 +5849,10 @@
         <v>0.125</v>
       </c>
       <c r="B347" t="s">
-        <v>372</v>
+        <v>351</v>
       </c>
       <c r="C347" s="2" t="s">
-        <v>283</v>
+        <v>91</v>
       </c>
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.25">
@@ -5859,10 +5860,10 @@
         <v>0.125</v>
       </c>
       <c r="B348" t="s">
-        <v>540</v>
+        <v>192</v>
       </c>
       <c r="C348" s="2" t="s">
-        <v>283</v>
+        <v>91</v>
       </c>
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.25">
@@ -5870,10 +5871,10 @@
         <v>0.125</v>
       </c>
       <c r="C349" s="2" t="s">
-        <v>283</v>
+        <v>91</v>
       </c>
       <c r="D349" t="s">
-        <v>94</v>
+        <v>441</v>
       </c>
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.25">
@@ -5881,10 +5882,10 @@
         <v>0.125</v>
       </c>
       <c r="B350" t="s">
-        <v>373</v>
+        <v>267</v>
       </c>
       <c r="C350" s="2" t="s">
-        <v>284</v>
+        <v>92</v>
       </c>
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.25">
@@ -5892,10 +5893,10 @@
         <v>0.11319444444444444</v>
       </c>
       <c r="C351" s="2" t="s">
-        <v>284</v>
+        <v>92</v>
       </c>
       <c r="D351" t="s">
-        <v>374</v>
+        <v>455</v>
       </c>
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.25">
@@ -5903,10 +5904,10 @@
         <v>0.10694444444444444</v>
       </c>
       <c r="B352" t="s">
-        <v>375</v>
+        <v>268</v>
       </c>
       <c r="C352" s="2" t="s">
-        <v>284</v>
+        <v>92</v>
       </c>
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.25">
@@ -5914,10 +5915,10 @@
         <v>0.10555555555555556</v>
       </c>
       <c r="B353" t="s">
-        <v>218</v>
+        <v>60</v>
       </c>
       <c r="C353" s="2" t="s">
-        <v>284</v>
+        <v>92</v>
       </c>
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.25">
@@ -5925,10 +5926,10 @@
         <v>0.10416666666666667</v>
       </c>
       <c r="C354" s="2" t="s">
-        <v>284</v>
+        <v>92</v>
       </c>
       <c r="D354" t="s">
-        <v>376</v>
+        <v>456</v>
       </c>
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.25">
@@ -5936,10 +5937,10 @@
         <v>0.10416666666666667</v>
       </c>
       <c r="B355" t="s">
-        <v>377</v>
+        <v>329</v>
       </c>
       <c r="C355" s="2" t="s">
-        <v>284</v>
+        <v>92</v>
       </c>
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.25">
@@ -5947,10 +5948,10 @@
         <v>0.10416666666666667</v>
       </c>
       <c r="C356" s="2" t="s">
-        <v>284</v>
+        <v>92</v>
       </c>
       <c r="D356" t="s">
-        <v>93</v>
+        <v>149</v>
       </c>
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.25">
@@ -5958,10 +5959,10 @@
         <v>0.10416666666666667</v>
       </c>
       <c r="C357" s="2" t="s">
-        <v>285</v>
+        <v>93</v>
       </c>
       <c r="D357" t="s">
-        <v>378</v>
+        <v>509</v>
       </c>
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.25">
@@ -5969,10 +5970,10 @@
         <v>0.10416666666666667</v>
       </c>
       <c r="C358" s="2" t="s">
-        <v>286</v>
+        <v>94</v>
       </c>
       <c r="D358" t="s">
-        <v>379</v>
+        <v>510</v>
       </c>
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.25">
@@ -5980,10 +5981,10 @@
         <v>9.3055555555555558E-2</v>
       </c>
       <c r="B359" t="s">
-        <v>380</v>
+        <v>269</v>
       </c>
       <c r="C359" s="2" t="s">
-        <v>287</v>
+        <v>95</v>
       </c>
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.25">
@@ -5991,10 +5992,10 @@
         <v>7.7083333333333337E-2</v>
       </c>
       <c r="C360" s="2" t="s">
-        <v>288</v>
+        <v>96</v>
       </c>
       <c r="D360" t="s">
-        <v>381</v>
+        <v>457</v>
       </c>
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.25">
@@ -6002,10 +6003,10 @@
         <v>7.3611111111111113E-2</v>
       </c>
       <c r="B361" t="s">
-        <v>541</v>
+        <v>352</v>
       </c>
       <c r="C361" s="2" t="s">
-        <v>289</v>
+        <v>97</v>
       </c>
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.25">
@@ -6013,10 +6014,10 @@
         <v>5.486111111111111E-2</v>
       </c>
       <c r="C362" s="2" t="s">
-        <v>290</v>
+        <v>98</v>
       </c>
       <c r="D362" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.25">
@@ -6024,10 +6025,10 @@
         <v>4.0972222222222222E-2</v>
       </c>
       <c r="B363" t="s">
-        <v>383</v>
+        <v>270</v>
       </c>
       <c r="C363" s="2" t="s">
-        <v>290</v>
+        <v>98</v>
       </c>
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.25">
@@ -6035,10 +6036,10 @@
         <v>3.9583333333333331E-2</v>
       </c>
       <c r="C364" s="2" t="s">
-        <v>290</v>
+        <v>98</v>
       </c>
       <c r="D364" t="s">
-        <v>384</v>
+        <v>528</v>
       </c>
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.25">
@@ -6046,10 +6047,10 @@
         <v>3.6111111111111108E-2</v>
       </c>
       <c r="C365" s="2" t="s">
-        <v>290</v>
+        <v>98</v>
       </c>
       <c r="D365" t="s">
-        <v>207</v>
+        <v>501</v>
       </c>
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.25">
@@ -6057,10 +6058,10 @@
         <v>3.4027777777777775E-2</v>
       </c>
       <c r="C366" s="2" t="s">
-        <v>290</v>
+        <v>98</v>
       </c>
       <c r="D366" t="s">
-        <v>385</v>
+        <v>458</v>
       </c>
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.25">
@@ -6068,10 +6069,10 @@
         <v>3.4027777777777775E-2</v>
       </c>
       <c r="B367" t="s">
-        <v>386</v>
+        <v>353</v>
       </c>
       <c r="C367" s="2" t="s">
-        <v>290</v>
+        <v>98</v>
       </c>
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.25">
@@ -6079,10 +6080,10 @@
         <v>3.4027777777777775E-2</v>
       </c>
       <c r="C368" s="2" t="s">
-        <v>291</v>
+        <v>99</v>
       </c>
       <c r="D368" t="s">
-        <v>387</v>
+        <v>459</v>
       </c>
     </row>
     <row r="369" spans="1:4" x14ac:dyDescent="0.25">
@@ -6090,10 +6091,10 @@
         <v>3.4027777777777775E-2</v>
       </c>
       <c r="C369" s="2" t="s">
-        <v>291</v>
+        <v>99</v>
       </c>
       <c r="D369" t="s">
-        <v>388</v>
+        <v>460</v>
       </c>
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.25">
@@ -6101,10 +6102,10 @@
         <v>3.1944444444444442E-2</v>
       </c>
       <c r="B370" t="s">
-        <v>389</v>
+        <v>271</v>
       </c>
       <c r="C370" s="2" t="s">
-        <v>291</v>
+        <v>99</v>
       </c>
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.25">
@@ -6112,10 +6113,10 @@
         <v>2.013888888888889E-2</v>
       </c>
       <c r="B371" t="s">
-        <v>390</v>
+        <v>330</v>
       </c>
       <c r="C371" s="2" t="s">
-        <v>291</v>
+        <v>99</v>
       </c>
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.25">
@@ -6123,10 +6124,10 @@
         <v>2.013888888888889E-2</v>
       </c>
       <c r="C372" s="2" t="s">
-        <v>291</v>
+        <v>99</v>
       </c>
       <c r="D372" t="s">
-        <v>391</v>
+        <v>511</v>
       </c>
     </row>
     <row r="373" spans="1:4" x14ac:dyDescent="0.25">
@@ -6134,10 +6135,10 @@
         <v>1.6666666666666666E-2</v>
       </c>
       <c r="C373" s="2" t="s">
-        <v>291</v>
+        <v>99</v>
       </c>
       <c r="D373" t="s">
-        <v>392</v>
+        <v>529</v>
       </c>
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.25">
@@ -6145,10 +6146,10 @@
         <v>1.6666666666666666E-2</v>
       </c>
       <c r="B374" t="s">
-        <v>393</v>
+        <v>103</v>
       </c>
       <c r="C374" s="2" t="s">
-        <v>291</v>
+        <v>99</v>
       </c>
     </row>
     <row r="375" spans="1:4" x14ac:dyDescent="0.25">
@@ -6156,10 +6157,10 @@
         <v>1.4583333333333334E-2</v>
       </c>
       <c r="B375" t="s">
-        <v>394</v>
+        <v>104</v>
       </c>
       <c r="C375" s="2" t="s">
-        <v>291</v>
+        <v>99</v>
       </c>
     </row>
     <row r="376" spans="1:4" x14ac:dyDescent="0.25">
@@ -6167,10 +6168,10 @@
         <v>1.4583333333333334E-2</v>
       </c>
       <c r="C376" s="2" t="s">
-        <v>291</v>
+        <v>99</v>
       </c>
       <c r="D376" t="s">
-        <v>395</v>
+        <v>512</v>
       </c>
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.25">
@@ -6178,10 +6179,10 @@
         <v>1.0416666666666666E-2</v>
       </c>
       <c r="C377" s="2" t="s">
-        <v>291</v>
+        <v>99</v>
       </c>
       <c r="D377" t="s">
-        <v>396</v>
+        <v>551</v>
       </c>
     </row>
     <row r="378" spans="1:4" x14ac:dyDescent="0.25">
@@ -6189,10 +6190,10 @@
         <v>9.0277777777777769E-3</v>
       </c>
       <c r="C378" s="2" t="s">
-        <v>291</v>
+        <v>99</v>
       </c>
       <c r="D378" t="s">
-        <v>397</v>
+        <v>552</v>
       </c>
     </row>
     <row r="379" spans="1:4" x14ac:dyDescent="0.25">
@@ -6200,10 +6201,10 @@
         <v>9.0277777777777769E-3</v>
       </c>
       <c r="C379" s="2" t="s">
-        <v>292</v>
+        <v>100</v>
       </c>
       <c r="D379" t="s">
-        <v>398</v>
+        <v>553</v>
       </c>
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.25">
@@ -6211,10 +6212,10 @@
         <v>6.9444444444444447E-4</v>
       </c>
       <c r="B380" t="s">
-        <v>399</v>
+        <v>272</v>
       </c>
       <c r="C380" s="2" t="s">
-        <v>292</v>
+        <v>100</v>
       </c>
     </row>
     <row r="381" spans="1:4" x14ac:dyDescent="0.25">
@@ -6222,10 +6223,10 @@
         <v>0</v>
       </c>
       <c r="B381" t="s">
-        <v>74</v>
+        <v>146</v>
       </c>
       <c r="C381" s="2" t="s">
-        <v>292</v>
+        <v>100</v>
       </c>
     </row>
     <row r="382" spans="1:4" x14ac:dyDescent="0.25">
@@ -6233,12 +6234,12 @@
         <v>0</v>
       </c>
       <c r="B382" t="s">
-        <v>400</v>
+        <v>105</v>
       </c>
     </row>
     <row r="383" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
-        <v>434</v>
+        <v>139</v>
       </c>
     </row>
     <row r="384" spans="1:4" x14ac:dyDescent="0.25">
@@ -6246,13 +6247,13 @@
         <v>0</v>
       </c>
       <c r="B384" t="s">
+        <v>144</v>
+      </c>
+      <c r="C384" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C384" s="2" t="s">
-        <v>2</v>
-      </c>
       <c r="D384" t="s">
-        <v>3</v>
+        <v>143</v>
       </c>
     </row>
     <row r="385" spans="1:4" x14ac:dyDescent="0.25">
@@ -6260,7 +6261,7 @@
         <v>0.5</v>
       </c>
       <c r="B385" t="s">
-        <v>435</v>
+        <v>140</v>
       </c>
     </row>
     <row r="386" spans="1:4" x14ac:dyDescent="0.25">
@@ -6268,10 +6269,10 @@
         <v>0.49166666666666664</v>
       </c>
       <c r="B386" t="s">
-        <v>436</v>
+        <v>354</v>
       </c>
       <c r="C386" s="2" t="s">
-        <v>292</v>
+        <v>100</v>
       </c>
     </row>
     <row r="387" spans="1:4" x14ac:dyDescent="0.25">
@@ -6279,10 +6280,10 @@
         <v>0.49166666666666664</v>
       </c>
       <c r="C387" s="2" t="s">
-        <v>401</v>
+        <v>106</v>
       </c>
       <c r="D387" t="s">
-        <v>437</v>
+        <v>554</v>
       </c>
     </row>
     <row r="388" spans="1:4" x14ac:dyDescent="0.25">
@@ -6290,10 +6291,10 @@
         <v>0.49166666666666664</v>
       </c>
       <c r="C388" s="2" t="s">
-        <v>402</v>
+        <v>107</v>
       </c>
       <c r="D388" t="s">
-        <v>438</v>
+        <v>555</v>
       </c>
     </row>
     <row r="389" spans="1:4" x14ac:dyDescent="0.25">
@@ -6301,10 +6302,10 @@
         <v>0.48194444444444445</v>
       </c>
       <c r="B389" t="s">
-        <v>542</v>
+        <v>164</v>
       </c>
       <c r="C389" s="2" t="s">
-        <v>403</v>
+        <v>108</v>
       </c>
     </row>
     <row r="390" spans="1:4" x14ac:dyDescent="0.25">
@@ -6312,10 +6313,10 @@
         <v>0.48194444444444445</v>
       </c>
       <c r="C390" s="2" t="s">
-        <v>403</v>
+        <v>108</v>
       </c>
       <c r="D390" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
     </row>
     <row r="391" spans="1:4" x14ac:dyDescent="0.25">
@@ -6323,10 +6324,10 @@
         <v>0.48194444444444445</v>
       </c>
       <c r="B391" t="s">
-        <v>543</v>
+        <v>165</v>
       </c>
       <c r="C391" s="2" t="s">
-        <v>404</v>
+        <v>109</v>
       </c>
     </row>
     <row r="392" spans="1:4" x14ac:dyDescent="0.25">
@@ -6334,10 +6335,10 @@
         <v>0.47152777777777777</v>
       </c>
       <c r="C392" s="2" t="s">
-        <v>404</v>
+        <v>109</v>
       </c>
       <c r="D392" t="s">
-        <v>81</v>
+        <v>394</v>
       </c>
     </row>
     <row r="393" spans="1:4" x14ac:dyDescent="0.25">
@@ -6345,10 +6346,10 @@
         <v>0.47152777777777777</v>
       </c>
       <c r="C393" s="2" t="s">
-        <v>404</v>
+        <v>109</v>
       </c>
       <c r="D393" t="s">
-        <v>55</v>
+        <v>148</v>
       </c>
     </row>
     <row r="394" spans="1:4" x14ac:dyDescent="0.25">
@@ -6356,10 +6357,10 @@
         <v>0.47152777777777777</v>
       </c>
       <c r="B394" t="s">
-        <v>440</v>
+        <v>355</v>
       </c>
       <c r="C394" s="2" t="s">
-        <v>404</v>
+        <v>109</v>
       </c>
     </row>
     <row r="395" spans="1:4" x14ac:dyDescent="0.25">
@@ -6367,10 +6368,10 @@
         <v>0.46666666666666667</v>
       </c>
       <c r="C395" s="2" t="s">
-        <v>405</v>
+        <v>110</v>
       </c>
       <c r="D395" t="s">
-        <v>441</v>
+        <v>489</v>
       </c>
     </row>
     <row r="396" spans="1:4" x14ac:dyDescent="0.25">
@@ -6378,10 +6379,10 @@
         <v>0.44861111111111113</v>
       </c>
       <c r="B396" t="s">
-        <v>544</v>
+        <v>166</v>
       </c>
       <c r="C396" s="2" t="s">
-        <v>405</v>
+        <v>110</v>
       </c>
     </row>
     <row r="397" spans="1:4" x14ac:dyDescent="0.25">
@@ -6389,10 +6390,10 @@
         <v>0.4465277777777778</v>
       </c>
       <c r="C397" s="2" t="s">
-        <v>405</v>
+        <v>110</v>
       </c>
       <c r="D397" t="s">
-        <v>442</v>
+        <v>430</v>
       </c>
     </row>
     <row r="398" spans="1:4" x14ac:dyDescent="0.25">
@@ -6400,10 +6401,10 @@
         <v>0.44305555555555554</v>
       </c>
       <c r="C398" s="2" t="s">
-        <v>406</v>
+        <v>111</v>
       </c>
       <c r="D398" t="s">
-        <v>443</v>
+        <v>556</v>
       </c>
     </row>
     <row r="399" spans="1:4" x14ac:dyDescent="0.25">
@@ -6411,10 +6412,10 @@
         <v>0.43819444444444444</v>
       </c>
       <c r="B399" t="s">
-        <v>52</v>
+        <v>145</v>
       </c>
       <c r="C399" s="2" t="s">
-        <v>406</v>
+        <v>111</v>
       </c>
     </row>
     <row r="400" spans="1:4" x14ac:dyDescent="0.25">
@@ -6422,10 +6423,10 @@
         <v>0.43819444444444444</v>
       </c>
       <c r="B400" t="s">
-        <v>444</v>
+        <v>224</v>
       </c>
       <c r="C400" s="2" t="s">
-        <v>406</v>
+        <v>111</v>
       </c>
     </row>
     <row r="401" spans="1:4" x14ac:dyDescent="0.25">
@@ -6433,10 +6434,10 @@
         <v>0.42777777777777776</v>
       </c>
       <c r="B401" t="s">
-        <v>45</v>
+        <v>200</v>
       </c>
       <c r="C401" s="2" t="s">
-        <v>406</v>
+        <v>111</v>
       </c>
     </row>
     <row r="402" spans="1:4" x14ac:dyDescent="0.25">
@@ -6444,10 +6445,10 @@
         <v>0.42569444444444443</v>
       </c>
       <c r="C402" s="2" t="s">
-        <v>406</v>
+        <v>111</v>
       </c>
       <c r="D402" t="s">
-        <v>445</v>
+        <v>403</v>
       </c>
     </row>
     <row r="403" spans="1:4" x14ac:dyDescent="0.25">
@@ -6455,10 +6456,10 @@
         <v>0.41944444444444445</v>
       </c>
       <c r="B403" t="s">
-        <v>446</v>
+        <v>225</v>
       </c>
       <c r="C403" s="2" t="s">
-        <v>406</v>
+        <v>111</v>
       </c>
     </row>
     <row r="404" spans="1:4" x14ac:dyDescent="0.25">
@@ -6466,10 +6467,10 @@
         <v>0.4152777777777778</v>
       </c>
       <c r="C404" s="2" t="s">
-        <v>406</v>
+        <v>111</v>
       </c>
       <c r="D404" t="s">
-        <v>447</v>
+        <v>490</v>
       </c>
     </row>
     <row r="405" spans="1:4" x14ac:dyDescent="0.25">
@@ -6477,10 +6478,10 @@
         <v>0.41319444444444442</v>
       </c>
       <c r="C405" s="2" t="s">
-        <v>406</v>
+        <v>111</v>
       </c>
       <c r="D405" t="s">
-        <v>448</v>
+        <v>431</v>
       </c>
     </row>
     <row r="406" spans="1:4" x14ac:dyDescent="0.25">
@@ -6488,10 +6489,10 @@
         <v>0.40902777777777777</v>
       </c>
       <c r="C406" s="2" t="s">
-        <v>406</v>
+        <v>111</v>
       </c>
       <c r="D406" t="s">
-        <v>449</v>
+        <v>404</v>
       </c>
     </row>
     <row r="407" spans="1:4" x14ac:dyDescent="0.25">
@@ -6499,10 +6500,10 @@
         <v>0.40277777777777779</v>
       </c>
       <c r="C407" s="2" t="s">
-        <v>406</v>
+        <v>111</v>
       </c>
       <c r="D407" t="s">
-        <v>450</v>
+        <v>405</v>
       </c>
     </row>
     <row r="408" spans="1:4" x14ac:dyDescent="0.25">
@@ -6510,10 +6511,10 @@
         <v>0.40277777777777779</v>
       </c>
       <c r="C408" s="2" t="s">
-        <v>406</v>
+        <v>111</v>
       </c>
       <c r="D408" t="s">
-        <v>190</v>
+        <v>398</v>
       </c>
     </row>
     <row r="409" spans="1:4" x14ac:dyDescent="0.25">
@@ -6521,10 +6522,10 @@
         <v>0.40277777777777779</v>
       </c>
       <c r="C409" s="2" t="s">
-        <v>406</v>
+        <v>111</v>
       </c>
       <c r="D409" t="s">
-        <v>451</v>
+        <v>530</v>
       </c>
     </row>
     <row r="410" spans="1:4" x14ac:dyDescent="0.25">
@@ -6532,10 +6533,10 @@
         <v>0.3972222222222222</v>
       </c>
       <c r="B410" t="s">
-        <v>452</v>
+        <v>306</v>
       </c>
       <c r="C410" s="2" t="s">
-        <v>407</v>
+        <v>112</v>
       </c>
     </row>
     <row r="411" spans="1:4" x14ac:dyDescent="0.25">
@@ -6543,10 +6544,10 @@
         <v>0.38680555555555557</v>
       </c>
       <c r="C411" s="2" t="s">
-        <v>407</v>
+        <v>112</v>
       </c>
       <c r="D411" t="s">
-        <v>299</v>
+        <v>481</v>
       </c>
     </row>
     <row r="412" spans="1:4" x14ac:dyDescent="0.25">
@@ -6554,10 +6555,10 @@
         <v>0.38541666666666669</v>
       </c>
       <c r="B412" t="s">
-        <v>453</v>
+        <v>226</v>
       </c>
       <c r="C412" s="2" t="s">
-        <v>407</v>
+        <v>112</v>
       </c>
     </row>
     <row r="413" spans="1:4" x14ac:dyDescent="0.25">
@@ -6565,10 +6566,10 @@
         <v>0.38263888888888886</v>
       </c>
       <c r="B413" t="s">
-        <v>545</v>
+        <v>307</v>
       </c>
       <c r="C413" s="2" t="s">
-        <v>408</v>
+        <v>113</v>
       </c>
     </row>
     <row r="414" spans="1:4" x14ac:dyDescent="0.25">
@@ -6576,10 +6577,10 @@
         <v>0.36875000000000002</v>
       </c>
       <c r="C414" s="2" t="s">
-        <v>408</v>
+        <v>113</v>
       </c>
       <c r="D414" t="s">
-        <v>299</v>
+        <v>481</v>
       </c>
     </row>
     <row r="415" spans="1:4" x14ac:dyDescent="0.25">
@@ -6587,10 +6588,10 @@
         <v>0.36875000000000002</v>
       </c>
       <c r="B415" t="s">
-        <v>517</v>
+        <v>356</v>
       </c>
       <c r="C415" s="2" t="s">
-        <v>408</v>
+        <v>113</v>
       </c>
     </row>
     <row r="416" spans="1:4" x14ac:dyDescent="0.25">
@@ -6598,10 +6599,10 @@
         <v>0.36875000000000002</v>
       </c>
       <c r="B416" t="s">
-        <v>74</v>
+        <v>146</v>
       </c>
       <c r="C416" s="2" t="s">
-        <v>408</v>
+        <v>113</v>
       </c>
     </row>
     <row r="417" spans="1:4" x14ac:dyDescent="0.25">
@@ -6609,10 +6610,10 @@
         <v>0.36875000000000002</v>
       </c>
       <c r="C417" s="2" t="s">
-        <v>408</v>
+        <v>113</v>
       </c>
       <c r="D417" t="s">
-        <v>454</v>
+        <v>432</v>
       </c>
     </row>
     <row r="418" spans="1:4" x14ac:dyDescent="0.25">
@@ -6620,10 +6621,10 @@
         <v>0.36249999999999999</v>
       </c>
       <c r="C418" s="2" t="s">
-        <v>408</v>
+        <v>113</v>
       </c>
       <c r="D418" t="s">
-        <v>455</v>
+        <v>513</v>
       </c>
     </row>
     <row r="419" spans="1:4" x14ac:dyDescent="0.25">
@@ -6631,10 +6632,10 @@
         <v>0.35902777777777778</v>
       </c>
       <c r="B419" t="s">
-        <v>456</v>
+        <v>357</v>
       </c>
       <c r="C419" s="2" t="s">
-        <v>409</v>
+        <v>114</v>
       </c>
     </row>
     <row r="420" spans="1:4" x14ac:dyDescent="0.25">
@@ -6642,10 +6643,10 @@
         <v>0.35833333333333334</v>
       </c>
       <c r="C420" s="2" t="s">
-        <v>409</v>
+        <v>114</v>
       </c>
       <c r="D420" t="s">
-        <v>93</v>
+        <v>149</v>
       </c>
     </row>
     <row r="421" spans="1:4" x14ac:dyDescent="0.25">
@@ -6653,10 +6654,10 @@
         <v>0.35833333333333334</v>
       </c>
       <c r="C421" s="2" t="s">
-        <v>409</v>
+        <v>114</v>
       </c>
       <c r="D421" t="s">
-        <v>457</v>
+        <v>491</v>
       </c>
     </row>
     <row r="422" spans="1:4" x14ac:dyDescent="0.25">
@@ -6664,10 +6665,10 @@
         <v>0.35833333333333334</v>
       </c>
       <c r="C422" s="2" t="s">
-        <v>409</v>
+        <v>114</v>
       </c>
       <c r="D422" t="s">
-        <v>458</v>
+        <v>531</v>
       </c>
     </row>
     <row r="423" spans="1:4" x14ac:dyDescent="0.25">
@@ -6675,10 +6676,10 @@
         <v>0.34722222222222221</v>
       </c>
       <c r="C423" s="2" t="s">
-        <v>410</v>
+        <v>115</v>
       </c>
       <c r="D423" t="s">
-        <v>459</v>
+        <v>381</v>
       </c>
     </row>
     <row r="424" spans="1:4" x14ac:dyDescent="0.25">
@@ -6686,10 +6687,10 @@
         <v>0.32777777777777778</v>
       </c>
       <c r="B424" t="s">
-        <v>26</v>
+        <v>174</v>
       </c>
       <c r="C424" s="2" t="s">
-        <v>410</v>
+        <v>115</v>
       </c>
     </row>
     <row r="425" spans="1:4" x14ac:dyDescent="0.25">
@@ -6697,10 +6698,10 @@
         <v>0.32569444444444445</v>
       </c>
       <c r="C425" s="2" t="s">
-        <v>410</v>
+        <v>115</v>
       </c>
       <c r="D425" t="s">
-        <v>460</v>
+        <v>382</v>
       </c>
     </row>
     <row r="426" spans="1:4" x14ac:dyDescent="0.25">
@@ -6708,10 +6709,10 @@
         <v>0.3125</v>
       </c>
       <c r="C426" s="2" t="s">
-        <v>410</v>
+        <v>115</v>
       </c>
       <c r="D426" t="s">
-        <v>461</v>
+        <v>383</v>
       </c>
     </row>
     <row r="427" spans="1:4" x14ac:dyDescent="0.25">
@@ -6719,10 +6720,10 @@
         <v>0.31041666666666667</v>
       </c>
       <c r="C427" s="2" t="s">
-        <v>410</v>
+        <v>115</v>
       </c>
       <c r="D427" t="s">
-        <v>462</v>
+        <v>532</v>
       </c>
     </row>
     <row r="428" spans="1:4" x14ac:dyDescent="0.25">
@@ -6730,10 +6731,10 @@
         <v>0.30902777777777779</v>
       </c>
       <c r="C428" s="2" t="s">
-        <v>410</v>
+        <v>115</v>
       </c>
       <c r="D428" t="s">
-        <v>18</v>
+        <v>358</v>
       </c>
     </row>
     <row r="429" spans="1:4" x14ac:dyDescent="0.25">
@@ -6741,10 +6742,10 @@
         <v>0.30694444444444446</v>
       </c>
       <c r="B429" t="s">
-        <v>463</v>
+        <v>227</v>
       </c>
       <c r="C429" s="2" t="s">
-        <v>410</v>
+        <v>115</v>
       </c>
     </row>
     <row r="430" spans="1:4" x14ac:dyDescent="0.25">
@@ -6752,10 +6753,10 @@
         <v>0.29791666666666666</v>
       </c>
       <c r="C430" s="2" t="s">
-        <v>410</v>
+        <v>115</v>
       </c>
       <c r="D430" t="s">
-        <v>464</v>
+        <v>557</v>
       </c>
     </row>
     <row r="431" spans="1:4" x14ac:dyDescent="0.25">
@@ -6763,10 +6764,10 @@
         <v>0.29791666666666666</v>
       </c>
       <c r="B431" t="s">
-        <v>465</v>
+        <v>193</v>
       </c>
       <c r="C431" s="2" t="s">
-        <v>410</v>
+        <v>115</v>
       </c>
     </row>
     <row r="432" spans="1:4" x14ac:dyDescent="0.25">
@@ -6774,10 +6775,10 @@
         <v>0.29791666666666666</v>
       </c>
       <c r="B432" t="s">
-        <v>74</v>
+        <v>146</v>
       </c>
       <c r="C432" s="2" t="s">
-        <v>410</v>
+        <v>115</v>
       </c>
     </row>
     <row r="433" spans="1:4" x14ac:dyDescent="0.25">
@@ -6785,10 +6786,10 @@
         <v>0.29791666666666666</v>
       </c>
       <c r="B433" t="s">
-        <v>187</v>
+        <v>350</v>
       </c>
       <c r="C433" s="2" t="s">
-        <v>410</v>
+        <v>115</v>
       </c>
     </row>
     <row r="434" spans="1:4" x14ac:dyDescent="0.25">
@@ -6796,10 +6797,10 @@
         <v>0.29791666666666666</v>
       </c>
       <c r="B434" t="s">
-        <v>546</v>
+        <v>331</v>
       </c>
       <c r="C434" s="2" t="s">
-        <v>410</v>
+        <v>115</v>
       </c>
     </row>
     <row r="435" spans="1:4" x14ac:dyDescent="0.25">
@@ -6807,10 +6808,10 @@
         <v>0.29791666666666666</v>
       </c>
       <c r="B435" t="s">
-        <v>466</v>
+        <v>194</v>
       </c>
       <c r="C435" s="2" t="s">
-        <v>411</v>
+        <v>116</v>
       </c>
     </row>
     <row r="436" spans="1:4" x14ac:dyDescent="0.25">
@@ -6818,10 +6819,10 @@
         <v>0.28611111111111109</v>
       </c>
       <c r="C436" s="2" t="s">
-        <v>411</v>
+        <v>116</v>
       </c>
       <c r="D436" t="s">
-        <v>467</v>
+        <v>384</v>
       </c>
     </row>
     <row r="437" spans="1:4" x14ac:dyDescent="0.25">
@@ -6829,10 +6830,10 @@
         <v>0.28611111111111109</v>
       </c>
       <c r="B437" t="s">
-        <v>468</v>
+        <v>273</v>
       </c>
       <c r="C437" s="2" t="s">
-        <v>411</v>
+        <v>116</v>
       </c>
     </row>
     <row r="438" spans="1:4" x14ac:dyDescent="0.25">
@@ -6840,10 +6841,10 @@
         <v>0.28611111111111109</v>
       </c>
       <c r="C438" s="2" t="s">
-        <v>411</v>
+        <v>116</v>
       </c>
       <c r="D438" t="s">
-        <v>469</v>
+        <v>461</v>
       </c>
     </row>
     <row r="439" spans="1:4" x14ac:dyDescent="0.25">
@@ -6851,10 +6852,10 @@
         <v>0.28611111111111109</v>
       </c>
       <c r="B439" t="s">
-        <v>470</v>
+        <v>274</v>
       </c>
       <c r="C439" s="2" t="s">
-        <v>412</v>
+        <v>117</v>
       </c>
     </row>
     <row r="440" spans="1:4" x14ac:dyDescent="0.25">
@@ -6862,10 +6863,10 @@
         <v>0.28611111111111109</v>
       </c>
       <c r="B440" t="s">
-        <v>308</v>
+        <v>257</v>
       </c>
       <c r="C440" s="2" t="s">
-        <v>412</v>
+        <v>117</v>
       </c>
     </row>
     <row r="441" spans="1:4" x14ac:dyDescent="0.25">
@@ -6873,10 +6874,10 @@
         <v>0.28472222222222221</v>
       </c>
       <c r="C441" s="2" t="s">
-        <v>412</v>
+        <v>117</v>
       </c>
       <c r="D441" t="s">
-        <v>471</v>
+        <v>462</v>
       </c>
     </row>
     <row r="442" spans="1:4" x14ac:dyDescent="0.25">
@@ -6884,10 +6885,10 @@
         <v>0.27500000000000002</v>
       </c>
       <c r="C442" s="2" t="s">
-        <v>412</v>
+        <v>117</v>
       </c>
       <c r="D442" t="s">
-        <v>63</v>
+        <v>493</v>
       </c>
     </row>
     <row r="443" spans="1:4" x14ac:dyDescent="0.25">
@@ -6895,10 +6896,10 @@
         <v>0.27500000000000002</v>
       </c>
       <c r="B443" t="s">
-        <v>472</v>
+        <v>275</v>
       </c>
       <c r="C443" s="2" t="s">
-        <v>412</v>
+        <v>117</v>
       </c>
     </row>
     <row r="444" spans="1:4" x14ac:dyDescent="0.25">
@@ -6906,10 +6907,10 @@
         <v>0.27500000000000002</v>
       </c>
       <c r="C444" s="2" t="s">
-        <v>412</v>
+        <v>117</v>
       </c>
       <c r="D444" t="s">
-        <v>55</v>
+        <v>148</v>
       </c>
     </row>
     <row r="445" spans="1:4" x14ac:dyDescent="0.25">
@@ -6917,10 +6918,10 @@
         <v>0.27013888888888887</v>
       </c>
       <c r="C445" s="2" t="s">
-        <v>413</v>
+        <v>118</v>
       </c>
       <c r="D445" t="s">
-        <v>473</v>
+        <v>385</v>
       </c>
     </row>
     <row r="446" spans="1:4" x14ac:dyDescent="0.25">
@@ -6928,10 +6929,10 @@
         <v>0.25347222222222221</v>
       </c>
       <c r="B446" t="s">
-        <v>474</v>
+        <v>276</v>
       </c>
       <c r="C446" s="2" t="s">
-        <v>414</v>
+        <v>119</v>
       </c>
     </row>
     <row r="447" spans="1:4" x14ac:dyDescent="0.25">
@@ -6939,10 +6940,10 @@
         <v>0.24166666666666667</v>
       </c>
       <c r="C447" s="2" t="s">
-        <v>414</v>
+        <v>119</v>
       </c>
       <c r="D447" t="s">
-        <v>475</v>
+        <v>386</v>
       </c>
     </row>
     <row r="448" spans="1:4" x14ac:dyDescent="0.25">
@@ -6950,10 +6951,10 @@
         <v>0.23958333333333334</v>
       </c>
       <c r="B448" t="s">
-        <v>476</v>
+        <v>277</v>
       </c>
       <c r="C448" s="2" t="s">
-        <v>414</v>
+        <v>119</v>
       </c>
     </row>
     <row r="449" spans="1:4" x14ac:dyDescent="0.25">
@@ -6961,10 +6962,10 @@
         <v>0.2298611111111111</v>
       </c>
       <c r="C449" s="2" t="s">
-        <v>414</v>
+        <v>119</v>
       </c>
       <c r="D449" t="s">
-        <v>477</v>
+        <v>558</v>
       </c>
     </row>
     <row r="450" spans="1:4" x14ac:dyDescent="0.25">
@@ -6972,10 +6973,10 @@
         <v>0.2298611111111111</v>
       </c>
       <c r="B450" t="s">
-        <v>478</v>
+        <v>278</v>
       </c>
       <c r="C450" s="2" t="s">
-        <v>415</v>
+        <v>120</v>
       </c>
     </row>
     <row r="451" spans="1:4" x14ac:dyDescent="0.25">
@@ -6983,10 +6984,10 @@
         <v>0.2298611111111111</v>
       </c>
       <c r="B451" t="s">
-        <v>479</v>
+        <v>279</v>
       </c>
       <c r="C451" s="2" t="s">
-        <v>416</v>
+        <v>121</v>
       </c>
     </row>
     <row r="452" spans="1:4" x14ac:dyDescent="0.25">
@@ -6994,10 +6995,10 @@
         <v>0.22361111111111112</v>
       </c>
       <c r="C452" s="2" t="s">
-        <v>417</v>
+        <v>122</v>
       </c>
       <c r="D452" t="s">
-        <v>480</v>
+        <v>387</v>
       </c>
     </row>
     <row r="453" spans="1:4" x14ac:dyDescent="0.25">
@@ -7005,10 +7006,10 @@
         <v>0.20972222222222223</v>
       </c>
       <c r="B453" t="s">
-        <v>481</v>
+        <v>280</v>
       </c>
       <c r="C453" s="2" t="s">
-        <v>418</v>
+        <v>123</v>
       </c>
     </row>
     <row r="454" spans="1:4" x14ac:dyDescent="0.25">
@@ -7016,10 +7017,10 @@
         <v>0.20972222222222223</v>
       </c>
       <c r="C454" s="2" t="s">
-        <v>418</v>
+        <v>123</v>
       </c>
       <c r="D454" t="s">
-        <v>93</v>
+        <v>149</v>
       </c>
     </row>
     <row r="455" spans="1:4" x14ac:dyDescent="0.25">
@@ -7027,10 +7028,10 @@
         <v>0.20972222222222223</v>
       </c>
       <c r="B455" t="s">
-        <v>540</v>
+        <v>192</v>
       </c>
       <c r="C455" s="2" t="s">
-        <v>418</v>
+        <v>123</v>
       </c>
     </row>
     <row r="456" spans="1:4" x14ac:dyDescent="0.25">
@@ -7038,10 +7039,10 @@
         <v>0.20972222222222223</v>
       </c>
       <c r="C456" s="2" t="s">
-        <v>418</v>
+        <v>123</v>
       </c>
       <c r="D456" t="s">
-        <v>482</v>
+        <v>559</v>
       </c>
     </row>
     <row r="457" spans="1:4" x14ac:dyDescent="0.25">
@@ -7049,10 +7050,10 @@
         <v>0.19722222222222222</v>
       </c>
       <c r="C457" s="2" t="s">
-        <v>419</v>
+        <v>124</v>
       </c>
       <c r="D457" t="s">
-        <v>483</v>
+        <v>533</v>
       </c>
     </row>
     <row r="458" spans="1:4" x14ac:dyDescent="0.25">
@@ -7060,10 +7061,10 @@
         <v>0.18680555555555556</v>
       </c>
       <c r="C458" s="2" t="s">
-        <v>419</v>
+        <v>124</v>
       </c>
       <c r="D458" t="s">
-        <v>484</v>
+        <v>534</v>
       </c>
     </row>
     <row r="459" spans="1:4" x14ac:dyDescent="0.25">
@@ -7071,10 +7072,10 @@
         <v>0.18194444444444444</v>
       </c>
       <c r="B459" t="s">
-        <v>547</v>
+        <v>167</v>
       </c>
       <c r="C459" s="2" t="s">
-        <v>419</v>
+        <v>124</v>
       </c>
     </row>
     <row r="460" spans="1:4" x14ac:dyDescent="0.25">
@@ -7082,10 +7083,10 @@
         <v>0.17777777777777778</v>
       </c>
       <c r="B460" t="s">
-        <v>485</v>
+        <v>281</v>
       </c>
       <c r="C460" s="2" t="s">
-        <v>419</v>
+        <v>124</v>
       </c>
     </row>
     <row r="461" spans="1:4" x14ac:dyDescent="0.25">
@@ -7093,10 +7094,10 @@
         <v>0.17777777777777778</v>
       </c>
       <c r="B461" t="s">
-        <v>486</v>
+        <v>282</v>
       </c>
       <c r="C461" s="2" t="s">
-        <v>420</v>
+        <v>125</v>
       </c>
     </row>
     <row r="462" spans="1:4" x14ac:dyDescent="0.25">
@@ -7104,10 +7105,10 @@
         <v>0.16458333333333333</v>
       </c>
       <c r="C462" s="2" t="s">
-        <v>421</v>
+        <v>126</v>
       </c>
       <c r="D462" t="s">
-        <v>487</v>
+        <v>535</v>
       </c>
     </row>
     <row r="463" spans="1:4" x14ac:dyDescent="0.25">
@@ -7115,10 +7116,10 @@
         <v>0.15069444444444444</v>
       </c>
       <c r="B463" t="s">
-        <v>548</v>
+        <v>283</v>
       </c>
       <c r="C463" s="2" t="s">
-        <v>422</v>
+        <v>127</v>
       </c>
     </row>
     <row r="464" spans="1:4" x14ac:dyDescent="0.25">
@@ -7126,10 +7127,10 @@
         <v>0.13958333333333334</v>
       </c>
       <c r="C464" s="2" t="s">
-        <v>423</v>
+        <v>128</v>
       </c>
       <c r="D464" t="s">
-        <v>488</v>
+        <v>433</v>
       </c>
     </row>
     <row r="465" spans="1:4" x14ac:dyDescent="0.25">
@@ -7137,10 +7138,10 @@
         <v>0.125</v>
       </c>
       <c r="B465" t="s">
-        <v>489</v>
+        <v>332</v>
       </c>
       <c r="C465" s="2" t="s">
-        <v>423</v>
+        <v>128</v>
       </c>
     </row>
     <row r="466" spans="1:4" x14ac:dyDescent="0.25">
@@ -7148,10 +7149,10 @@
         <v>0.11319444444444444</v>
       </c>
       <c r="C466" s="2" t="s">
-        <v>423</v>
+        <v>128</v>
       </c>
       <c r="D466" t="s">
-        <v>490</v>
+        <v>514</v>
       </c>
     </row>
     <row r="467" spans="1:4" x14ac:dyDescent="0.25">
@@ -7159,10 +7160,10 @@
         <v>0.11319444444444444</v>
       </c>
       <c r="B467" t="s">
-        <v>491</v>
+        <v>284</v>
       </c>
       <c r="C467" s="2" t="s">
-        <v>423</v>
+        <v>128</v>
       </c>
     </row>
     <row r="468" spans="1:4" x14ac:dyDescent="0.25">
@@ -7170,10 +7171,10 @@
         <v>0.1111111111111111</v>
       </c>
       <c r="B468" t="s">
-        <v>492</v>
+        <v>333</v>
       </c>
       <c r="C468" s="2" t="s">
-        <v>423</v>
+        <v>128</v>
       </c>
     </row>
     <row r="469" spans="1:4" x14ac:dyDescent="0.25">
@@ -7181,10 +7182,10 @@
         <v>0.10902777777777778</v>
       </c>
       <c r="B469" t="s">
-        <v>549</v>
+        <v>228</v>
       </c>
       <c r="C469" s="2" t="s">
-        <v>424</v>
+        <v>129</v>
       </c>
     </row>
     <row r="470" spans="1:4" x14ac:dyDescent="0.25">
@@ -7192,10 +7193,10 @@
         <v>9.930555555555555E-2</v>
       </c>
       <c r="C470" s="2" t="s">
-        <v>424</v>
+        <v>129</v>
       </c>
       <c r="D470" t="s">
-        <v>18</v>
+        <v>358</v>
       </c>
     </row>
     <row r="471" spans="1:4" x14ac:dyDescent="0.25">
@@ -7203,10 +7204,10 @@
         <v>9.5138888888888884E-2</v>
       </c>
       <c r="B471" t="s">
-        <v>493</v>
+        <v>285</v>
       </c>
       <c r="C471" s="2" t="s">
-        <v>424</v>
+        <v>129</v>
       </c>
     </row>
     <row r="472" spans="1:4" x14ac:dyDescent="0.25">
@@ -7214,10 +7215,10 @@
         <v>9.0277777777777776E-2</v>
       </c>
       <c r="C472" s="2" t="s">
-        <v>424</v>
+        <v>129</v>
       </c>
       <c r="D472" t="s">
-        <v>494</v>
+        <v>434</v>
       </c>
     </row>
     <row r="473" spans="1:4" x14ac:dyDescent="0.25">
@@ -7225,10 +7226,10 @@
         <v>9.0277777777777776E-2</v>
       </c>
       <c r="B473" t="s">
-        <v>495</v>
+        <v>286</v>
       </c>
       <c r="C473" s="2" t="s">
-        <v>425</v>
+        <v>130</v>
       </c>
     </row>
     <row r="474" spans="1:4" x14ac:dyDescent="0.25">
@@ -7236,10 +7237,10 @@
         <v>9.0277777777777776E-2</v>
       </c>
       <c r="B474" t="s">
-        <v>496</v>
+        <v>334</v>
       </c>
       <c r="C474" s="2" t="s">
-        <v>425</v>
+        <v>130</v>
       </c>
     </row>
     <row r="475" spans="1:4" x14ac:dyDescent="0.25">
@@ -7247,10 +7248,10 @@
         <v>9.0277777777777776E-2</v>
       </c>
       <c r="B475" t="s">
-        <v>497</v>
+        <v>287</v>
       </c>
       <c r="C475" s="2" t="s">
-        <v>426</v>
+        <v>131</v>
       </c>
     </row>
     <row r="476" spans="1:4" x14ac:dyDescent="0.25">
@@ -7258,10 +7259,10 @@
         <v>8.1944444444444445E-2</v>
       </c>
       <c r="C476" s="2" t="s">
-        <v>426</v>
+        <v>131</v>
       </c>
       <c r="D476" t="s">
-        <v>475</v>
+        <v>386</v>
       </c>
     </row>
     <row r="477" spans="1:4" x14ac:dyDescent="0.25">
@@ -7269,10 +7270,10 @@
         <v>8.0555555555555561E-2</v>
       </c>
       <c r="C477" s="2" t="s">
-        <v>426</v>
+        <v>131</v>
       </c>
       <c r="D477" t="s">
-        <v>498</v>
+        <v>463</v>
       </c>
     </row>
     <row r="478" spans="1:4" x14ac:dyDescent="0.25">
@@ -7280,10 +7281,10 @@
         <v>8.0555555555555561E-2</v>
       </c>
       <c r="C478" s="2" t="s">
-        <v>427</v>
+        <v>132</v>
       </c>
       <c r="D478" t="s">
-        <v>499</v>
+        <v>464</v>
       </c>
     </row>
     <row r="479" spans="1:4" x14ac:dyDescent="0.25">
@@ -7291,10 +7292,10 @@
         <v>8.0555555555555561E-2</v>
       </c>
       <c r="B479" t="s">
-        <v>500</v>
+        <v>229</v>
       </c>
       <c r="C479" s="2" t="s">
-        <v>427</v>
+        <v>132</v>
       </c>
     </row>
     <row r="480" spans="1:4" x14ac:dyDescent="0.25">
@@ -7302,10 +7303,10 @@
         <v>8.0555555555555561E-2</v>
       </c>
       <c r="C480" s="2" t="s">
-        <v>428</v>
+        <v>133</v>
       </c>
       <c r="D480" t="s">
-        <v>501</v>
+        <v>465</v>
       </c>
     </row>
     <row r="481" spans="1:4" x14ac:dyDescent="0.25">
@@ -7313,10 +7314,10 @@
         <v>6.5277777777777782E-2</v>
       </c>
       <c r="B481" t="s">
-        <v>550</v>
+        <v>168</v>
       </c>
       <c r="C481" s="2" t="s">
-        <v>429</v>
+        <v>134</v>
       </c>
     </row>
     <row r="482" spans="1:4" x14ac:dyDescent="0.25">
@@ -7324,10 +7325,10 @@
         <v>5.9027777777777776E-2</v>
       </c>
       <c r="B482" t="s">
-        <v>502</v>
+        <v>288</v>
       </c>
       <c r="C482" s="2" t="s">
-        <v>429</v>
+        <v>134</v>
       </c>
     </row>
     <row r="483" spans="1:4" x14ac:dyDescent="0.25">
@@ -7335,10 +7336,10 @@
         <v>5.5555555555555552E-2</v>
       </c>
       <c r="B483" t="s">
-        <v>503</v>
+        <v>289</v>
       </c>
       <c r="C483" s="2" t="s">
-        <v>429</v>
+        <v>134</v>
       </c>
     </row>
     <row r="484" spans="1:4" x14ac:dyDescent="0.25">
@@ -7346,10 +7347,10 @@
         <v>5.5555555555555552E-2</v>
       </c>
       <c r="C484" s="2" t="s">
-        <v>430</v>
+        <v>135</v>
       </c>
       <c r="D484" t="s">
-        <v>504</v>
+        <v>388</v>
       </c>
     </row>
     <row r="485" spans="1:4" x14ac:dyDescent="0.25">
@@ -7357,10 +7358,10 @@
         <v>5.5555555555555552E-2</v>
       </c>
       <c r="C485" s="2" t="s">
-        <v>430</v>
+        <v>135</v>
       </c>
       <c r="D485" t="s">
-        <v>505</v>
+        <v>389</v>
       </c>
     </row>
     <row r="486" spans="1:4" x14ac:dyDescent="0.25">
@@ -7368,10 +7369,10 @@
         <v>5.486111111111111E-2</v>
       </c>
       <c r="C486" s="2" t="s">
-        <v>430</v>
+        <v>135</v>
       </c>
       <c r="D486" t="s">
-        <v>55</v>
+        <v>148</v>
       </c>
     </row>
     <row r="487" spans="1:4" x14ac:dyDescent="0.25">
@@ -7379,10 +7380,10 @@
         <v>5.486111111111111E-2</v>
       </c>
       <c r="B487" t="s">
-        <v>551</v>
+        <v>169</v>
       </c>
       <c r="C487" s="2" t="s">
-        <v>430</v>
+        <v>135</v>
       </c>
     </row>
     <row r="488" spans="1:4" x14ac:dyDescent="0.25">
@@ -7390,10 +7391,10 @@
         <v>5.486111111111111E-2</v>
       </c>
       <c r="C488" s="2" t="s">
-        <v>431</v>
+        <v>136</v>
       </c>
       <c r="D488" t="s">
-        <v>506</v>
+        <v>466</v>
       </c>
     </row>
     <row r="489" spans="1:4" x14ac:dyDescent="0.25">
@@ -7401,10 +7402,10 @@
         <v>5.486111111111111E-2</v>
       </c>
       <c r="C489" s="2" t="s">
-        <v>432</v>
+        <v>137</v>
       </c>
       <c r="D489" t="s">
-        <v>507</v>
+        <v>467</v>
       </c>
     </row>
     <row r="490" spans="1:4" x14ac:dyDescent="0.25">
@@ -7412,10 +7413,10 @@
         <v>3.9583333333333331E-2</v>
       </c>
       <c r="B490" t="s">
-        <v>524</v>
+        <v>154</v>
       </c>
       <c r="C490" s="2" t="s">
-        <v>432</v>
+        <v>137</v>
       </c>
     </row>
     <row r="491" spans="1:4" x14ac:dyDescent="0.25">
@@ -7423,10 +7424,10 @@
         <v>3.8194444444444448E-2</v>
       </c>
       <c r="C491" s="2" t="s">
-        <v>432</v>
+        <v>137</v>
       </c>
       <c r="D491" t="s">
-        <v>508</v>
+        <v>536</v>
       </c>
     </row>
     <row r="492" spans="1:4" x14ac:dyDescent="0.25">
@@ -7434,10 +7435,10 @@
         <v>3.4722222222222224E-2</v>
       </c>
       <c r="C492" s="2" t="s">
-        <v>432</v>
+        <v>137</v>
       </c>
       <c r="D492" t="s">
-        <v>18</v>
+        <v>358</v>
       </c>
     </row>
     <row r="493" spans="1:4" x14ac:dyDescent="0.25">
@@ -7445,10 +7446,10 @@
         <v>3.2638888888888891E-2</v>
       </c>
       <c r="B493" t="s">
-        <v>552</v>
+        <v>170</v>
       </c>
       <c r="C493" s="2" t="s">
-        <v>432</v>
+        <v>137</v>
       </c>
     </row>
     <row r="494" spans="1:4" x14ac:dyDescent="0.25">
@@ -7456,10 +7457,10 @@
         <v>3.1944444444444442E-2</v>
       </c>
       <c r="B494" t="s">
-        <v>509</v>
+        <v>195</v>
       </c>
       <c r="C494" s="2" t="s">
-        <v>432</v>
+        <v>137</v>
       </c>
     </row>
     <row r="495" spans="1:4" x14ac:dyDescent="0.25">
@@ -7467,10 +7468,10 @@
         <v>3.0555555555555555E-2</v>
       </c>
       <c r="B495" t="s">
-        <v>74</v>
+        <v>146</v>
       </c>
       <c r="C495" s="2" t="s">
-        <v>432</v>
+        <v>137</v>
       </c>
     </row>
     <row r="496" spans="1:4" x14ac:dyDescent="0.25">
@@ -7478,10 +7479,10 @@
         <v>1.8749999999999999E-2</v>
       </c>
       <c r="B496" t="s">
-        <v>45</v>
+        <v>200</v>
       </c>
       <c r="C496" s="2" t="s">
-        <v>432</v>
+        <v>137</v>
       </c>
     </row>
     <row r="497" spans="1:4" x14ac:dyDescent="0.25">
@@ -7489,10 +7490,10 @@
         <v>1.8749999999999999E-2</v>
       </c>
       <c r="C497" s="2" t="s">
-        <v>432</v>
+        <v>137</v>
       </c>
       <c r="D497" t="s">
-        <v>510</v>
+        <v>435</v>
       </c>
     </row>
     <row r="498" spans="1:4" x14ac:dyDescent="0.25">
@@ -7500,10 +7501,10 @@
         <v>1.8749999999999999E-2</v>
       </c>
       <c r="C498" s="2" t="s">
-        <v>432</v>
+        <v>137</v>
       </c>
       <c r="D498" t="s">
-        <v>93</v>
+        <v>149</v>
       </c>
     </row>
     <row r="499" spans="1:4" x14ac:dyDescent="0.25">
@@ -7511,10 +7512,10 @@
         <v>1.8749999999999999E-2</v>
       </c>
       <c r="C499" s="2" t="s">
-        <v>432</v>
+        <v>137</v>
       </c>
       <c r="D499" t="s">
-        <v>511</v>
+        <v>560</v>
       </c>
     </row>
     <row r="500" spans="1:4" x14ac:dyDescent="0.25">
@@ -7522,10 +7523,10 @@
         <v>1.7361111111111112E-2</v>
       </c>
       <c r="C500" s="2" t="s">
-        <v>432</v>
+        <v>137</v>
       </c>
       <c r="D500" t="s">
-        <v>216</v>
+        <v>546</v>
       </c>
     </row>
     <row r="501" spans="1:4" x14ac:dyDescent="0.25">
@@ -7533,10 +7534,10 @@
         <v>1.5972222222222221E-2</v>
       </c>
       <c r="C501" s="2" t="s">
-        <v>432</v>
+        <v>137</v>
       </c>
       <c r="D501" t="s">
-        <v>512</v>
+        <v>468</v>
       </c>
     </row>
     <row r="502" spans="1:4" x14ac:dyDescent="0.25">
@@ -7544,10 +7545,10 @@
         <v>1.5972222222222221E-2</v>
       </c>
       <c r="C502" s="2" t="s">
-        <v>433</v>
+        <v>138</v>
       </c>
       <c r="D502" t="s">
-        <v>513</v>
+        <v>469</v>
       </c>
     </row>
     <row r="503" spans="1:4" x14ac:dyDescent="0.25">
@@ -7555,10 +7556,10 @@
         <v>1.5972222222222221E-2</v>
       </c>
       <c r="B503" t="s">
-        <v>553</v>
+        <v>171</v>
       </c>
       <c r="C503" s="2" t="s">
-        <v>433</v>
+        <v>138</v>
       </c>
     </row>
     <row r="504" spans="1:4" x14ac:dyDescent="0.25">
@@ -7566,10 +7567,10 @@
         <v>1.3194444444444444E-2</v>
       </c>
       <c r="C504" s="2" t="s">
-        <v>433</v>
+        <v>138</v>
       </c>
       <c r="D504" t="s">
-        <v>514</v>
+        <v>470</v>
       </c>
     </row>
     <row r="505" spans="1:4" x14ac:dyDescent="0.25">
@@ -7577,10 +7578,10 @@
         <v>1.3194444444444444E-2</v>
       </c>
       <c r="B505" t="s">
-        <v>554</v>
+        <v>172</v>
       </c>
       <c r="C505" s="2" t="s">
-        <v>433</v>
+        <v>138</v>
       </c>
     </row>
     <row r="506" spans="1:4" x14ac:dyDescent="0.25">
@@ -7588,10 +7589,10 @@
         <v>1.1805555555555555E-2</v>
       </c>
       <c r="B506" t="s">
-        <v>555</v>
+        <v>173</v>
       </c>
       <c r="C506" s="2" t="s">
-        <v>433</v>
+        <v>138</v>
       </c>
     </row>
     <row r="507" spans="1:4" x14ac:dyDescent="0.25">
@@ -7599,7 +7600,7 @@
         <v>0</v>
       </c>
       <c r="B507" t="s">
-        <v>515</v>
+        <v>141</v>
       </c>
     </row>
     <row r="508" spans="1:4" x14ac:dyDescent="0.25">
@@ -7607,7 +7608,7 @@
         <v>0</v>
       </c>
       <c r="B508" t="s">
-        <v>516</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
